--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C2" t="n">
         <v>390.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>389.1</v>
-      </c>
       <c r="D2" t="n">
+        <v>391</v>
+      </c>
+      <c r="E2" t="n">
         <v>390.1</v>
       </c>
-      <c r="E2" t="n">
-        <v>389.1</v>
-      </c>
       <c r="F2" t="n">
-        <v>1258.3286</v>
+        <v>448.13</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2850000000001</v>
+        <v>396.3850000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>390.2</v>
+        <v>390.1</v>
       </c>
       <c r="C3" t="n">
-        <v>390.2</v>
+        <v>389.1</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2</v>
+        <v>390.1</v>
       </c>
       <c r="E3" t="n">
-        <v>390.2</v>
+        <v>389.1</v>
       </c>
       <c r="F3" t="n">
-        <v>87.503</v>
+        <v>1258.3286</v>
       </c>
       <c r="G3" t="n">
-        <v>396.0550000000001</v>
+        <v>396.2850000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>390.2</v>
       </c>
       <c r="C4" t="n">
-        <v>388.1</v>
+        <v>390.2</v>
       </c>
       <c r="D4" t="n">
         <v>390.2</v>
       </c>
       <c r="E4" t="n">
-        <v>388.1</v>
+        <v>390.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1241.5989</v>
+        <v>87.503</v>
       </c>
       <c r="G4" t="n">
-        <v>395.7</v>
+        <v>396.0550000000001</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,14 +527,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>389.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -544,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>388</v>
+        <v>390.2</v>
       </c>
       <c r="C5" t="n">
-        <v>388</v>
+        <v>388.1</v>
       </c>
       <c r="D5" t="n">
-        <v>388</v>
+        <v>390.2</v>
       </c>
       <c r="E5" t="n">
-        <v>388</v>
+        <v>388.1</v>
       </c>
       <c r="F5" t="n">
-        <v>3724.7968</v>
+        <v>1241.5989</v>
       </c>
       <c r="G5" t="n">
-        <v>395.2866666666667</v>
+        <v>395.7</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -568,12 +566,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>388.1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>390.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393.9</v>
+        <v>388</v>
       </c>
       <c r="C6" t="n">
-        <v>393.9</v>
+        <v>388</v>
       </c>
       <c r="D6" t="n">
-        <v>393.9</v>
+        <v>388</v>
       </c>
       <c r="E6" t="n">
-        <v>393.9</v>
+        <v>388</v>
       </c>
       <c r="F6" t="n">
-        <v>6.329</v>
+        <v>3724.7968</v>
       </c>
       <c r="G6" t="n">
-        <v>395.0366666666667</v>
+        <v>395.2866666666667</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -609,9 +609,11 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>388</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>388.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -638,19 +640,23 @@
         <v>393.9</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8908</v>
+        <v>6.329</v>
       </c>
       <c r="G7" t="n">
-        <v>394.8516666666667</v>
+        <v>395.0366666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>388</v>
+      </c>
+      <c r="K7" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -665,31 +671,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>393.8</v>
+        <v>393.9</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8</v>
+        <v>393.9</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8</v>
+        <v>393.9</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8</v>
+        <v>393.9</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1164</v>
+        <v>305.8908</v>
       </c>
       <c r="G8" t="n">
-        <v>394.5816666666668</v>
+        <v>394.8516666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -704,22 +714,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="C9" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="D9" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="E9" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="F9" t="n">
-        <v>15527.5347</v>
+        <v>3.1164</v>
       </c>
       <c r="G9" t="n">
-        <v>394.3950000000001</v>
+        <v>394.5816666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -728,7 +738,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -755,10 +767,10 @@
         <v>393</v>
       </c>
       <c r="F10" t="n">
-        <v>3114.3355</v>
+        <v>15527.5347</v>
       </c>
       <c r="G10" t="n">
-        <v>394.1966666666667</v>
+        <v>394.3950000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -767,7 +779,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -782,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D11" t="n">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="E11" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="F11" t="n">
-        <v>43632.8216</v>
+        <v>3114.3355</v>
       </c>
       <c r="G11" t="n">
-        <v>394.2966666666667</v>
+        <v>394.1966666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -806,7 +820,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -821,31 +837,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="C12" t="n">
         <v>410</v>
-      </c>
-      <c r="C12" t="n">
-        <v>391.1</v>
       </c>
       <c r="D12" t="n">
         <v>410</v>
       </c>
       <c r="E12" t="n">
-        <v>389.6</v>
+        <v>393.9</v>
       </c>
       <c r="F12" t="n">
-        <v>8417.83</v>
+        <v>43632.8216</v>
       </c>
       <c r="G12" t="n">
-        <v>394.0316666666667</v>
+        <v>394.2966666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>393</v>
+      </c>
+      <c r="K12" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -860,22 +880,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C13" t="n">
-        <v>399</v>
+        <v>391.1</v>
       </c>
       <c r="D13" t="n">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E13" t="n">
-        <v>399</v>
+        <v>389.6</v>
       </c>
       <c r="F13" t="n">
-        <v>26.96</v>
+        <v>8417.83</v>
       </c>
       <c r="G13" t="n">
-        <v>393.9616666666667</v>
+        <v>394.0316666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -884,7 +904,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -899,31 +921,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398.1</v>
+        <v>399</v>
       </c>
       <c r="C14" t="n">
-        <v>398.1</v>
+        <v>399</v>
       </c>
       <c r="D14" t="n">
-        <v>398.1</v>
+        <v>399</v>
       </c>
       <c r="E14" t="n">
-        <v>398.1</v>
+        <v>399</v>
       </c>
       <c r="F14" t="n">
-        <v>479</v>
+        <v>26.96</v>
       </c>
       <c r="G14" t="n">
-        <v>393.8933333333333</v>
+        <v>393.9616666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -938,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404</v>
+        <v>398.1</v>
       </c>
       <c r="C15" t="n">
-        <v>397</v>
+        <v>398.1</v>
       </c>
       <c r="D15" t="n">
-        <v>411.9</v>
+        <v>398.1</v>
       </c>
       <c r="E15" t="n">
-        <v>397</v>
+        <v>398.1</v>
       </c>
       <c r="F15" t="n">
-        <v>54681.8818</v>
+        <v>479</v>
       </c>
       <c r="G15" t="n">
-        <v>393.805</v>
+        <v>393.8933333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -962,7 +986,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -977,22 +1003,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C16" t="n">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D16" t="n">
-        <v>411</v>
+        <v>411.9</v>
       </c>
       <c r="E16" t="n">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F16" t="n">
-        <v>112.8978</v>
+        <v>54681.8818</v>
       </c>
       <c r="G16" t="n">
-        <v>393.81</v>
+        <v>393.805</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1001,7 +1027,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1016,22 +1044,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>404.4</v>
+        <v>411</v>
       </c>
       <c r="C17" t="n">
-        <v>404.4</v>
+        <v>411</v>
       </c>
       <c r="D17" t="n">
-        <v>404.4</v>
+        <v>411</v>
       </c>
       <c r="E17" t="n">
-        <v>404.4</v>
+        <v>411</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>112.8978</v>
       </c>
       <c r="G17" t="n">
-        <v>393.725</v>
+        <v>393.81</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1040,7 +1068,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,22 +1085,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>405.5</v>
+        <v>404.4</v>
       </c>
       <c r="C18" t="n">
-        <v>405.5</v>
+        <v>404.4</v>
       </c>
       <c r="D18" t="n">
-        <v>405.5</v>
+        <v>404.4</v>
       </c>
       <c r="E18" t="n">
-        <v>405.5</v>
+        <v>404.4</v>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>393.82</v>
+        <v>393.725</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1079,7 +1109,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1094,22 +1126,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>405.5</v>
       </c>
       <c r="C19" t="n">
-        <v>397.2</v>
+        <v>405.5</v>
       </c>
       <c r="D19" t="n">
-        <v>407</v>
+        <v>405.5</v>
       </c>
       <c r="E19" t="n">
-        <v>397.2</v>
+        <v>405.5</v>
       </c>
       <c r="F19" t="n">
-        <v>5340</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>393.595</v>
+        <v>393.82</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1118,7 +1150,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1133,22 +1167,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>406.7</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>406.7</v>
+        <v>397.2</v>
       </c>
       <c r="D20" t="n">
-        <v>406.7</v>
+        <v>407</v>
       </c>
       <c r="E20" t="n">
-        <v>406.7</v>
+        <v>397.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>5340</v>
       </c>
       <c r="G20" t="n">
-        <v>393.7066666666667</v>
+        <v>393.595</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1157,7 +1191,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,22 +1208,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>398.7</v>
+        <v>406.7</v>
       </c>
       <c r="C21" t="n">
-        <v>398.7</v>
+        <v>406.7</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7</v>
+        <v>406.7</v>
       </c>
       <c r="E21" t="n">
-        <v>398.7</v>
+        <v>406.7</v>
       </c>
       <c r="F21" t="n">
-        <v>268.0852</v>
+        <v>1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>393.7183333333334</v>
+        <v>393.7066666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1196,7 +1232,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1211,22 +1249,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>400</v>
+        <v>398.7</v>
       </c>
       <c r="C22" t="n">
-        <v>400</v>
+        <v>398.7</v>
       </c>
       <c r="D22" t="n">
-        <v>404</v>
+        <v>398.7</v>
       </c>
       <c r="E22" t="n">
         <v>398.7</v>
       </c>
       <c r="F22" t="n">
-        <v>215.3757</v>
+        <v>268.0852</v>
       </c>
       <c r="G22" t="n">
-        <v>393.9016666666667</v>
+        <v>393.7183333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1235,7 +1273,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1250,22 +1290,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>400.1</v>
+        <v>400</v>
       </c>
       <c r="C23" t="n">
-        <v>402.9</v>
+        <v>400</v>
       </c>
       <c r="D23" t="n">
-        <v>402.9</v>
+        <v>404</v>
       </c>
       <c r="E23" t="n">
-        <v>400.1</v>
+        <v>398.7</v>
       </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>215.3757</v>
       </c>
       <c r="G23" t="n">
-        <v>393.9683333333334</v>
+        <v>393.9016666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1274,7 +1314,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1289,22 +1331,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>402.7</v>
+        <v>400.1</v>
       </c>
       <c r="C24" t="n">
-        <v>402.7</v>
+        <v>402.9</v>
       </c>
       <c r="D24" t="n">
-        <v>402.8</v>
+        <v>402.9</v>
       </c>
       <c r="E24" t="n">
-        <v>402.7</v>
+        <v>400.1</v>
       </c>
       <c r="F24" t="n">
-        <v>9585.5519</v>
+        <v>4.3</v>
       </c>
       <c r="G24" t="n">
-        <v>394.1933333333334</v>
+        <v>393.9683333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1313,7 +1355,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1334,16 +1378,16 @@
         <v>402.7</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7</v>
+        <v>402.8</v>
       </c>
       <c r="E25" t="n">
         <v>402.7</v>
       </c>
       <c r="F25" t="n">
-        <v>507.7231</v>
+        <v>9585.5519</v>
       </c>
       <c r="G25" t="n">
-        <v>394.4083333333334</v>
+        <v>394.1933333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1352,7 +1396,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1367,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>402.9</v>
+        <v>402.7</v>
       </c>
       <c r="C26" t="n">
-        <v>407.7</v>
+        <v>402.7</v>
       </c>
       <c r="D26" t="n">
-        <v>407.7</v>
+        <v>402.7</v>
       </c>
       <c r="E26" t="n">
-        <v>402.9</v>
+        <v>402.7</v>
       </c>
       <c r="F26" t="n">
-        <v>179.0206</v>
+        <v>507.7231</v>
       </c>
       <c r="G26" t="n">
-        <v>394.6700000000001</v>
+        <v>394.4083333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1391,7 +1437,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1406,22 +1454,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>403.5</v>
+        <v>402.9</v>
       </c>
       <c r="C27" t="n">
-        <v>402.8</v>
+        <v>407.7</v>
       </c>
       <c r="D27" t="n">
-        <v>403.5</v>
+        <v>407.7</v>
       </c>
       <c r="E27" t="n">
-        <v>402.8</v>
+        <v>402.9</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>179.0206</v>
       </c>
       <c r="G27" t="n">
-        <v>394.8500000000001</v>
+        <v>394.6700000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1430,7 +1478,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1445,22 +1495,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="C28" t="n">
         <v>402.8</v>
       </c>
-      <c r="C28" t="n">
-        <v>400.1</v>
-      </c>
       <c r="D28" t="n">
-        <v>407.9</v>
+        <v>403.5</v>
       </c>
       <c r="E28" t="n">
-        <v>400.1</v>
+        <v>402.8</v>
       </c>
       <c r="F28" t="n">
-        <v>940</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>394.9883333333334</v>
+        <v>394.8500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1469,7 +1519,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1484,22 +1536,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>400.1</v>
+        <v>402.8</v>
       </c>
       <c r="C29" t="n">
         <v>400.1</v>
       </c>
       <c r="D29" t="n">
-        <v>400.1</v>
+        <v>407.9</v>
       </c>
       <c r="E29" t="n">
         <v>400.1</v>
       </c>
       <c r="F29" t="n">
-        <v>70.77</v>
+        <v>940</v>
       </c>
       <c r="G29" t="n">
-        <v>395.1566666666667</v>
+        <v>394.9883333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1508,7 +1560,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1523,22 +1577,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>401</v>
+        <v>400.1</v>
       </c>
       <c r="C30" t="n">
-        <v>400</v>
+        <v>400.1</v>
       </c>
       <c r="D30" t="n">
-        <v>401</v>
+        <v>400.1</v>
       </c>
       <c r="E30" t="n">
-        <v>400</v>
+        <v>400.1</v>
       </c>
       <c r="F30" t="n">
-        <v>710</v>
+        <v>70.77</v>
       </c>
       <c r="G30" t="n">
-        <v>395.315</v>
+        <v>395.1566666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1547,7 +1601,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,22 +1618,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C31" t="n">
         <v>400</v>
       </c>
       <c r="D31" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E31" t="n">
         <v>400</v>
       </c>
       <c r="F31" t="n">
-        <v>417.2547</v>
+        <v>710</v>
       </c>
       <c r="G31" t="n">
-        <v>395.475</v>
+        <v>395.315</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1586,7 +1642,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,22 +1659,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C32" t="n">
-        <v>406.4</v>
+        <v>400</v>
       </c>
       <c r="D32" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E32" t="n">
-        <v>399.4</v>
+        <v>400</v>
       </c>
       <c r="F32" t="n">
-        <v>585.3200000000001</v>
+        <v>417.2547</v>
       </c>
       <c r="G32" t="n">
-        <v>395.74</v>
+        <v>395.475</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1625,7 +1683,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>409.2</v>
+        <v>404</v>
       </c>
       <c r="C33" t="n">
-        <v>409.2</v>
+        <v>406.4</v>
       </c>
       <c r="D33" t="n">
-        <v>409.2</v>
+        <v>410</v>
       </c>
       <c r="E33" t="n">
-        <v>409.2</v>
+        <v>399.4</v>
       </c>
       <c r="F33" t="n">
-        <v>61</v>
+        <v>585.3200000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>396.0500000000001</v>
+        <v>395.74</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1664,7 +1724,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,22 +1741,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>406.9</v>
+        <v>409.2</v>
       </c>
       <c r="C34" t="n">
-        <v>404.9</v>
+        <v>409.2</v>
       </c>
       <c r="D34" t="n">
-        <v>406.9</v>
+        <v>409.2</v>
       </c>
       <c r="E34" t="n">
-        <v>399.6</v>
+        <v>409.2</v>
       </c>
       <c r="F34" t="n">
-        <v>163.51</v>
+        <v>61</v>
       </c>
       <c r="G34" t="n">
-        <v>396.1716666666668</v>
+        <v>396.0500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1703,7 +1765,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,22 +1782,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>399.9</v>
+        <v>406.9</v>
       </c>
       <c r="C35" t="n">
-        <v>408</v>
+        <v>404.9</v>
       </c>
       <c r="D35" t="n">
-        <v>408</v>
+        <v>406.9</v>
       </c>
       <c r="E35" t="n">
-        <v>399.9</v>
+        <v>399.6</v>
       </c>
       <c r="F35" t="n">
-        <v>982.6614</v>
+        <v>163.51</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4433333333334</v>
+        <v>396.1716666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1742,7 +1806,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1757,22 +1823,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>399.9</v>
+      </c>
+      <c r="C36" t="n">
         <v>408</v>
-      </c>
-      <c r="C36" t="n">
-        <v>400.9</v>
       </c>
       <c r="D36" t="n">
         <v>408</v>
       </c>
       <c r="E36" t="n">
-        <v>400.8</v>
+        <v>399.9</v>
       </c>
       <c r="F36" t="n">
-        <v>395.73</v>
+        <v>982.6614</v>
       </c>
       <c r="G36" t="n">
-        <v>396.5933333333334</v>
+        <v>396.4433333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1781,7 +1847,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>407.9</v>
+        <v>408</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9</v>
+        <v>400.9</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9</v>
+        <v>408</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9</v>
+        <v>400.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>395.73</v>
       </c>
       <c r="G37" t="n">
-        <v>396.8600000000001</v>
+        <v>396.5933333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1820,7 +1888,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,22 +1905,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>401.4</v>
+        <v>407.9</v>
       </c>
       <c r="C38" t="n">
-        <v>401.4</v>
+        <v>407.9</v>
       </c>
       <c r="D38" t="n">
-        <v>401.4</v>
+        <v>407.9</v>
       </c>
       <c r="E38" t="n">
-        <v>401.4</v>
+        <v>407.9</v>
       </c>
       <c r="F38" t="n">
-        <v>180.73</v>
+        <v>1.25</v>
       </c>
       <c r="G38" t="n">
-        <v>397.0183333333334</v>
+        <v>396.8600000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1859,7 +1929,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,22 +1946,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="C39" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="D39" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="E39" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="F39" t="n">
-        <v>137.3847</v>
+        <v>180.73</v>
       </c>
       <c r="G39" t="n">
-        <v>397.2183333333334</v>
+        <v>397.0183333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1898,7 +1970,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1925,10 +1999,10 @@
         <v>403.9</v>
       </c>
       <c r="F40" t="n">
-        <v>1.3</v>
+        <v>137.3847</v>
       </c>
       <c r="G40" t="n">
-        <v>397.4016666666668</v>
+        <v>397.2183333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1937,7 +2011,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,22 +2028,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="C41" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="D41" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="E41" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>1.3</v>
       </c>
       <c r="G41" t="n">
-        <v>397.5450000000001</v>
+        <v>397.4016666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1976,7 +2052,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,22 +2069,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="C42" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="D42" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="E42" t="n">
-        <v>403.9</v>
+        <v>401.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1.7092</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>397.7283333333335</v>
+        <v>397.5450000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2015,7 +2093,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,22 +2110,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="C43" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="D43" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="E43" t="n">
-        <v>401.4</v>
+        <v>403.9</v>
       </c>
       <c r="F43" t="n">
-        <v>9.99</v>
+        <v>1.7092</v>
       </c>
       <c r="G43" t="n">
-        <v>397.8733333333335</v>
+        <v>397.7283333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2054,7 +2134,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2072,19 +2154,19 @@
         <v>401.4</v>
       </c>
       <c r="C44" t="n">
-        <v>392.3</v>
+        <v>401.4</v>
       </c>
       <c r="D44" t="n">
         <v>401.4</v>
       </c>
       <c r="E44" t="n">
-        <v>392.3</v>
+        <v>401.4</v>
       </c>
       <c r="F44" t="n">
-        <v>13228.79</v>
+        <v>9.99</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8750000000001</v>
+        <v>397.8733333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2093,7 +2175,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,22 +2192,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>395.5</v>
+        <v>401.4</v>
       </c>
       <c r="C45" t="n">
-        <v>395.5</v>
+        <v>392.3</v>
       </c>
       <c r="D45" t="n">
-        <v>395.5</v>
+        <v>401.4</v>
       </c>
       <c r="E45" t="n">
-        <v>395.5</v>
+        <v>392.3</v>
       </c>
       <c r="F45" t="n">
-        <v>25.4753</v>
+        <v>13228.79</v>
       </c>
       <c r="G45" t="n">
-        <v>397.9183333333334</v>
+        <v>397.8750000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2132,7 +2216,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,10 +2245,10 @@
         <v>395.5</v>
       </c>
       <c r="F46" t="n">
-        <v>482.026</v>
+        <v>25.4753</v>
       </c>
       <c r="G46" t="n">
-        <v>397.9266666666668</v>
+        <v>397.9183333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2171,7 +2257,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,10 +2286,10 @@
         <v>395.5</v>
       </c>
       <c r="F47" t="n">
-        <v>472.2799</v>
+        <v>482.026</v>
       </c>
       <c r="G47" t="n">
-        <v>397.9483333333334</v>
+        <v>397.9266666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2210,7 +2298,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,22 +2315,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>393.7</v>
+        <v>395.5</v>
       </c>
       <c r="C48" t="n">
-        <v>392.2</v>
+        <v>395.5</v>
       </c>
       <c r="D48" t="n">
-        <v>393.7</v>
+        <v>395.5</v>
       </c>
       <c r="E48" t="n">
-        <v>392.2</v>
+        <v>395.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1261.6551</v>
+        <v>472.2799</v>
       </c>
       <c r="G48" t="n">
-        <v>397.9150000000001</v>
+        <v>397.9483333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2249,7 +2339,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,22 +2356,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>393</v>
+        <v>393.7</v>
       </c>
       <c r="C49" t="n">
-        <v>393</v>
+        <v>392.2</v>
       </c>
       <c r="D49" t="n">
-        <v>393</v>
+        <v>393.7</v>
       </c>
       <c r="E49" t="n">
-        <v>393</v>
+        <v>392.2</v>
       </c>
       <c r="F49" t="n">
-        <v>472.2799</v>
+        <v>1261.6551</v>
       </c>
       <c r="G49" t="n">
-        <v>397.8950000000001</v>
+        <v>397.9150000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2288,7 +2380,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2315,10 +2409,10 @@
         <v>393</v>
       </c>
       <c r="F50" t="n">
-        <v>195.2536</v>
+        <v>472.2799</v>
       </c>
       <c r="G50" t="n">
-        <v>397.8816666666668</v>
+        <v>397.8950000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2327,7 +2421,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,22 +2438,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="C51" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="D51" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="E51" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="F51" t="n">
-        <v>182.7578</v>
+        <v>195.2536</v>
       </c>
       <c r="G51" t="n">
-        <v>397.9116666666667</v>
+        <v>397.8816666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2366,7 +2462,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,22 +2479,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>394</v>
+        <v>393.8</v>
       </c>
       <c r="C52" t="n">
-        <v>394</v>
+        <v>393.8</v>
       </c>
       <c r="D52" t="n">
-        <v>394</v>
+        <v>393.8</v>
       </c>
       <c r="E52" t="n">
-        <v>394</v>
+        <v>393.8</v>
       </c>
       <c r="F52" t="n">
-        <v>90.5766</v>
+        <v>182.7578</v>
       </c>
       <c r="G52" t="n">
-        <v>397.9450000000001</v>
+        <v>397.9116666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2405,7 +2503,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,10 +2532,10 @@
         <v>394</v>
       </c>
       <c r="F53" t="n">
-        <v>46.8081</v>
+        <v>90.5766</v>
       </c>
       <c r="G53" t="n">
-        <v>397.9783333333334</v>
+        <v>397.9450000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2444,7 +2544,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,22 +2561,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>393.2</v>
+        <v>394</v>
       </c>
       <c r="C54" t="n">
-        <v>391.2</v>
+        <v>394</v>
       </c>
       <c r="D54" t="n">
-        <v>393.2</v>
+        <v>394</v>
       </c>
       <c r="E54" t="n">
-        <v>391.2</v>
+        <v>394</v>
       </c>
       <c r="F54" t="n">
-        <v>4280.8203</v>
+        <v>46.8081</v>
       </c>
       <c r="G54" t="n">
-        <v>397.9816666666667</v>
+        <v>397.9783333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2483,7 +2585,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,22 +2602,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>393.8</v>
+        <v>393.2</v>
       </c>
       <c r="C55" t="n">
-        <v>393.9</v>
+        <v>391.2</v>
       </c>
       <c r="D55" t="n">
-        <v>393.9</v>
+        <v>393.2</v>
       </c>
       <c r="E55" t="n">
-        <v>393.8</v>
+        <v>391.2</v>
       </c>
       <c r="F55" t="n">
-        <v>109.18065514</v>
+        <v>4280.8203</v>
       </c>
       <c r="G55" t="n">
-        <v>398.0333333333335</v>
+        <v>397.9816666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2522,7 +2626,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,22 +2643,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>392.5</v>
+        <v>393.8</v>
       </c>
       <c r="C56" t="n">
-        <v>392.1</v>
+        <v>393.9</v>
       </c>
       <c r="D56" t="n">
-        <v>392.5</v>
+        <v>393.9</v>
       </c>
       <c r="E56" t="n">
-        <v>392.1</v>
+        <v>393.8</v>
       </c>
       <c r="F56" t="n">
-        <v>111.5855</v>
+        <v>109.18065514</v>
       </c>
       <c r="G56" t="n">
-        <v>398.0833333333334</v>
+        <v>398.0333333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2561,7 +2667,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,22 +2684,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>391.1</v>
+        <v>392.5</v>
       </c>
       <c r="C57" t="n">
-        <v>391.1</v>
+        <v>392.1</v>
       </c>
       <c r="D57" t="n">
-        <v>391.1</v>
+        <v>392.5</v>
       </c>
       <c r="E57" t="n">
-        <v>391.1</v>
+        <v>392.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1040</v>
+        <v>111.5855</v>
       </c>
       <c r="G57" t="n">
-        <v>398.0850000000001</v>
+        <v>398.0833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2600,7 +2708,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,22 +2725,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="C58" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="D58" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="E58" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0001</v>
+        <v>1040</v>
       </c>
       <c r="G58" t="n">
-        <v>398.1433333333334</v>
+        <v>398.0850000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2639,7 +2749,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,22 +2766,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>395.7</v>
+        <v>395.5</v>
       </c>
       <c r="C59" t="n">
-        <v>395.7</v>
+        <v>395.5</v>
       </c>
       <c r="D59" t="n">
-        <v>395.7</v>
+        <v>395.5</v>
       </c>
       <c r="E59" t="n">
-        <v>395.7</v>
+        <v>395.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1.3</v>
+        <v>0.0001</v>
       </c>
       <c r="G59" t="n">
-        <v>398.2216666666667</v>
+        <v>398.1433333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2678,7 +2790,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,22 +2807,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>395.9</v>
+        <v>395.7</v>
       </c>
       <c r="C60" t="n">
-        <v>405.5</v>
+        <v>395.7</v>
       </c>
       <c r="D60" t="n">
-        <v>409</v>
+        <v>395.7</v>
       </c>
       <c r="E60" t="n">
-        <v>395.9</v>
+        <v>395.7</v>
       </c>
       <c r="F60" t="n">
-        <v>22119.7678</v>
+        <v>1.3</v>
       </c>
       <c r="G60" t="n">
-        <v>398.4633333333334</v>
+        <v>398.2216666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2717,7 +2831,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,22 +2848,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>405.5</v>
+        <v>395.9</v>
       </c>
       <c r="C61" t="n">
         <v>405.5</v>
       </c>
       <c r="D61" t="n">
-        <v>405.5</v>
+        <v>409</v>
       </c>
       <c r="E61" t="n">
-        <v>405.5</v>
+        <v>395.9</v>
       </c>
       <c r="F61" t="n">
-        <v>12560</v>
+        <v>22119.7678</v>
       </c>
       <c r="G61" t="n">
-        <v>398.7200000000001</v>
+        <v>398.4633333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2756,7 +2872,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,10 +2901,10 @@
         <v>405.5</v>
       </c>
       <c r="F62" t="n">
-        <v>4757.66</v>
+        <v>12560</v>
       </c>
       <c r="G62" t="n">
-        <v>398.9933333333335</v>
+        <v>398.7200000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2795,7 +2913,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,22 +2930,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>405</v>
+        <v>405.5</v>
       </c>
       <c r="C63" t="n">
-        <v>410.2</v>
+        <v>405.5</v>
       </c>
       <c r="D63" t="n">
-        <v>410.2</v>
+        <v>405.5</v>
       </c>
       <c r="E63" t="n">
-        <v>405</v>
+        <v>405.5</v>
       </c>
       <c r="F63" t="n">
-        <v>7328.79721304</v>
+        <v>4757.66</v>
       </c>
       <c r="G63" t="n">
-        <v>399.3266666666668</v>
+        <v>398.9933333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2834,7 +2954,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>409.2</v>
+        <v>405</v>
       </c>
       <c r="C64" t="n">
         <v>410.2</v>
@@ -2858,13 +2980,13 @@
         <v>410.2</v>
       </c>
       <c r="E64" t="n">
-        <v>409.2</v>
+        <v>405</v>
       </c>
       <c r="F64" t="n">
-        <v>11958.75670404</v>
+        <v>7328.79721304</v>
       </c>
       <c r="G64" t="n">
-        <v>399.6950000000002</v>
+        <v>399.3266666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2873,7 +2995,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,7 +3012,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>403</v>
+        <v>409.2</v>
       </c>
       <c r="C65" t="n">
         <v>410.2</v>
@@ -2897,13 +3021,13 @@
         <v>410.2</v>
       </c>
       <c r="E65" t="n">
-        <v>403</v>
+        <v>409.2</v>
       </c>
       <c r="F65" t="n">
-        <v>13454.56908292</v>
+        <v>11958.75670404</v>
       </c>
       <c r="G65" t="n">
-        <v>400.0650000000002</v>
+        <v>399.6950000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2912,7 +3036,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,7 +3053,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>410.2</v>
+        <v>403</v>
       </c>
       <c r="C66" t="n">
         <v>410.2</v>
@@ -2936,13 +3062,13 @@
         <v>410.2</v>
       </c>
       <c r="E66" t="n">
-        <v>410.2</v>
+        <v>403</v>
       </c>
       <c r="F66" t="n">
-        <v>778.0367</v>
+        <v>13454.56908292</v>
       </c>
       <c r="G66" t="n">
-        <v>400.3366666666669</v>
+        <v>400.0650000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2951,7 +3077,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,10 +3106,10 @@
         <v>410.2</v>
       </c>
       <c r="F67" t="n">
-        <v>3322.764</v>
+        <v>778.0367</v>
       </c>
       <c r="G67" t="n">
-        <v>400.6083333333335</v>
+        <v>400.3366666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2990,7 +3118,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,10 +3147,10 @@
         <v>410.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1.708e-05</v>
+        <v>3322.764</v>
       </c>
       <c r="G68" t="n">
-        <v>400.8816666666669</v>
+        <v>400.6083333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3029,7 +3159,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,38 +3176,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>410</v>
+        <v>410.2</v>
       </c>
       <c r="C69" t="n">
-        <v>410</v>
+        <v>410.2</v>
       </c>
       <c r="D69" t="n">
-        <v>410</v>
+        <v>410.2</v>
       </c>
       <c r="E69" t="n">
-        <v>410</v>
+        <v>410.2</v>
       </c>
       <c r="F69" t="n">
-        <v>8.53658536</v>
+        <v>1.708e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>401.1650000000002</v>
+        <v>400.8816666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>389.1</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>1.049227704960165</v>
       </c>
     </row>
     <row r="70">
@@ -3083,36 +3217,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C70" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D70" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E70" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>8.53658536</v>
       </c>
       <c r="G70" t="n">
-        <v>401.4316666666669</v>
+        <v>401.1650000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3122,36 +3252,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C71" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D71" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E71" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F71" t="n">
-        <v>63.54</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>401.3816666666669</v>
+        <v>401.4316666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3161,36 +3287,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>63.54</v>
       </c>
       <c r="G72" t="n">
-        <v>401.6300000000002</v>
+        <v>401.3816666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3200,22 +3322,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>402.2</v>
+        <v>406</v>
       </c>
       <c r="C73" t="n">
-        <v>402.2</v>
+        <v>406</v>
       </c>
       <c r="D73" t="n">
-        <v>402.2</v>
+        <v>406</v>
       </c>
       <c r="E73" t="n">
-        <v>402.2</v>
+        <v>406</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>401.6833333333336</v>
+        <v>401.6300000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3225,11 +3347,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3239,22 +3357,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>404</v>
+        <v>402.2</v>
       </c>
       <c r="C74" t="n">
-        <v>402.1</v>
+        <v>402.2</v>
       </c>
       <c r="D74" t="n">
-        <v>404</v>
+        <v>402.2</v>
       </c>
       <c r="E74" t="n">
-        <v>402.1</v>
+        <v>402.2</v>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>401.7500000000002</v>
+        <v>401.6833333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3264,11 +3382,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3392,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>402.2</v>
+        <v>404</v>
       </c>
       <c r="C75" t="n">
-        <v>402.2</v>
+        <v>402.1</v>
       </c>
       <c r="D75" t="n">
-        <v>402.2</v>
+        <v>404</v>
       </c>
       <c r="E75" t="n">
-        <v>402.2</v>
+        <v>402.1</v>
       </c>
       <c r="F75" t="n">
-        <v>599.63</v>
+        <v>200</v>
       </c>
       <c r="G75" t="n">
-        <v>401.8366666666669</v>
+        <v>401.7500000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3303,11 +3417,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3317,22 +3427,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>403.2</v>
+        <v>402.2</v>
       </c>
       <c r="C76" t="n">
-        <v>400.8</v>
+        <v>402.2</v>
       </c>
       <c r="D76" t="n">
-        <v>403.2</v>
+        <v>402.2</v>
       </c>
       <c r="E76" t="n">
-        <v>400.8</v>
+        <v>402.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>599.63</v>
       </c>
       <c r="G76" t="n">
-        <v>401.6666666666669</v>
+        <v>401.8366666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3342,11 +3452,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3462,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>401.8</v>
+        <v>403.2</v>
       </c>
       <c r="C77" t="n">
-        <v>399.1</v>
+        <v>400.8</v>
       </c>
       <c r="D77" t="n">
-        <v>401.8</v>
+        <v>403.2</v>
       </c>
       <c r="E77" t="n">
-        <v>399.1</v>
+        <v>400.8</v>
       </c>
       <c r="F77" t="n">
-        <v>408.16</v>
+        <v>5000</v>
       </c>
       <c r="G77" t="n">
-        <v>401.5783333333335</v>
+        <v>401.6666666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3381,11 +3487,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3497,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>403.8</v>
+        <v>401.8</v>
       </c>
       <c r="C78" t="n">
-        <v>403.8</v>
+        <v>399.1</v>
       </c>
       <c r="D78" t="n">
-        <v>403.8</v>
+        <v>401.8</v>
       </c>
       <c r="E78" t="n">
-        <v>403.8</v>
+        <v>399.1</v>
       </c>
       <c r="F78" t="n">
-        <v>81.8121</v>
+        <v>408.16</v>
       </c>
       <c r="G78" t="n">
-        <v>401.5500000000002</v>
+        <v>401.5783333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3420,11 +3522,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3446,10 +3544,10 @@
         <v>403.8</v>
       </c>
       <c r="F79" t="n">
-        <v>19878.555</v>
+        <v>81.8121</v>
       </c>
       <c r="G79" t="n">
-        <v>401.6600000000001</v>
+        <v>401.5500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3459,11 +3557,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3485,10 +3579,10 @@
         <v>403.8</v>
       </c>
       <c r="F80" t="n">
-        <v>332.5507</v>
+        <v>19878.555</v>
       </c>
       <c r="G80" t="n">
-        <v>401.6116666666668</v>
+        <v>401.6600000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3498,11 +3592,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3524,10 +3614,10 @@
         <v>403.8</v>
       </c>
       <c r="F81" t="n">
-        <v>2740</v>
+        <v>332.5507</v>
       </c>
       <c r="G81" t="n">
-        <v>401.6966666666668</v>
+        <v>401.6116666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3537,11 +3627,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3563,10 +3649,10 @@
         <v>403.8</v>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>2740</v>
       </c>
       <c r="G82" t="n">
-        <v>401.7600000000001</v>
+        <v>401.6966666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3576,11 +3662,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3602,10 +3684,10 @@
         <v>403.8</v>
       </c>
       <c r="F83" t="n">
-        <v>2518.31</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>401.775</v>
+        <v>401.7600000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3615,11 +3697,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3641,10 +3719,10 @@
         <v>403.8</v>
       </c>
       <c r="F84" t="n">
-        <v>400</v>
+        <v>2518.31</v>
       </c>
       <c r="G84" t="n">
-        <v>401.7933333333334</v>
+        <v>401.775</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3654,11 +3732,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3680,10 +3754,10 @@
         <v>403.8</v>
       </c>
       <c r="F85" t="n">
-        <v>18.97</v>
+        <v>400</v>
       </c>
       <c r="G85" t="n">
-        <v>401.8116666666667</v>
+        <v>401.7933333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3693,11 +3767,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3707,22 +3777,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>404</v>
+        <v>403.8</v>
       </c>
       <c r="C86" t="n">
         <v>403.8</v>
       </c>
       <c r="D86" t="n">
-        <v>404</v>
+        <v>403.8</v>
       </c>
       <c r="E86" t="n">
         <v>403.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1453.7886</v>
+        <v>18.97</v>
       </c>
       <c r="G86" t="n">
-        <v>401.7466666666667</v>
+        <v>401.8116666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3732,11 +3802,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3746,22 +3812,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>403.8</v>
+        <v>404</v>
       </c>
       <c r="C87" t="n">
         <v>403.8</v>
       </c>
       <c r="D87" t="n">
-        <v>403.8</v>
+        <v>404</v>
       </c>
       <c r="E87" t="n">
         <v>403.8</v>
       </c>
       <c r="F87" t="n">
-        <v>1060</v>
+        <v>1453.7886</v>
       </c>
       <c r="G87" t="n">
-        <v>401.7633333333333</v>
+        <v>401.7466666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3771,11 +3837,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3797,10 +3859,10 @@
         <v>403.8</v>
       </c>
       <c r="F88" t="n">
-        <v>2510</v>
+        <v>1060</v>
       </c>
       <c r="G88" t="n">
-        <v>401.825</v>
+        <v>401.7633333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3810,11 +3872,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3836,10 +3894,10 @@
         <v>403.8</v>
       </c>
       <c r="F89" t="n">
-        <v>8230</v>
+        <v>2510</v>
       </c>
       <c r="G89" t="n">
-        <v>401.8866666666667</v>
+        <v>401.825</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3849,11 +3907,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +3929,10 @@
         <v>403.8</v>
       </c>
       <c r="F90" t="n">
-        <v>560</v>
+        <v>8230</v>
       </c>
       <c r="G90" t="n">
-        <v>401.95</v>
+        <v>401.8866666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3888,11 +3942,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3914,10 +3964,10 @@
         <v>403.8</v>
       </c>
       <c r="F91" t="n">
-        <v>4296.0869</v>
+        <v>560</v>
       </c>
       <c r="G91" t="n">
-        <v>402.0133333333333</v>
+        <v>401.95</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3927,11 +3977,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3941,22 +3987,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>401</v>
+        <v>403.8</v>
       </c>
       <c r="C92" t="n">
-        <v>401</v>
+        <v>403.8</v>
       </c>
       <c r="D92" t="n">
-        <v>401</v>
+        <v>403.8</v>
       </c>
       <c r="E92" t="n">
-        <v>401</v>
+        <v>403.8</v>
       </c>
       <c r="F92" t="n">
-        <v>14.0913</v>
+        <v>4296.0869</v>
       </c>
       <c r="G92" t="n">
-        <v>401.9233333333333</v>
+        <v>402.0133333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3966,11 +4012,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3983,19 +4025,19 @@
         <v>401</v>
       </c>
       <c r="C93" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="D93" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="E93" t="n">
         <v>401</v>
       </c>
       <c r="F93" t="n">
-        <v>4.4</v>
+        <v>14.0913</v>
       </c>
       <c r="G93" t="n">
-        <v>401.8516666666666</v>
+        <v>401.9233333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4005,11 +4047,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4022,19 +4060,19 @@
         <v>401</v>
       </c>
       <c r="C94" t="n">
-        <v>401</v>
+        <v>404.9</v>
       </c>
       <c r="D94" t="n">
-        <v>401</v>
+        <v>404.9</v>
       </c>
       <c r="E94" t="n">
         <v>401</v>
       </c>
       <c r="F94" t="n">
-        <v>246.8499</v>
+        <v>4.4</v>
       </c>
       <c r="G94" t="n">
-        <v>401.7866666666666</v>
+        <v>401.8516666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4044,11 +4082,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4092,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="C95" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="D95" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="E95" t="n">
-        <v>404.9</v>
+        <v>401</v>
       </c>
       <c r="F95" t="n">
-        <v>1.24</v>
+        <v>246.8499</v>
       </c>
       <c r="G95" t="n">
-        <v>401.735</v>
+        <v>401.7866666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4083,11 +4117,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4097,22 +4127,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="C96" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="D96" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="E96" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="F96" t="n">
-        <v>4267.5889</v>
+        <v>1.24</v>
       </c>
       <c r="G96" t="n">
-        <v>401.7383333333333</v>
+        <v>401.735</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4122,11 +4152,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4139,19 +4165,19 @@
         <v>401.1</v>
       </c>
       <c r="C97" t="n">
-        <v>404.9</v>
+        <v>401.1</v>
       </c>
       <c r="D97" t="n">
-        <v>404.9</v>
+        <v>401.1</v>
       </c>
       <c r="E97" t="n">
         <v>401.1</v>
       </c>
       <c r="F97" t="n">
-        <v>3.3</v>
+        <v>4267.5889</v>
       </c>
       <c r="G97" t="n">
-        <v>401.6883333333333</v>
+        <v>401.7383333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4161,11 +4187,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4178,19 +4200,19 @@
         <v>401.1</v>
       </c>
       <c r="C98" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="D98" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="E98" t="n">
         <v>401.1</v>
       </c>
       <c r="F98" t="n">
-        <v>252.4561</v>
+        <v>3.3</v>
       </c>
       <c r="G98" t="n">
-        <v>401.6833333333332</v>
+        <v>401.6883333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4200,11 +4222,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4226,10 +4244,10 @@
         <v>401.1</v>
       </c>
       <c r="F99" t="n">
-        <v>75.7368</v>
+        <v>252.4561</v>
       </c>
       <c r="G99" t="n">
-        <v>401.6366666666665</v>
+        <v>401.6833333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4239,11 +4257,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4265,10 +4279,10 @@
         <v>401.1</v>
       </c>
       <c r="F100" t="n">
-        <v>374.8973</v>
+        <v>75.7368</v>
       </c>
       <c r="G100" t="n">
-        <v>401.5899999999998</v>
+        <v>401.6366666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4278,11 +4292,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4304,10 +4314,10 @@
         <v>401.1</v>
       </c>
       <c r="F101" t="n">
-        <v>901.5371</v>
+        <v>374.8973</v>
       </c>
       <c r="G101" t="n">
-        <v>401.5849999999998</v>
+        <v>401.5899999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4317,11 +4327,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4343,10 +4349,10 @@
         <v>401.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>901.5371</v>
       </c>
       <c r="G102" t="n">
-        <v>401.538333333333</v>
+        <v>401.5849999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4356,11 +4362,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4382,10 +4384,10 @@
         <v>401.1</v>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="n">
-        <v>401.533333333333</v>
+        <v>401.538333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4395,11 +4397,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4409,22 +4407,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="C104" t="n">
         <v>401.1</v>
       </c>
       <c r="D104" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="E104" t="n">
         <v>401.1</v>
       </c>
       <c r="F104" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>401.6799999999996</v>
+        <v>401.533333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4434,11 +4432,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4442,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="C105" t="n">
         <v>401.1</v>
       </c>
       <c r="D105" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="E105" t="n">
         <v>401.1</v>
       </c>
       <c r="F105" t="n">
-        <v>2660</v>
+        <v>740</v>
       </c>
       <c r="G105" t="n">
-        <v>401.7733333333329</v>
+        <v>401.6799999999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4473,11 +4467,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4487,22 +4477,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="C106" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="D106" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="E106" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="F106" t="n">
-        <v>1590</v>
+        <v>2660</v>
       </c>
       <c r="G106" t="n">
-        <v>401.8683333333329</v>
+        <v>401.7733333333329</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4512,11 +4502,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4538,10 +4524,10 @@
         <v>401.2</v>
       </c>
       <c r="F107" t="n">
-        <v>150.4146</v>
+        <v>1590</v>
       </c>
       <c r="G107" t="n">
-        <v>401.963333333333</v>
+        <v>401.8683333333329</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4551,11 +4537,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4565,22 +4547,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="C108" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="D108" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="E108" t="n">
-        <v>401.1</v>
+        <v>401.2</v>
       </c>
       <c r="F108" t="n">
-        <v>970</v>
+        <v>150.4146</v>
       </c>
       <c r="G108" t="n">
-        <v>402.1116666666663</v>
+        <v>401.963333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4590,11 +4572,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4616,10 +4594,10 @@
         <v>401.1</v>
       </c>
       <c r="F109" t="n">
-        <v>20.322</v>
+        <v>970</v>
       </c>
       <c r="G109" t="n">
-        <v>402.2466666666662</v>
+        <v>402.1116666666663</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4629,11 +4607,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4655,10 +4629,10 @@
         <v>401.1</v>
       </c>
       <c r="F110" t="n">
-        <v>929.1826</v>
+        <v>20.322</v>
       </c>
       <c r="G110" t="n">
-        <v>402.3816666666662</v>
+        <v>402.2466666666662</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4668,11 +4642,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4685,19 +4655,19 @@
         <v>401.1</v>
       </c>
       <c r="C111" t="n">
-        <v>399.2</v>
+        <v>401.1</v>
       </c>
       <c r="D111" t="n">
         <v>401.1</v>
       </c>
       <c r="E111" t="n">
-        <v>399.2</v>
+        <v>401.1</v>
       </c>
       <c r="F111" t="n">
-        <v>1760</v>
+        <v>929.1826</v>
       </c>
       <c r="G111" t="n">
-        <v>402.4716666666662</v>
+        <v>402.3816666666662</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4707,11 +4677,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4721,22 +4687,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>399.2</v>
+        <v>401.1</v>
       </c>
       <c r="C112" t="n">
         <v>399.2</v>
       </c>
       <c r="D112" t="n">
-        <v>399.2</v>
+        <v>401.1</v>
       </c>
       <c r="E112" t="n">
         <v>399.2</v>
       </c>
       <c r="F112" t="n">
-        <v>689.5494</v>
+        <v>1760</v>
       </c>
       <c r="G112" t="n">
-        <v>402.5583333333329</v>
+        <v>402.4716666666662</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4746,11 +4712,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4772,10 +4734,10 @@
         <v>399.2</v>
       </c>
       <c r="F113" t="n">
-        <v>610.667</v>
+        <v>689.5494</v>
       </c>
       <c r="G113" t="n">
-        <v>402.6449999999996</v>
+        <v>402.5583333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4785,11 +4747,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4799,22 +4757,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>400.1</v>
+        <v>399.2</v>
       </c>
       <c r="C114" t="n">
         <v>399.2</v>
       </c>
       <c r="D114" t="n">
-        <v>400.1</v>
+        <v>399.2</v>
       </c>
       <c r="E114" t="n">
         <v>399.2</v>
       </c>
       <c r="F114" t="n">
-        <v>182.0577</v>
+        <v>610.667</v>
       </c>
       <c r="G114" t="n">
-        <v>402.7783333333329</v>
+        <v>402.6449999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4824,11 +4782,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4792,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C115" t="n">
         <v>399.2</v>
       </c>
-      <c r="C115" t="n">
-        <v>399</v>
-      </c>
       <c r="D115" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E115" t="n">
         <v>399.2</v>
       </c>
-      <c r="E115" t="n">
-        <v>393.9</v>
-      </c>
       <c r="F115" t="n">
-        <v>1539.201</v>
+        <v>182.0577</v>
       </c>
       <c r="G115" t="n">
-        <v>402.8633333333329</v>
+        <v>402.7783333333329</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4863,11 +4817,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4877,22 +4827,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>398</v>
+        <v>399.2</v>
       </c>
       <c r="C116" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D116" t="n">
-        <v>400.1</v>
+        <v>399.2</v>
       </c>
       <c r="E116" t="n">
-        <v>398</v>
+        <v>393.9</v>
       </c>
       <c r="F116" t="n">
-        <v>478.3417</v>
+        <v>1539.201</v>
       </c>
       <c r="G116" t="n">
-        <v>402.9616666666662</v>
+        <v>402.8633333333329</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4902,11 +4852,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4862,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>398.1</v>
+        <v>398</v>
       </c>
       <c r="C117" t="n">
-        <v>400.1</v>
+        <v>398</v>
       </c>
       <c r="D117" t="n">
         <v>400.1</v>
       </c>
       <c r="E117" t="n">
-        <v>398.1</v>
+        <v>398</v>
       </c>
       <c r="F117" t="n">
-        <v>3.3</v>
+        <v>478.3417</v>
       </c>
       <c r="G117" t="n">
-        <v>403.1116666666663</v>
+        <v>402.9616666666662</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4941,11 +4887,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +4897,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>400.1</v>
+        <v>398.1</v>
       </c>
       <c r="C118" t="n">
         <v>400.1</v>
@@ -4964,13 +4906,13 @@
         <v>400.1</v>
       </c>
       <c r="E118" t="n">
-        <v>400.1</v>
+        <v>398.1</v>
       </c>
       <c r="F118" t="n">
-        <v>21</v>
+        <v>3.3</v>
       </c>
       <c r="G118" t="n">
-        <v>403.1883333333329</v>
+        <v>403.1116666666663</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4980,11 +4922,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4997,19 +4935,19 @@
         <v>400.1</v>
       </c>
       <c r="C119" t="n">
-        <v>400.2</v>
+        <v>400.1</v>
       </c>
       <c r="D119" t="n">
-        <v>400.2</v>
+        <v>400.1</v>
       </c>
       <c r="E119" t="n">
         <v>400.1</v>
       </c>
       <c r="F119" t="n">
-        <v>249.25295739</v>
+        <v>21</v>
       </c>
       <c r="G119" t="n">
-        <v>403.2633333333329</v>
+        <v>403.1883333333329</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5019,11 +4957,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5033,22 +4967,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="C120" t="n">
-        <v>401.2</v>
+        <v>400.2</v>
       </c>
       <c r="D120" t="n">
-        <v>401.2</v>
+        <v>400.2</v>
       </c>
       <c r="E120" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="F120" t="n">
-        <v>1937.5812</v>
+        <v>249.25295739</v>
       </c>
       <c r="G120" t="n">
-        <v>403.1916666666663</v>
+        <v>403.2633333333329</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5058,11 +4992,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5072,7 +5002,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="C121" t="n">
         <v>401.2</v>
@@ -5081,13 +5011,13 @@
         <v>401.2</v>
       </c>
       <c r="E121" t="n">
-        <v>401.2</v>
+        <v>401.1</v>
       </c>
       <c r="F121" t="n">
-        <v>248.3321</v>
+        <v>1937.5812</v>
       </c>
       <c r="G121" t="n">
-        <v>403.1199999999996</v>
+        <v>403.1916666666663</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5097,11 +5027,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5123,10 +5049,10 @@
         <v>401.2</v>
       </c>
       <c r="F122" t="n">
-        <v>4194</v>
+        <v>248.3321</v>
       </c>
       <c r="G122" t="n">
-        <v>403.0483333333329</v>
+        <v>403.1199999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5136,11 +5062,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5162,10 +5084,10 @@
         <v>401.2</v>
       </c>
       <c r="F123" t="n">
-        <v>3928.8818</v>
+        <v>4194</v>
       </c>
       <c r="G123" t="n">
-        <v>402.8983333333329</v>
+        <v>403.0483333333329</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5175,11 +5097,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5192,19 +5110,19 @@
         <v>401.2</v>
       </c>
       <c r="C124" t="n">
-        <v>405.4</v>
+        <v>401.2</v>
       </c>
       <c r="D124" t="n">
-        <v>405.4</v>
+        <v>401.2</v>
       </c>
       <c r="E124" t="n">
         <v>401.2</v>
       </c>
       <c r="F124" t="n">
-        <v>221.63630098</v>
+        <v>3928.8818</v>
       </c>
       <c r="G124" t="n">
-        <v>402.8183333333329</v>
+        <v>402.8983333333329</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5214,11 +5132,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5142,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>402.3</v>
+        <v>401.2</v>
       </c>
       <c r="C125" t="n">
-        <v>402.3</v>
+        <v>405.4</v>
       </c>
       <c r="D125" t="n">
-        <v>402.3</v>
+        <v>405.4</v>
       </c>
       <c r="E125" t="n">
-        <v>402.3</v>
+        <v>401.2</v>
       </c>
       <c r="F125" t="n">
-        <v>86.90000000000001</v>
+        <v>221.63630098</v>
       </c>
       <c r="G125" t="n">
-        <v>402.6866666666663</v>
+        <v>402.8183333333329</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5253,11 +5167,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5267,22 +5177,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>401.3</v>
+        <v>402.3</v>
       </c>
       <c r="C126" t="n">
-        <v>405.4</v>
+        <v>402.3</v>
       </c>
       <c r="D126" t="n">
-        <v>405.4</v>
+        <v>402.3</v>
       </c>
       <c r="E126" t="n">
-        <v>401.3</v>
+        <v>402.3</v>
       </c>
       <c r="F126" t="n">
-        <v>2621.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>402.6066666666663</v>
+        <v>402.6866666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5292,11 +5202,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5306,22 +5212,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>402</v>
+        <v>401.3</v>
       </c>
       <c r="C127" t="n">
-        <v>403.9</v>
+        <v>405.4</v>
       </c>
       <c r="D127" t="n">
-        <v>403.9</v>
+        <v>405.4</v>
       </c>
       <c r="E127" t="n">
-        <v>402</v>
+        <v>401.3</v>
       </c>
       <c r="F127" t="n">
-        <v>93.14490000000001</v>
+        <v>2621.3</v>
       </c>
       <c r="G127" t="n">
-        <v>402.5016666666663</v>
+        <v>402.6066666666663</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5331,11 +5237,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5348,19 +5250,19 @@
         <v>402</v>
       </c>
       <c r="C128" t="n">
-        <v>402.9</v>
+        <v>403.9</v>
       </c>
       <c r="D128" t="n">
-        <v>402.9</v>
+        <v>403.9</v>
       </c>
       <c r="E128" t="n">
-        <v>401.3</v>
+        <v>402</v>
       </c>
       <c r="F128" t="n">
-        <v>749.5585</v>
+        <v>93.14490000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>402.3799999999996</v>
+        <v>402.5016666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5370,12 +5272,43 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>402</v>
+      </c>
+      <c r="C129" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>749.5585</v>
+      </c>
+      <c r="G129" t="n">
+        <v>402.3799999999996</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>448.13</v>
       </c>
       <c r="G2" t="n">
+        <v>391.8933333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>396.3850000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>1258.3286</v>
       </c>
       <c r="G3" t="n">
+        <v>391.5533333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>396.2850000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>390.1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +535,27 @@
         <v>87.503</v>
       </c>
       <c r="G4" t="n">
+        <v>391.2866666666669</v>
+      </c>
+      <c r="H4" t="n">
         <v>396.0550000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>389.1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>389.1</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,26 +579,27 @@
         <v>1241.5989</v>
       </c>
       <c r="G5" t="n">
+        <v>390.8800000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>395.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>390.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,26 +623,27 @@
         <v>3724.7968</v>
       </c>
       <c r="G6" t="n">
+        <v>390.4933333333336</v>
+      </c>
+      <c r="H6" t="n">
         <v>395.2866666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>388.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,26 +667,27 @@
         <v>6.329</v>
       </c>
       <c r="G7" t="n">
+        <v>390.6200000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>395.0366666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>388</v>
       </c>
-      <c r="K7" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,26 +711,27 @@
         <v>305.8908</v>
       </c>
       <c r="G8" t="n">
+        <v>390.7466666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>394.8516666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>393.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,24 +755,25 @@
         <v>3.1164</v>
       </c>
       <c r="G9" t="n">
+        <v>390.8666666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>394.5816666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -770,24 +797,25 @@
         <v>15527.5347</v>
       </c>
       <c r="G10" t="n">
+        <v>391.0000000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>394.3950000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -811,24 +839,25 @@
         <v>3114.3355</v>
       </c>
       <c r="G11" t="n">
+        <v>391.1466666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>394.1966666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -852,26 +881,27 @@
         <v>43632.8216</v>
       </c>
       <c r="G12" t="n">
+        <v>392.5400000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>394.2966666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>393</v>
       </c>
-      <c r="K12" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -895,24 +925,25 @@
         <v>8417.83</v>
       </c>
       <c r="G13" t="n">
+        <v>392.5466666666669</v>
+      </c>
+      <c r="H13" t="n">
         <v>394.0316666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -936,24 +967,25 @@
         <v>26.96</v>
       </c>
       <c r="G14" t="n">
+        <v>393.0133333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>393.9616666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -977,24 +1009,25 @@
         <v>479</v>
       </c>
       <c r="G15" t="n">
+        <v>393.4866666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>393.8933333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,24 +1051,25 @@
         <v>54681.8818</v>
       </c>
       <c r="G16" t="n">
+        <v>393.8866666666669</v>
+      </c>
+      <c r="H16" t="n">
         <v>393.805</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,24 +1093,25 @@
         <v>112.8978</v>
       </c>
       <c r="G17" t="n">
+        <v>395.2800000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>393.81</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1135,25 @@
         <v>50</v>
       </c>
       <c r="G18" t="n">
+        <v>396.3000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>393.725</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1141,24 +1177,25 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
+        <v>397.3200000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>393.82</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,24 +1219,25 @@
         <v>5340</v>
       </c>
       <c r="G20" t="n">
+        <v>397.9266666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>393.595</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,24 +1261,25 @@
         <v>1.3</v>
       </c>
       <c r="G21" t="n">
+        <v>399.1733333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>393.7066666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1264,24 +1303,25 @@
         <v>268.0852</v>
       </c>
       <c r="G22" t="n">
+        <v>399.4933333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>393.7183333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1305,24 +1345,25 @@
         <v>215.3757</v>
       </c>
       <c r="G23" t="n">
+        <v>399.9000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>393.9016666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1346,24 +1387,25 @@
         <v>4.3</v>
       </c>
       <c r="G24" t="n">
+        <v>400.5066666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>393.9683333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1387,24 +1429,25 @@
         <v>9585.5519</v>
       </c>
       <c r="G25" t="n">
+        <v>401.1533333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>394.1933333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,24 +1471,25 @@
         <v>507.7231</v>
       </c>
       <c r="G26" t="n">
+        <v>401.8000000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>394.4083333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1469,24 +1513,25 @@
         <v>179.0206</v>
       </c>
       <c r="G27" t="n">
+        <v>401.6466666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>394.6700000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,24 +1555,25 @@
         <v>100</v>
       </c>
       <c r="G28" t="n">
+        <v>402.4266666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>394.8500000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,24 +1597,25 @@
         <v>940</v>
       </c>
       <c r="G29" t="n">
+        <v>402.5000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>394.9883333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,24 +1639,25 @@
         <v>70.77</v>
       </c>
       <c r="G30" t="n">
+        <v>402.6333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>395.1566666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1633,24 +1681,25 @@
         <v>710</v>
       </c>
       <c r="G31" t="n">
+        <v>402.8333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>395.315</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,24 +1723,25 @@
         <v>417.2547</v>
       </c>
       <c r="G32" t="n">
+        <v>402.1000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>395.475</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,24 +1765,25 @@
         <v>585.3200000000001</v>
       </c>
       <c r="G33" t="n">
+        <v>402.2333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>395.74</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,24 +1807,25 @@
         <v>61</v>
       </c>
       <c r="G34" t="n">
+        <v>402.4800000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>396.0500000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1797,26 +1849,25 @@
         <v>163.51</v>
       </c>
       <c r="G35" t="n">
+        <v>402.9933333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>396.1716666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1838,24 +1889,21 @@
         <v>982.6614</v>
       </c>
       <c r="G36" t="n">
+        <v>403.08</v>
+      </c>
+      <c r="H36" t="n">
         <v>396.4433333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,24 +1927,21 @@
         <v>395.73</v>
       </c>
       <c r="G37" t="n">
+        <v>403.2266666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>396.5933333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,24 +1965,21 @@
         <v>1.25</v>
       </c>
       <c r="G38" t="n">
+        <v>403.7533333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>396.8600000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1961,24 +2003,21 @@
         <v>180.73</v>
       </c>
       <c r="G39" t="n">
+        <v>403.6533333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>397.0183333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,24 +2041,21 @@
         <v>137.3847</v>
       </c>
       <c r="G40" t="n">
+        <v>403.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>397.2183333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,24 +2079,21 @@
         <v>1.3</v>
       </c>
       <c r="G41" t="n">
+        <v>403.8133333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>397.4016666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,24 +2117,21 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
+        <v>403.3933333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>397.5450000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2125,24 +2155,21 @@
         <v>1.7092</v>
       </c>
       <c r="G43" t="n">
+        <v>403.4666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>397.7283333333335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,24 +2193,21 @@
         <v>9.99</v>
       </c>
       <c r="G44" t="n">
+        <v>403.5533333333332</v>
+      </c>
+      <c r="H44" t="n">
         <v>397.8733333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2207,24 +2231,21 @@
         <v>13228.79</v>
       </c>
       <c r="G45" t="n">
+        <v>403.0333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>397.8750000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,24 +2269,21 @@
         <v>25.4753</v>
       </c>
       <c r="G46" t="n">
+        <v>402.7333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>397.9183333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2289,24 +2307,21 @@
         <v>482.026</v>
       </c>
       <c r="G47" t="n">
+        <v>402.4333333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>397.9266666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,24 +2345,21 @@
         <v>472.2799</v>
       </c>
       <c r="G48" t="n">
+        <v>401.7066666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>397.9483333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2371,24 +2383,21 @@
         <v>1261.6551</v>
       </c>
       <c r="G49" t="n">
+        <v>400.5733333333332</v>
+      </c>
+      <c r="H49" t="n">
         <v>397.9150000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,24 +2421,21 @@
         <v>472.2799</v>
       </c>
       <c r="G50" t="n">
+        <v>399.7799999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>397.8950000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,24 +2459,21 @@
         <v>195.2536</v>
       </c>
       <c r="G51" t="n">
+        <v>398.7799999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>397.8816666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,24 +2497,21 @@
         <v>182.7578</v>
       </c>
       <c r="G52" t="n">
+        <v>398.3066666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>397.9116666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2535,24 +2535,21 @@
         <v>90.5766</v>
       </c>
       <c r="G53" t="n">
+        <v>397.38</v>
+      </c>
+      <c r="H53" t="n">
         <v>397.9450000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2576,24 +2573,21 @@
         <v>46.8081</v>
       </c>
       <c r="G54" t="n">
+        <v>396.8866666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>397.9783333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,24 +2611,21 @@
         <v>4280.8203</v>
       </c>
       <c r="G55" t="n">
+        <v>396.04</v>
+      </c>
+      <c r="H55" t="n">
         <v>397.9816666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,24 +2649,21 @@
         <v>109.18065514</v>
       </c>
       <c r="G56" t="n">
+        <v>395.3733333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>398.0333333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,24 +2687,21 @@
         <v>111.5855</v>
       </c>
       <c r="G57" t="n">
+        <v>394.7533333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>398.0833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,24 +2725,21 @@
         <v>1040</v>
       </c>
       <c r="G58" t="n">
+        <v>393.9000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>398.0850000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2781,24 +2763,21 @@
         <v>0.0001</v>
       </c>
       <c r="G59" t="n">
+        <v>393.5066666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>398.1433333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,24 +2801,21 @@
         <v>1.3</v>
       </c>
       <c r="G60" t="n">
+        <v>393.7333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>398.2216666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,24 +2839,21 @@
         <v>22119.7678</v>
       </c>
       <c r="G61" t="n">
+        <v>394.4000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>398.4633333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,24 +2877,21 @@
         <v>12560</v>
       </c>
       <c r="G62" t="n">
+        <v>395.0666666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>398.7200000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,24 +2915,21 @@
         <v>4757.66</v>
       </c>
       <c r="G63" t="n">
+        <v>395.7333333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>398.9933333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,24 +2953,21 @@
         <v>7328.79721304</v>
       </c>
       <c r="G64" t="n">
+        <v>396.9333333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>399.3266666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3027,24 +2991,21 @@
         <v>11958.75670404</v>
       </c>
       <c r="G65" t="n">
+        <v>398.0800000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>399.6950000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,24 +3029,21 @@
         <v>13454.56908292</v>
       </c>
       <c r="G66" t="n">
+        <v>399.2266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>400.0650000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,24 +3067,21 @@
         <v>778.0367</v>
       </c>
       <c r="G67" t="n">
+        <v>400.3200000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>400.3366666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,24 +3105,21 @@
         <v>3322.764</v>
       </c>
       <c r="G68" t="n">
+        <v>401.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>400.6083333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3191,25 +3143,22 @@
         <v>1.708e-05</v>
       </c>
       <c r="G69" t="n">
+        <v>402.4800000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>400.8816666666669</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1.049227704960165</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3232,18 +3181,21 @@
         <v>8.53658536</v>
       </c>
       <c r="G70" t="n">
+        <v>403.7333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>401.1650000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,18 +3219,21 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
+        <v>404.7400000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>401.4316666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,18 +3257,21 @@
         <v>63.54</v>
       </c>
       <c r="G72" t="n">
+        <v>405.7333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>401.3816666666669</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,18 +3295,21 @@
         <v>50</v>
       </c>
       <c r="G73" t="n">
+        <v>406.7266666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>401.6300000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,18 +3333,21 @@
         <v>3</v>
       </c>
       <c r="G74" t="n">
+        <v>407.1733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>401.6833333333336</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,18 +3371,21 @@
         <v>200</v>
       </c>
       <c r="G75" t="n">
+        <v>407.6000000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>401.7500000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,18 +3409,21 @@
         <v>599.63</v>
       </c>
       <c r="G76" t="n">
+        <v>407.3800000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>401.8366666666669</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,18 +3447,21 @@
         <v>5000</v>
       </c>
       <c r="G77" t="n">
+        <v>407.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>401.6666666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,18 +3485,21 @@
         <v>408.16</v>
       </c>
       <c r="G78" t="n">
+        <v>406.6400000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>401.5783333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,18 +3523,21 @@
         <v>81.8121</v>
       </c>
       <c r="G79" t="n">
+        <v>406.2133333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>401.5500000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,18 +3561,21 @@
         <v>19878.555</v>
       </c>
       <c r="G80" t="n">
+        <v>405.7866666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>401.6600000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,18 +3599,21 @@
         <v>332.5507</v>
       </c>
       <c r="G81" t="n">
+        <v>405.3600000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>401.6116666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,18 +3637,21 @@
         <v>2740</v>
       </c>
       <c r="G82" t="n">
+        <v>404.9333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>401.6966666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3687,18 +3675,21 @@
         <v>50</v>
       </c>
       <c r="G83" t="n">
+        <v>404.5066666666669</v>
+      </c>
+      <c r="H83" t="n">
         <v>401.7600000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,18 +3713,21 @@
         <v>2518.31</v>
       </c>
       <c r="G84" t="n">
+        <v>404.0800000000002</v>
+      </c>
+      <c r="H84" t="n">
         <v>401.775</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,18 +3751,21 @@
         <v>400</v>
       </c>
       <c r="G85" t="n">
+        <v>403.6666666666669</v>
+      </c>
+      <c r="H85" t="n">
         <v>401.7933333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,18 +3789,21 @@
         <v>18.97</v>
       </c>
       <c r="G86" t="n">
+        <v>403.3200000000003</v>
+      </c>
+      <c r="H86" t="n">
         <v>401.8116666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,18 +3827,21 @@
         <v>1453.7886</v>
       </c>
       <c r="G87" t="n">
+        <v>403.1066666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>401.7466666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,18 +3865,21 @@
         <v>1060</v>
       </c>
       <c r="G88" t="n">
+        <v>402.9600000000003</v>
+      </c>
+      <c r="H88" t="n">
         <v>401.7633333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,18 +3903,21 @@
         <v>2510</v>
       </c>
       <c r="G89" t="n">
+        <v>403.0666666666669</v>
+      </c>
+      <c r="H89" t="n">
         <v>401.825</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,18 +3941,21 @@
         <v>8230</v>
       </c>
       <c r="G90" t="n">
+        <v>403.1800000000003</v>
+      </c>
+      <c r="H90" t="n">
         <v>401.8866666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,18 +3979,21 @@
         <v>560</v>
       </c>
       <c r="G91" t="n">
+        <v>403.286666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>401.95</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,18 +4017,21 @@
         <v>4296.0869</v>
       </c>
       <c r="G92" t="n">
+        <v>403.486666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>402.0133333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,18 +4055,21 @@
         <v>14.0913</v>
       </c>
       <c r="G93" t="n">
+        <v>403.6133333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>401.9233333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,18 +4093,21 @@
         <v>4.4</v>
       </c>
       <c r="G94" t="n">
+        <v>403.6866666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>401.8516666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,18 +4131,21 @@
         <v>246.8499</v>
       </c>
       <c r="G95" t="n">
+        <v>403.5000000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>401.7866666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,18 +4169,21 @@
         <v>1.24</v>
       </c>
       <c r="G96" t="n">
+        <v>403.5733333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>401.735</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,18 +4207,21 @@
         <v>4267.5889</v>
       </c>
       <c r="G97" t="n">
+        <v>403.3933333333335</v>
+      </c>
+      <c r="H97" t="n">
         <v>401.7383333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,18 +4245,21 @@
         <v>3.3</v>
       </c>
       <c r="G98" t="n">
+        <v>403.4666666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>401.6883333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,18 +4283,21 @@
         <v>252.4561</v>
       </c>
       <c r="G99" t="n">
+        <v>403.2866666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>401.6833333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,18 +4321,21 @@
         <v>75.7368</v>
       </c>
       <c r="G100" t="n">
+        <v>403.1066666666669</v>
+      </c>
+      <c r="H100" t="n">
         <v>401.6366666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4317,18 +4359,21 @@
         <v>374.8973</v>
       </c>
       <c r="G101" t="n">
+        <v>402.9266666666669</v>
+      </c>
+      <c r="H101" t="n">
         <v>401.5899999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,18 +4397,21 @@
         <v>901.5371</v>
       </c>
       <c r="G102" t="n">
+        <v>402.7466666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>401.5849999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,18 +4435,21 @@
         <v>1200</v>
       </c>
       <c r="G103" t="n">
+        <v>402.5666666666669</v>
+      </c>
+      <c r="H103" t="n">
         <v>401.538333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +4473,21 @@
         <v>800</v>
       </c>
       <c r="G104" t="n">
+        <v>402.3866666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>401.533333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +4511,21 @@
         <v>740</v>
       </c>
       <c r="G105" t="n">
+        <v>402.2066666666669</v>
+      </c>
+      <c r="H105" t="n">
         <v>401.6799999999996</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +4549,21 @@
         <v>2660</v>
       </c>
       <c r="G106" t="n">
+        <v>402.0266666666669</v>
+      </c>
+      <c r="H106" t="n">
         <v>401.7733333333329</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +4587,21 @@
         <v>1590</v>
       </c>
       <c r="G107" t="n">
+        <v>401.8533333333336</v>
+      </c>
+      <c r="H107" t="n">
         <v>401.8683333333329</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +4625,21 @@
         <v>150.4146</v>
       </c>
       <c r="G108" t="n">
+        <v>401.8666666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>401.963333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +4663,21 @@
         <v>970</v>
       </c>
       <c r="G109" t="n">
+        <v>401.6133333333336</v>
+      </c>
+      <c r="H109" t="n">
         <v>402.1116666666663</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +4701,21 @@
         <v>20.322</v>
       </c>
       <c r="G110" t="n">
+        <v>401.6200000000003</v>
+      </c>
+      <c r="H110" t="n">
         <v>402.2466666666662</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +4739,21 @@
         <v>929.1826</v>
       </c>
       <c r="G111" t="n">
+        <v>401.366666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>402.3816666666662</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +4777,21 @@
         <v>1760</v>
       </c>
       <c r="G112" t="n">
+        <v>401.2400000000004</v>
+      </c>
+      <c r="H112" t="n">
         <v>402.4716666666662</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +4815,21 @@
         <v>689.5494</v>
       </c>
       <c r="G113" t="n">
+        <v>400.8600000000004</v>
+      </c>
+      <c r="H113" t="n">
         <v>402.5583333333329</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +4853,21 @@
         <v>610.667</v>
       </c>
       <c r="G114" t="n">
+        <v>400.7333333333336</v>
+      </c>
+      <c r="H114" t="n">
         <v>402.6449999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +4891,21 @@
         <v>182.0577</v>
       </c>
       <c r="G115" t="n">
+        <v>400.6066666666669</v>
+      </c>
+      <c r="H115" t="n">
         <v>402.7783333333329</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +4929,21 @@
         <v>1539.201</v>
       </c>
       <c r="G116" t="n">
+        <v>400.4666666666669</v>
+      </c>
+      <c r="H116" t="n">
         <v>402.8633333333329</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +4967,21 @@
         <v>478.3417</v>
       </c>
       <c r="G117" t="n">
+        <v>400.2600000000002</v>
+      </c>
+      <c r="H117" t="n">
         <v>402.9616666666662</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5005,21 @@
         <v>3.3</v>
       </c>
       <c r="G118" t="n">
+        <v>400.1933333333336</v>
+      </c>
+      <c r="H118" t="n">
         <v>403.1116666666663</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5043,21 @@
         <v>21</v>
       </c>
       <c r="G119" t="n">
+        <v>400.1266666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>403.1883333333329</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5081,21 @@
         <v>249.25295739</v>
       </c>
       <c r="G120" t="n">
+        <v>400.0666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>403.2633333333329</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5119,21 @@
         <v>1937.5812</v>
       </c>
       <c r="G121" t="n">
+        <v>400.0733333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>403.1916666666663</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5157,21 @@
         <v>248.3321</v>
       </c>
       <c r="G122" t="n">
+        <v>400.0733333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>403.1199999999996</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5195,21 @@
         <v>4194</v>
       </c>
       <c r="G123" t="n">
+        <v>400.0733333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>403.0483333333329</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5233,21 @@
         <v>3928.8818</v>
       </c>
       <c r="G124" t="n">
+        <v>400.0800000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>402.8983333333329</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5271,21 @@
         <v>221.63630098</v>
       </c>
       <c r="G125" t="n">
+        <v>400.3666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>402.8183333333329</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5309,21 @@
         <v>86.90000000000001</v>
       </c>
       <c r="G126" t="n">
+        <v>400.4466666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>402.6866666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +5347,21 @@
         <v>2621.3</v>
       </c>
       <c r="G127" t="n">
+        <v>400.86</v>
+      </c>
+      <c r="H127" t="n">
         <v>402.6066666666663</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +5385,21 @@
         <v>93.14490000000001</v>
       </c>
       <c r="G128" t="n">
+        <v>401.1733333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>402.5016666666663</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +5423,401 @@
         <v>749.5585</v>
       </c>
       <c r="G129" t="n">
+        <v>401.42</v>
+      </c>
+      <c r="H129" t="n">
         <v>402.3799999999996</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>988.3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>401.6666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>402.2616666666663</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>689.0041</v>
+      </c>
+      <c r="G131" t="n">
+        <v>401.82</v>
+      </c>
+      <c r="H131" t="n">
+        <v>402.133333333333</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.43257594</v>
+      </c>
+      <c r="G132" t="n">
+        <v>402.28</v>
+      </c>
+      <c r="H132" t="n">
+        <v>402.098333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>401</v>
+      </c>
+      <c r="C133" t="n">
+        <v>401</v>
+      </c>
+      <c r="D133" t="n">
+        <v>401</v>
+      </c>
+      <c r="E133" t="n">
+        <v>401</v>
+      </c>
+      <c r="F133" t="n">
+        <v>133.9996</v>
+      </c>
+      <c r="G133" t="n">
+        <v>402.34</v>
+      </c>
+      <c r="H133" t="n">
+        <v>402.0149999999996</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>406</v>
+      </c>
+      <c r="C134" t="n">
+        <v>406</v>
+      </c>
+      <c r="D134" t="n">
+        <v>406</v>
+      </c>
+      <c r="E134" t="n">
+        <v>406</v>
+      </c>
+      <c r="F134" t="n">
+        <v>451</v>
+      </c>
+      <c r="G134" t="n">
+        <v>402.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>402.078333333333</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>108.0324</v>
+      </c>
+      <c r="G135" t="n">
+        <v>403.16</v>
+      </c>
+      <c r="H135" t="n">
+        <v>402.153333333333</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>90.027</v>
+      </c>
+      <c r="G136" t="n">
+        <v>403.52</v>
+      </c>
+      <c r="H136" t="n">
+        <v>402.2266666666663</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>407</v>
+      </c>
+      <c r="D137" t="n">
+        <v>408</v>
+      </c>
+      <c r="E137" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>730.3723</v>
+      </c>
+      <c r="G137" t="n">
+        <v>403.9066666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>402.3299999999996</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>408</v>
+      </c>
+      <c r="C138" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>408</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1147.5709</v>
+      </c>
+      <c r="G138" t="n">
+        <v>404.3933333333334</v>
+      </c>
+      <c r="H138" t="n">
+        <v>402.4866666666663</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>40</v>
+      </c>
+      <c r="G139" t="n">
+        <v>404.5933333333334</v>
+      </c>
+      <c r="H139" t="n">
+        <v>402.493333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>391</v>
+        <v>390.5</v>
       </c>
       <c r="C2" t="n">
-        <v>390.1</v>
+        <v>390.5</v>
       </c>
       <c r="D2" t="n">
-        <v>391</v>
+        <v>390.5</v>
       </c>
       <c r="E2" t="n">
-        <v>390.1</v>
+        <v>390.5</v>
       </c>
       <c r="F2" t="n">
-        <v>448.13</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>391.8933333333335</v>
+        <v>-11383.85264212999</v>
       </c>
       <c r="H2" t="n">
-        <v>396.3850000000001</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>390.1</v>
+        <v>390.5</v>
       </c>
       <c r="C3" t="n">
-        <v>389.1</v>
+        <v>390.6</v>
       </c>
       <c r="D3" t="n">
-        <v>390.1</v>
+        <v>390.6</v>
       </c>
       <c r="E3" t="n">
-        <v>389.1</v>
+        <v>390.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1258.3286</v>
+        <v>1111.1685</v>
       </c>
       <c r="G3" t="n">
-        <v>391.5533333333335</v>
+        <v>-10272.68414212999</v>
       </c>
       <c r="H3" t="n">
-        <v>396.2850000000001</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+        <v>390.5</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +509,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>390.2</v>
+        <v>397.7</v>
       </c>
       <c r="C4" t="n">
-        <v>390.2</v>
+        <v>397.6</v>
       </c>
       <c r="D4" t="n">
-        <v>390.2</v>
+        <v>397.7</v>
       </c>
       <c r="E4" t="n">
-        <v>390.2</v>
+        <v>397.6</v>
       </c>
       <c r="F4" t="n">
-        <v>87.503</v>
+        <v>79.6292</v>
       </c>
       <c r="G4" t="n">
-        <v>391.2866666666669</v>
+        <v>-10193.05494212999</v>
       </c>
       <c r="H4" t="n">
-        <v>396.0550000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +548,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390.2</v>
+        <v>391.7</v>
       </c>
       <c r="C5" t="n">
-        <v>388.1</v>
+        <v>391.7</v>
       </c>
       <c r="D5" t="n">
-        <v>390.2</v>
+        <v>391.7</v>
       </c>
       <c r="E5" t="n">
-        <v>388.1</v>
+        <v>391.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1241.5989</v>
+        <v>89.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>390.8800000000002</v>
+        <v>-10283.05484213</v>
       </c>
       <c r="H5" t="n">
-        <v>395.7</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +587,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>388</v>
+        <v>391.9</v>
       </c>
       <c r="C6" t="n">
-        <v>388</v>
+        <v>391.9</v>
       </c>
       <c r="D6" t="n">
-        <v>388</v>
+        <v>391.9</v>
       </c>
       <c r="E6" t="n">
-        <v>388</v>
+        <v>391.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3724.7968</v>
+        <v>51.9547</v>
       </c>
       <c r="G6" t="n">
-        <v>390.4933333333336</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H6" t="n">
-        <v>395.2866666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>388.1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="C7" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="D7" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="E7" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="F7" t="n">
-        <v>6.329</v>
+        <v>61.5712</v>
       </c>
       <c r="G7" t="n">
-        <v>390.6200000000002</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H7" t="n">
-        <v>395.0366666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>388</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +665,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="C8" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="D8" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="E8" t="n">
-        <v>393.9</v>
+        <v>391.9</v>
       </c>
       <c r="F8" t="n">
-        <v>305.8908</v>
+        <v>155.0661</v>
       </c>
       <c r="G8" t="n">
-        <v>390.7466666666668</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H8" t="n">
-        <v>394.8516666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,40 +706,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>393.8</v>
+        <v>391.9</v>
       </c>
       <c r="C9" t="n">
-        <v>393.8</v>
+        <v>391.9</v>
       </c>
       <c r="D9" t="n">
-        <v>393.8</v>
+        <v>391.9</v>
       </c>
       <c r="E9" t="n">
-        <v>393.8</v>
+        <v>391.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1164</v>
+        <v>32.308</v>
       </c>
       <c r="G9" t="n">
-        <v>390.8666666666668</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H9" t="n">
-        <v>394.5816666666668</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,40 +745,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>393</v>
+        <v>392.9</v>
       </c>
       <c r="C10" t="n">
-        <v>393</v>
+        <v>392.9</v>
       </c>
       <c r="D10" t="n">
-        <v>393</v>
+        <v>392.9</v>
       </c>
       <c r="E10" t="n">
-        <v>393</v>
+        <v>392.9</v>
       </c>
       <c r="F10" t="n">
-        <v>15527.5347</v>
+        <v>1.3</v>
       </c>
       <c r="G10" t="n">
-        <v>391.0000000000002</v>
+        <v>-10229.80014213</v>
       </c>
       <c r="H10" t="n">
-        <v>394.3950000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,40 +784,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>393</v>
+        <v>392.7</v>
       </c>
       <c r="C11" t="n">
-        <v>393</v>
+        <v>392.8</v>
       </c>
       <c r="D11" t="n">
-        <v>393</v>
+        <v>392.8</v>
       </c>
       <c r="E11" t="n">
-        <v>393</v>
+        <v>392.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3114.3355</v>
+        <v>162.18431771</v>
       </c>
       <c r="G11" t="n">
-        <v>391.1466666666668</v>
+        <v>-10391.98445984</v>
       </c>
       <c r="H11" t="n">
-        <v>394.1966666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,42 +823,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>393.9</v>
+        <v>392.9</v>
       </c>
       <c r="C12" t="n">
-        <v>410</v>
+        <v>392.9</v>
       </c>
       <c r="D12" t="n">
-        <v>410</v>
+        <v>392.9</v>
       </c>
       <c r="E12" t="n">
-        <v>393.9</v>
+        <v>392.9</v>
       </c>
       <c r="F12" t="n">
-        <v>43632.8216</v>
+        <v>51.8225</v>
       </c>
       <c r="G12" t="n">
-        <v>392.5400000000001</v>
+        <v>-10340.16195984</v>
       </c>
       <c r="H12" t="n">
-        <v>394.2966666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>393</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,40 +862,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410</v>
+        <v>392.8</v>
       </c>
       <c r="C13" t="n">
-        <v>391.1</v>
+        <v>392.7</v>
       </c>
       <c r="D13" t="n">
-        <v>410</v>
+        <v>392.8</v>
       </c>
       <c r="E13" t="n">
-        <v>389.6</v>
+        <v>392.7</v>
       </c>
       <c r="F13" t="n">
-        <v>8417.83</v>
+        <v>42.7548</v>
       </c>
       <c r="G13" t="n">
-        <v>392.5466666666669</v>
+        <v>-10382.91675984</v>
       </c>
       <c r="H13" t="n">
-        <v>394.0316666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,40 +901,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399</v>
+        <v>392.2</v>
       </c>
       <c r="C14" t="n">
-        <v>399</v>
+        <v>392.2</v>
       </c>
       <c r="D14" t="n">
-        <v>399</v>
+        <v>392.2</v>
       </c>
       <c r="E14" t="n">
-        <v>399</v>
+        <v>392.2</v>
       </c>
       <c r="F14" t="n">
-        <v>26.96</v>
+        <v>509.943</v>
       </c>
       <c r="G14" t="n">
-        <v>393.0133333333335</v>
+        <v>-10892.85975984</v>
       </c>
       <c r="H14" t="n">
-        <v>393.9616666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,40 +940,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398.1</v>
+        <v>392.9</v>
       </c>
       <c r="C15" t="n">
-        <v>398.1</v>
+        <v>392.9</v>
       </c>
       <c r="D15" t="n">
-        <v>398.1</v>
+        <v>392.9</v>
       </c>
       <c r="E15" t="n">
-        <v>398.1</v>
+        <v>392.9</v>
       </c>
       <c r="F15" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>393.4866666666668</v>
+        <v>-10887.85975984</v>
       </c>
       <c r="H15" t="n">
-        <v>393.8933333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1036,40 +979,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404</v>
+        <v>392.9</v>
       </c>
       <c r="C16" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9</v>
+        <v>395</v>
       </c>
       <c r="E16" t="n">
-        <v>397</v>
+        <v>392.9</v>
       </c>
       <c r="F16" t="n">
-        <v>54681.8818</v>
+        <v>6168.6373</v>
       </c>
       <c r="G16" t="n">
-        <v>393.8866666666669</v>
+        <v>-4719.222459839995</v>
       </c>
       <c r="H16" t="n">
-        <v>393.805</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,40 +1018,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C17" t="n">
-        <v>411</v>
+        <v>394.2</v>
       </c>
       <c r="D17" t="n">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E17" t="n">
-        <v>411</v>
+        <v>394.2</v>
       </c>
       <c r="F17" t="n">
-        <v>112.8978</v>
+        <v>222.61</v>
       </c>
       <c r="G17" t="n">
-        <v>395.2800000000001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H17" t="n">
-        <v>393.81</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,40 +1057,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>404.4</v>
+        <v>394.2</v>
       </c>
       <c r="C18" t="n">
-        <v>404.4</v>
+        <v>394.2</v>
       </c>
       <c r="D18" t="n">
-        <v>404.4</v>
+        <v>394.2</v>
       </c>
       <c r="E18" t="n">
-        <v>404.4</v>
+        <v>394.2</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>56.93</v>
       </c>
       <c r="G18" t="n">
-        <v>396.3000000000001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H18" t="n">
-        <v>393.725</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,40 +1096,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>405.5</v>
+        <v>394.2</v>
       </c>
       <c r="C19" t="n">
-        <v>405.5</v>
+        <v>394.2</v>
       </c>
       <c r="D19" t="n">
-        <v>405.5</v>
+        <v>394.2</v>
       </c>
       <c r="E19" t="n">
-        <v>405.5</v>
+        <v>394.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>368</v>
       </c>
       <c r="G19" t="n">
-        <v>397.3200000000001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H19" t="n">
-        <v>393.82</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,40 +1135,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>393.8</v>
       </c>
       <c r="C20" t="n">
-        <v>397.2</v>
+        <v>393.8</v>
       </c>
       <c r="D20" t="n">
-        <v>407</v>
+        <v>393.8</v>
       </c>
       <c r="E20" t="n">
-        <v>397.2</v>
+        <v>393.8</v>
       </c>
       <c r="F20" t="n">
-        <v>5340</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>397.9266666666668</v>
+        <v>-4991.832459839995</v>
       </c>
       <c r="H20" t="n">
-        <v>393.595</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,40 +1174,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>406.7</v>
+        <v>393.8</v>
       </c>
       <c r="C21" t="n">
-        <v>406.7</v>
+        <v>392</v>
       </c>
       <c r="D21" t="n">
-        <v>406.7</v>
+        <v>393.8</v>
       </c>
       <c r="E21" t="n">
-        <v>406.7</v>
+        <v>392</v>
       </c>
       <c r="F21" t="n">
-        <v>1.3</v>
+        <v>59.19</v>
       </c>
       <c r="G21" t="n">
-        <v>399.1733333333334</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H21" t="n">
-        <v>393.7066666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,40 +1213,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>398.7</v>
+        <v>392</v>
       </c>
       <c r="C22" t="n">
-        <v>398.7</v>
+        <v>392</v>
       </c>
       <c r="D22" t="n">
-        <v>398.7</v>
+        <v>392</v>
       </c>
       <c r="E22" t="n">
-        <v>398.7</v>
+        <v>392</v>
       </c>
       <c r="F22" t="n">
-        <v>268.0852</v>
+        <v>200.7</v>
       </c>
       <c r="G22" t="n">
-        <v>399.4933333333335</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H22" t="n">
-        <v>393.7183333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,40 +1252,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D23" t="n">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E23" t="n">
-        <v>398.7</v>
+        <v>392</v>
       </c>
       <c r="F23" t="n">
-        <v>215.3757</v>
+        <v>269.634</v>
       </c>
       <c r="G23" t="n">
-        <v>399.9000000000001</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H23" t="n">
-        <v>393.9016666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,40 +1291,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="C24" t="n">
-        <v>402.9</v>
+        <v>391</v>
       </c>
       <c r="D24" t="n">
-        <v>402.9</v>
+        <v>391</v>
       </c>
       <c r="E24" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>964.6994999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>400.5066666666668</v>
+        <v>-6015.721959839994</v>
       </c>
       <c r="H24" t="n">
-        <v>393.9683333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,40 +1330,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>402.7</v>
+        <v>390.8</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7</v>
+        <v>390.8</v>
       </c>
       <c r="D25" t="n">
-        <v>402.8</v>
+        <v>390.8</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7</v>
+        <v>390.8</v>
       </c>
       <c r="F25" t="n">
-        <v>9585.5519</v>
+        <v>350.0959</v>
       </c>
       <c r="G25" t="n">
-        <v>401.1533333333334</v>
+        <v>-6365.817859839995</v>
       </c>
       <c r="H25" t="n">
-        <v>394.1933333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,40 +1369,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>402.7</v>
+        <v>389.1</v>
       </c>
       <c r="C26" t="n">
-        <v>402.7</v>
+        <v>389.1</v>
       </c>
       <c r="D26" t="n">
-        <v>402.7</v>
+        <v>389.1</v>
       </c>
       <c r="E26" t="n">
-        <v>402.7</v>
+        <v>389.1</v>
       </c>
       <c r="F26" t="n">
-        <v>507.7231</v>
+        <v>1259.7122</v>
       </c>
       <c r="G26" t="n">
-        <v>401.8000000000001</v>
+        <v>-7625.530059839994</v>
       </c>
       <c r="H26" t="n">
-        <v>394.4083333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,40 +1408,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>402.9</v>
+        <v>390.6</v>
       </c>
       <c r="C27" t="n">
-        <v>407.7</v>
+        <v>391</v>
       </c>
       <c r="D27" t="n">
-        <v>407.7</v>
+        <v>391</v>
       </c>
       <c r="E27" t="n">
-        <v>402.9</v>
+        <v>390.6</v>
       </c>
       <c r="F27" t="n">
-        <v>179.0206</v>
+        <v>635.6658</v>
       </c>
       <c r="G27" t="n">
-        <v>401.6466666666667</v>
+        <v>-6989.864259839995</v>
       </c>
       <c r="H27" t="n">
-        <v>394.6700000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,40 +1447,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>403.5</v>
+        <v>392</v>
       </c>
       <c r="C28" t="n">
-        <v>402.8</v>
+        <v>392</v>
       </c>
       <c r="D28" t="n">
-        <v>403.5</v>
+        <v>392</v>
       </c>
       <c r="E28" t="n">
-        <v>402.8</v>
+        <v>392</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>3571.9769</v>
       </c>
       <c r="G28" t="n">
-        <v>402.4266666666667</v>
+        <v>-3417.887359839995</v>
       </c>
       <c r="H28" t="n">
-        <v>394.8500000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,40 +1486,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>402.8</v>
+        <v>392</v>
       </c>
       <c r="C29" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="D29" t="n">
-        <v>407.9</v>
+        <v>392</v>
       </c>
       <c r="E29" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="F29" t="n">
-        <v>940</v>
+        <v>881.0862</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5000000000001</v>
+        <v>-4298.973559839995</v>
       </c>
       <c r="H29" t="n">
-        <v>394.9883333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,40 +1525,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="C30" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="D30" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="E30" t="n">
-        <v>400.1</v>
+        <v>391</v>
       </c>
       <c r="F30" t="n">
-        <v>70.77</v>
+        <v>213.68</v>
       </c>
       <c r="G30" t="n">
-        <v>402.6333333333334</v>
+        <v>-4298.973559839995</v>
       </c>
       <c r="H30" t="n">
-        <v>395.1566666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,40 +1564,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C31" t="n">
-        <v>400</v>
+        <v>390.1</v>
       </c>
       <c r="D31" t="n">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E31" t="n">
-        <v>400</v>
+        <v>390.1</v>
       </c>
       <c r="F31" t="n">
-        <v>710</v>
+        <v>448.13</v>
       </c>
       <c r="G31" t="n">
-        <v>402.8333333333334</v>
+        <v>-4747.103559839995</v>
       </c>
       <c r="H31" t="n">
-        <v>395.315</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,40 +1603,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>400</v>
+        <v>390.1</v>
       </c>
       <c r="C32" t="n">
-        <v>400</v>
+        <v>389.1</v>
       </c>
       <c r="D32" t="n">
-        <v>400</v>
+        <v>390.1</v>
       </c>
       <c r="E32" t="n">
-        <v>400</v>
+        <v>389.1</v>
       </c>
       <c r="F32" t="n">
-        <v>417.2547</v>
+        <v>1258.3286</v>
       </c>
       <c r="G32" t="n">
-        <v>402.1000000000001</v>
+        <v>-6005.432159839995</v>
       </c>
       <c r="H32" t="n">
-        <v>395.475</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,40 +1642,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>404</v>
+        <v>390.2</v>
       </c>
       <c r="C33" t="n">
-        <v>406.4</v>
+        <v>390.2</v>
       </c>
       <c r="D33" t="n">
-        <v>410</v>
+        <v>390.2</v>
       </c>
       <c r="E33" t="n">
-        <v>399.4</v>
+        <v>390.2</v>
       </c>
       <c r="F33" t="n">
-        <v>585.3200000000001</v>
+        <v>87.503</v>
       </c>
       <c r="G33" t="n">
-        <v>402.2333333333334</v>
+        <v>-5917.929159839995</v>
       </c>
       <c r="H33" t="n">
-        <v>395.74</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,40 +1681,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>409.2</v>
+        <v>390.2</v>
       </c>
       <c r="C34" t="n">
-        <v>409.2</v>
+        <v>388.1</v>
       </c>
       <c r="D34" t="n">
-        <v>409.2</v>
+        <v>390.2</v>
       </c>
       <c r="E34" t="n">
-        <v>409.2</v>
+        <v>388.1</v>
       </c>
       <c r="F34" t="n">
-        <v>61</v>
+        <v>1241.5989</v>
       </c>
       <c r="G34" t="n">
-        <v>402.4800000000001</v>
+        <v>-7159.528059839995</v>
       </c>
       <c r="H34" t="n">
-        <v>396.0500000000001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,76 +1720,76 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>406.9</v>
+        <v>388</v>
       </c>
       <c r="C35" t="n">
-        <v>404.9</v>
+        <v>388</v>
       </c>
       <c r="D35" t="n">
-        <v>406.9</v>
+        <v>388</v>
       </c>
       <c r="E35" t="n">
-        <v>399.6</v>
+        <v>388</v>
       </c>
       <c r="F35" t="n">
-        <v>163.51</v>
+        <v>3724.7968</v>
       </c>
       <c r="G35" t="n">
-        <v>402.9933333333334</v>
+        <v>-10884.32485984</v>
       </c>
       <c r="H35" t="n">
-        <v>396.1716666666668</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>399.9</v>
+        <v>393.9</v>
       </c>
       <c r="C36" t="n">
-        <v>408</v>
+        <v>393.9</v>
       </c>
       <c r="D36" t="n">
-        <v>408</v>
+        <v>393.9</v>
       </c>
       <c r="E36" t="n">
-        <v>399.9</v>
+        <v>393.9</v>
       </c>
       <c r="F36" t="n">
-        <v>982.6614</v>
+        <v>6.329</v>
       </c>
       <c r="G36" t="n">
-        <v>403.08</v>
+        <v>-10877.99585984</v>
       </c>
       <c r="H36" t="n">
-        <v>396.4433333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,36 +1798,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>408</v>
+        <v>393.9</v>
       </c>
       <c r="C37" t="n">
-        <v>400.9</v>
+        <v>393.9</v>
       </c>
       <c r="D37" t="n">
-        <v>408</v>
+        <v>393.9</v>
       </c>
       <c r="E37" t="n">
-        <v>400.8</v>
+        <v>393.9</v>
       </c>
       <c r="F37" t="n">
-        <v>395.73</v>
+        <v>305.8908</v>
       </c>
       <c r="G37" t="n">
-        <v>403.2266666666667</v>
+        <v>-10877.99585984</v>
       </c>
       <c r="H37" t="n">
-        <v>396.5933333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,36 +1837,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>407.9</v>
+        <v>393.8</v>
       </c>
       <c r="C38" t="n">
-        <v>407.9</v>
+        <v>393.8</v>
       </c>
       <c r="D38" t="n">
-        <v>407.9</v>
+        <v>393.8</v>
       </c>
       <c r="E38" t="n">
-        <v>407.9</v>
+        <v>393.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1.25</v>
+        <v>3.1164</v>
       </c>
       <c r="G38" t="n">
-        <v>403.7533333333333</v>
+        <v>-10881.11225984</v>
       </c>
       <c r="H38" t="n">
-        <v>396.8600000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,36 +1876,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>401.4</v>
+        <v>393</v>
       </c>
       <c r="C39" t="n">
-        <v>401.4</v>
+        <v>393</v>
       </c>
       <c r="D39" t="n">
-        <v>401.4</v>
+        <v>393</v>
       </c>
       <c r="E39" t="n">
-        <v>401.4</v>
+        <v>393</v>
       </c>
       <c r="F39" t="n">
-        <v>180.73</v>
+        <v>15527.5347</v>
       </c>
       <c r="G39" t="n">
-        <v>403.6533333333334</v>
+        <v>-26408.64695984</v>
       </c>
       <c r="H39" t="n">
-        <v>397.0183333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,36 +1915,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>403.9</v>
+        <v>393</v>
       </c>
       <c r="C40" t="n">
-        <v>403.9</v>
+        <v>393</v>
       </c>
       <c r="D40" t="n">
-        <v>403.9</v>
+        <v>393</v>
       </c>
       <c r="E40" t="n">
-        <v>403.9</v>
+        <v>393</v>
       </c>
       <c r="F40" t="n">
-        <v>137.3847</v>
+        <v>3114.3355</v>
       </c>
       <c r="G40" t="n">
-        <v>403.7333333333333</v>
+        <v>-26408.64695984</v>
       </c>
       <c r="H40" t="n">
-        <v>397.2183333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,36 +1954,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>403.9</v>
+        <v>393.9</v>
       </c>
       <c r="C41" t="n">
-        <v>403.9</v>
+        <v>410</v>
       </c>
       <c r="D41" t="n">
-        <v>403.9</v>
+        <v>410</v>
       </c>
       <c r="E41" t="n">
-        <v>403.9</v>
+        <v>393.9</v>
       </c>
       <c r="F41" t="n">
-        <v>1.3</v>
+        <v>43632.8216</v>
       </c>
       <c r="G41" t="n">
-        <v>403.8133333333333</v>
+        <v>17224.17464016001</v>
       </c>
       <c r="H41" t="n">
-        <v>397.4016666666668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,36 +1993,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>401.4</v>
+        <v>410</v>
       </c>
       <c r="C42" t="n">
-        <v>401.4</v>
+        <v>391.1</v>
       </c>
       <c r="D42" t="n">
-        <v>401.4</v>
+        <v>410</v>
       </c>
       <c r="E42" t="n">
-        <v>401.4</v>
+        <v>389.6</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>8417.83</v>
       </c>
       <c r="G42" t="n">
-        <v>403.3933333333333</v>
+        <v>8806.344640160007</v>
       </c>
       <c r="H42" t="n">
-        <v>397.5450000000001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,36 +2032,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>403.9</v>
+        <v>399</v>
       </c>
       <c r="C43" t="n">
-        <v>403.9</v>
+        <v>399</v>
       </c>
       <c r="D43" t="n">
-        <v>403.9</v>
+        <v>399</v>
       </c>
       <c r="E43" t="n">
-        <v>403.9</v>
+        <v>399</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7092</v>
+        <v>26.96</v>
       </c>
       <c r="G43" t="n">
-        <v>403.4666666666666</v>
+        <v>8833.304640160006</v>
       </c>
       <c r="H43" t="n">
-        <v>397.7283333333335</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,36 +2071,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>401.4</v>
+        <v>398.1</v>
       </c>
       <c r="C44" t="n">
-        <v>401.4</v>
+        <v>398.1</v>
       </c>
       <c r="D44" t="n">
-        <v>401.4</v>
+        <v>398.1</v>
       </c>
       <c r="E44" t="n">
-        <v>401.4</v>
+        <v>398.1</v>
       </c>
       <c r="F44" t="n">
-        <v>9.99</v>
+        <v>479</v>
       </c>
       <c r="G44" t="n">
-        <v>403.5533333333332</v>
+        <v>8354.304640160006</v>
       </c>
       <c r="H44" t="n">
-        <v>397.8733333333335</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,36 +2110,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>401.4</v>
+        <v>404</v>
       </c>
       <c r="C45" t="n">
-        <v>392.3</v>
+        <v>397</v>
       </c>
       <c r="D45" t="n">
-        <v>401.4</v>
+        <v>411.9</v>
       </c>
       <c r="E45" t="n">
-        <v>392.3</v>
+        <v>397</v>
       </c>
       <c r="F45" t="n">
-        <v>13228.79</v>
+        <v>54681.8818</v>
       </c>
       <c r="G45" t="n">
-        <v>403.0333333333332</v>
+        <v>-46327.57715984</v>
       </c>
       <c r="H45" t="n">
-        <v>397.8750000000001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,36 +2149,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>395.5</v>
+        <v>411</v>
       </c>
       <c r="C46" t="n">
-        <v>395.5</v>
+        <v>411</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5</v>
+        <v>411</v>
       </c>
       <c r="E46" t="n">
-        <v>395.5</v>
+        <v>411</v>
       </c>
       <c r="F46" t="n">
-        <v>25.4753</v>
+        <v>112.8978</v>
       </c>
       <c r="G46" t="n">
-        <v>402.7333333333332</v>
+        <v>-46214.67935984</v>
       </c>
       <c r="H46" t="n">
-        <v>397.9183333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,36 +2188,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>395.5</v>
+        <v>404.4</v>
       </c>
       <c r="C47" t="n">
-        <v>395.5</v>
+        <v>404.4</v>
       </c>
       <c r="D47" t="n">
-        <v>395.5</v>
+        <v>404.4</v>
       </c>
       <c r="E47" t="n">
-        <v>395.5</v>
+        <v>404.4</v>
       </c>
       <c r="F47" t="n">
-        <v>482.026</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>402.4333333333332</v>
+        <v>-46264.67935984</v>
       </c>
       <c r="H47" t="n">
-        <v>397.9266666666668</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,36 +2227,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>395.5</v>
+        <v>405.5</v>
       </c>
       <c r="C48" t="n">
-        <v>395.5</v>
+        <v>405.5</v>
       </c>
       <c r="D48" t="n">
-        <v>395.5</v>
+        <v>405.5</v>
       </c>
       <c r="E48" t="n">
-        <v>395.5</v>
+        <v>405.5</v>
       </c>
       <c r="F48" t="n">
-        <v>472.2799</v>
+        <v>1.3</v>
       </c>
       <c r="G48" t="n">
-        <v>401.7066666666666</v>
+        <v>-46263.37935983999</v>
       </c>
       <c r="H48" t="n">
-        <v>397.9483333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,36 +2266,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>393.7</v>
+        <v>407</v>
       </c>
       <c r="C49" t="n">
-        <v>392.2</v>
+        <v>397.2</v>
       </c>
       <c r="D49" t="n">
-        <v>393.7</v>
+        <v>407</v>
       </c>
       <c r="E49" t="n">
-        <v>392.2</v>
+        <v>397.2</v>
       </c>
       <c r="F49" t="n">
-        <v>1261.6551</v>
+        <v>5340</v>
       </c>
       <c r="G49" t="n">
-        <v>400.5733333333332</v>
+        <v>-51603.37935983999</v>
       </c>
       <c r="H49" t="n">
-        <v>397.9150000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,36 +2305,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>393</v>
+        <v>406.7</v>
       </c>
       <c r="C50" t="n">
-        <v>393</v>
+        <v>406.7</v>
       </c>
       <c r="D50" t="n">
-        <v>393</v>
+        <v>406.7</v>
       </c>
       <c r="E50" t="n">
-        <v>393</v>
+        <v>406.7</v>
       </c>
       <c r="F50" t="n">
-        <v>472.2799</v>
+        <v>1.3</v>
       </c>
       <c r="G50" t="n">
-        <v>399.7799999999999</v>
+        <v>-51602.07935983999</v>
       </c>
       <c r="H50" t="n">
-        <v>397.8950000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,36 +2344,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>393</v>
+        <v>398.7</v>
       </c>
       <c r="C51" t="n">
-        <v>393</v>
+        <v>398.7</v>
       </c>
       <c r="D51" t="n">
-        <v>393</v>
+        <v>398.7</v>
       </c>
       <c r="E51" t="n">
-        <v>393</v>
+        <v>398.7</v>
       </c>
       <c r="F51" t="n">
-        <v>195.2536</v>
+        <v>268.0852</v>
       </c>
       <c r="G51" t="n">
-        <v>398.7799999999999</v>
+        <v>-51870.16455983999</v>
       </c>
       <c r="H51" t="n">
-        <v>397.8816666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,36 +2383,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>393.8</v>
+        <v>400</v>
       </c>
       <c r="C52" t="n">
-        <v>393.8</v>
+        <v>400</v>
       </c>
       <c r="D52" t="n">
-        <v>393.8</v>
+        <v>404</v>
       </c>
       <c r="E52" t="n">
-        <v>393.8</v>
+        <v>398.7</v>
       </c>
       <c r="F52" t="n">
-        <v>182.7578</v>
+        <v>215.3757</v>
       </c>
       <c r="G52" t="n">
-        <v>398.3066666666666</v>
+        <v>-51654.78885983999</v>
       </c>
       <c r="H52" t="n">
-        <v>397.9116666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,36 +2422,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>394</v>
+        <v>400.1</v>
       </c>
       <c r="C53" t="n">
-        <v>394</v>
+        <v>402.9</v>
       </c>
       <c r="D53" t="n">
-        <v>394</v>
+        <v>402.9</v>
       </c>
       <c r="E53" t="n">
-        <v>394</v>
+        <v>400.1</v>
       </c>
       <c r="F53" t="n">
-        <v>90.5766</v>
+        <v>4.3</v>
       </c>
       <c r="G53" t="n">
-        <v>397.38</v>
+        <v>-51650.48885983999</v>
       </c>
       <c r="H53" t="n">
-        <v>397.9450000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,36 +2461,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>394</v>
+        <v>402.7</v>
       </c>
       <c r="C54" t="n">
-        <v>394</v>
+        <v>402.7</v>
       </c>
       <c r="D54" t="n">
-        <v>394</v>
+        <v>402.8</v>
       </c>
       <c r="E54" t="n">
-        <v>394</v>
+        <v>402.7</v>
       </c>
       <c r="F54" t="n">
-        <v>46.8081</v>
+        <v>9585.5519</v>
       </c>
       <c r="G54" t="n">
-        <v>396.8866666666667</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H54" t="n">
-        <v>397.9783333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,36 +2500,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>393.2</v>
+        <v>402.7</v>
       </c>
       <c r="C55" t="n">
-        <v>391.2</v>
+        <v>402.7</v>
       </c>
       <c r="D55" t="n">
-        <v>393.2</v>
+        <v>402.7</v>
       </c>
       <c r="E55" t="n">
-        <v>391.2</v>
+        <v>402.7</v>
       </c>
       <c r="F55" t="n">
-        <v>4280.8203</v>
+        <v>507.7231</v>
       </c>
       <c r="G55" t="n">
-        <v>396.04</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H55" t="n">
-        <v>397.9816666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,36 +2539,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>393.8</v>
+        <v>402.9</v>
       </c>
       <c r="C56" t="n">
-        <v>393.9</v>
+        <v>407.7</v>
       </c>
       <c r="D56" t="n">
-        <v>393.9</v>
+        <v>407.7</v>
       </c>
       <c r="E56" t="n">
-        <v>393.8</v>
+        <v>402.9</v>
       </c>
       <c r="F56" t="n">
-        <v>109.18065514</v>
+        <v>179.0206</v>
       </c>
       <c r="G56" t="n">
-        <v>395.3733333333333</v>
+        <v>-61057.02015983999</v>
       </c>
       <c r="H56" t="n">
-        <v>398.0333333333335</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,36 +2578,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>392.5</v>
+        <v>403.5</v>
       </c>
       <c r="C57" t="n">
-        <v>392.1</v>
+        <v>402.8</v>
       </c>
       <c r="D57" t="n">
-        <v>392.5</v>
+        <v>403.5</v>
       </c>
       <c r="E57" t="n">
-        <v>392.1</v>
+        <v>402.8</v>
       </c>
       <c r="F57" t="n">
-        <v>111.5855</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>394.7533333333334</v>
+        <v>-61157.02015983999</v>
       </c>
       <c r="H57" t="n">
-        <v>398.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,36 +2617,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>391.1</v>
+        <v>402.8</v>
       </c>
       <c r="C58" t="n">
-        <v>391.1</v>
+        <v>400.1</v>
       </c>
       <c r="D58" t="n">
-        <v>391.1</v>
+        <v>407.9</v>
       </c>
       <c r="E58" t="n">
-        <v>391.1</v>
+        <v>400.1</v>
       </c>
       <c r="F58" t="n">
-        <v>1040</v>
+        <v>940</v>
       </c>
       <c r="G58" t="n">
-        <v>393.9000000000001</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H58" t="n">
-        <v>398.0850000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,36 +2656,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>395.5</v>
+        <v>400.1</v>
       </c>
       <c r="C59" t="n">
-        <v>395.5</v>
+        <v>400.1</v>
       </c>
       <c r="D59" t="n">
-        <v>395.5</v>
+        <v>400.1</v>
       </c>
       <c r="E59" t="n">
-        <v>395.5</v>
+        <v>400.1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001</v>
+        <v>70.77</v>
       </c>
       <c r="G59" t="n">
-        <v>393.5066666666668</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H59" t="n">
-        <v>398.1433333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,36 +2695,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>395.7</v>
+        <v>401</v>
       </c>
       <c r="C60" t="n">
-        <v>395.7</v>
+        <v>400</v>
       </c>
       <c r="D60" t="n">
-        <v>395.7</v>
+        <v>401</v>
       </c>
       <c r="E60" t="n">
-        <v>395.7</v>
+        <v>400</v>
       </c>
       <c r="F60" t="n">
-        <v>1.3</v>
+        <v>710</v>
       </c>
       <c r="G60" t="n">
-        <v>393.7333333333335</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H60" t="n">
-        <v>398.2216666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,36 +2734,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>395.9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="n">
-        <v>405.5</v>
+        <v>400</v>
       </c>
       <c r="D61" t="n">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E61" t="n">
-        <v>395.9</v>
+        <v>400</v>
       </c>
       <c r="F61" t="n">
-        <v>22119.7678</v>
+        <v>417.2547</v>
       </c>
       <c r="G61" t="n">
-        <v>394.4000000000001</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H61" t="n">
-        <v>398.4633333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,36 +2773,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>405.5</v>
+        <v>404</v>
       </c>
       <c r="C62" t="n">
-        <v>405.5</v>
+        <v>406.4</v>
       </c>
       <c r="D62" t="n">
-        <v>405.5</v>
+        <v>410</v>
       </c>
       <c r="E62" t="n">
-        <v>405.5</v>
+        <v>399.4</v>
       </c>
       <c r="F62" t="n">
-        <v>12560</v>
+        <v>585.3200000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>395.0666666666668</v>
+        <v>-62221.70015983999</v>
       </c>
       <c r="H62" t="n">
-        <v>398.7200000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,36 +2812,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>405.5</v>
+        <v>409.2</v>
       </c>
       <c r="C63" t="n">
-        <v>405.5</v>
+        <v>409.2</v>
       </c>
       <c r="D63" t="n">
-        <v>405.5</v>
+        <v>409.2</v>
       </c>
       <c r="E63" t="n">
-        <v>405.5</v>
+        <v>409.2</v>
       </c>
       <c r="F63" t="n">
-        <v>4757.66</v>
+        <v>61</v>
       </c>
       <c r="G63" t="n">
-        <v>395.7333333333335</v>
+        <v>-62160.70015983999</v>
       </c>
       <c r="H63" t="n">
-        <v>398.9933333333335</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,36 +2851,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>405</v>
+        <v>406.9</v>
       </c>
       <c r="C64" t="n">
-        <v>410.2</v>
+        <v>404.9</v>
       </c>
       <c r="D64" t="n">
-        <v>410.2</v>
+        <v>406.9</v>
       </c>
       <c r="E64" t="n">
-        <v>405</v>
+        <v>399.6</v>
       </c>
       <c r="F64" t="n">
-        <v>7328.79721304</v>
+        <v>163.51</v>
       </c>
       <c r="G64" t="n">
-        <v>396.9333333333335</v>
+        <v>-62324.21015983999</v>
       </c>
       <c r="H64" t="n">
-        <v>399.3266666666668</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,36 +2890,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>409.2</v>
+        <v>399.9</v>
       </c>
       <c r="C65" t="n">
-        <v>410.2</v>
+        <v>408</v>
       </c>
       <c r="D65" t="n">
-        <v>410.2</v>
+        <v>408</v>
       </c>
       <c r="E65" t="n">
-        <v>409.2</v>
+        <v>399.9</v>
       </c>
       <c r="F65" t="n">
-        <v>11958.75670404</v>
+        <v>982.6614</v>
       </c>
       <c r="G65" t="n">
-        <v>398.0800000000001</v>
+        <v>-61341.54875983999</v>
       </c>
       <c r="H65" t="n">
-        <v>399.6950000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,36 +2929,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C66" t="n">
-        <v>410.2</v>
+        <v>400.9</v>
       </c>
       <c r="D66" t="n">
-        <v>410.2</v>
+        <v>408</v>
       </c>
       <c r="E66" t="n">
-        <v>403</v>
+        <v>400.8</v>
       </c>
       <c r="F66" t="n">
-        <v>13454.56908292</v>
+        <v>395.73</v>
       </c>
       <c r="G66" t="n">
-        <v>399.2266666666667</v>
+        <v>-61737.27875984</v>
       </c>
       <c r="H66" t="n">
-        <v>400.0650000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,36 +2968,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>410.2</v>
+        <v>407.9</v>
       </c>
       <c r="C67" t="n">
-        <v>410.2</v>
+        <v>407.9</v>
       </c>
       <c r="D67" t="n">
-        <v>410.2</v>
+        <v>407.9</v>
       </c>
       <c r="E67" t="n">
-        <v>410.2</v>
+        <v>407.9</v>
       </c>
       <c r="F67" t="n">
-        <v>778.0367</v>
+        <v>1.25</v>
       </c>
       <c r="G67" t="n">
-        <v>400.3200000000001</v>
+        <v>-61736.02875984</v>
       </c>
       <c r="H67" t="n">
-        <v>400.3366666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,36 +3007,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>410.2</v>
+        <v>401.4</v>
       </c>
       <c r="C68" t="n">
-        <v>410.2</v>
+        <v>401.4</v>
       </c>
       <c r="D68" t="n">
-        <v>410.2</v>
+        <v>401.4</v>
       </c>
       <c r="E68" t="n">
-        <v>410.2</v>
+        <v>401.4</v>
       </c>
       <c r="F68" t="n">
-        <v>3322.764</v>
+        <v>180.73</v>
       </c>
       <c r="G68" t="n">
-        <v>401.4</v>
+        <v>-61916.75875984</v>
       </c>
       <c r="H68" t="n">
-        <v>400.6083333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,36 +3046,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>410.2</v>
+        <v>403.9</v>
       </c>
       <c r="C69" t="n">
-        <v>410.2</v>
+        <v>403.9</v>
       </c>
       <c r="D69" t="n">
-        <v>410.2</v>
+        <v>403.9</v>
       </c>
       <c r="E69" t="n">
-        <v>410.2</v>
+        <v>403.9</v>
       </c>
       <c r="F69" t="n">
-        <v>1.708e-05</v>
+        <v>137.3847</v>
       </c>
       <c r="G69" t="n">
-        <v>402.4800000000001</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H69" t="n">
-        <v>400.8816666666669</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,36 +3085,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>410</v>
+        <v>403.9</v>
       </c>
       <c r="C70" t="n">
-        <v>410</v>
+        <v>403.9</v>
       </c>
       <c r="D70" t="n">
-        <v>410</v>
+        <v>403.9</v>
       </c>
       <c r="E70" t="n">
-        <v>410</v>
+        <v>403.9</v>
       </c>
       <c r="F70" t="n">
-        <v>8.53658536</v>
+        <v>1.3</v>
       </c>
       <c r="G70" t="n">
-        <v>403.7333333333334</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H70" t="n">
-        <v>401.1650000000002</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,36 +3124,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>409</v>
+        <v>401.4</v>
       </c>
       <c r="C71" t="n">
-        <v>409</v>
+        <v>401.4</v>
       </c>
       <c r="D71" t="n">
-        <v>409</v>
+        <v>401.4</v>
       </c>
       <c r="E71" t="n">
-        <v>409</v>
+        <v>401.4</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>404.7400000000001</v>
+        <v>-61829.37405984</v>
       </c>
       <c r="H71" t="n">
-        <v>401.4316666666669</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,36 +3163,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>407</v>
+        <v>403.9</v>
       </c>
       <c r="C72" t="n">
-        <v>407</v>
+        <v>403.9</v>
       </c>
       <c r="D72" t="n">
-        <v>407</v>
+        <v>403.9</v>
       </c>
       <c r="E72" t="n">
-        <v>407</v>
+        <v>403.9</v>
       </c>
       <c r="F72" t="n">
-        <v>63.54</v>
+        <v>1.7092</v>
       </c>
       <c r="G72" t="n">
-        <v>405.7333333333334</v>
+        <v>-61827.66485984</v>
       </c>
       <c r="H72" t="n">
-        <v>401.3816666666669</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3280,36 +3202,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>406</v>
+        <v>401.4</v>
       </c>
       <c r="C73" t="n">
-        <v>406</v>
+        <v>401.4</v>
       </c>
       <c r="D73" t="n">
-        <v>406</v>
+        <v>401.4</v>
       </c>
       <c r="E73" t="n">
-        <v>406</v>
+        <v>401.4</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>9.99</v>
       </c>
       <c r="G73" t="n">
-        <v>406.7266666666667</v>
+        <v>-61837.65485984</v>
       </c>
       <c r="H73" t="n">
-        <v>401.6300000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,36 +3241,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>402.2</v>
+        <v>401.4</v>
       </c>
       <c r="C74" t="n">
-        <v>402.2</v>
+        <v>392.3</v>
       </c>
       <c r="D74" t="n">
-        <v>402.2</v>
+        <v>401.4</v>
       </c>
       <c r="E74" t="n">
-        <v>402.2</v>
+        <v>392.3</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>13228.79</v>
       </c>
       <c r="G74" t="n">
-        <v>407.1733333333333</v>
+        <v>-75066.44485984</v>
       </c>
       <c r="H74" t="n">
-        <v>401.6833333333336</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,36 +3280,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>404</v>
+        <v>395.5</v>
       </c>
       <c r="C75" t="n">
-        <v>402.1</v>
+        <v>395.5</v>
       </c>
       <c r="D75" t="n">
-        <v>404</v>
+        <v>395.5</v>
       </c>
       <c r="E75" t="n">
-        <v>402.1</v>
+        <v>395.5</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>25.4753</v>
       </c>
       <c r="G75" t="n">
-        <v>407.6000000000001</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H75" t="n">
-        <v>401.7500000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,36 +3319,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>402.2</v>
+        <v>395.5</v>
       </c>
       <c r="C76" t="n">
-        <v>402.2</v>
+        <v>395.5</v>
       </c>
       <c r="D76" t="n">
-        <v>402.2</v>
+        <v>395.5</v>
       </c>
       <c r="E76" t="n">
-        <v>402.2</v>
+        <v>395.5</v>
       </c>
       <c r="F76" t="n">
-        <v>599.63</v>
+        <v>482.026</v>
       </c>
       <c r="G76" t="n">
-        <v>407.3800000000001</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H76" t="n">
-        <v>401.8366666666669</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,36 +3358,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>403.2</v>
+        <v>395.5</v>
       </c>
       <c r="C77" t="n">
-        <v>400.8</v>
+        <v>395.5</v>
       </c>
       <c r="D77" t="n">
-        <v>403.2</v>
+        <v>395.5</v>
       </c>
       <c r="E77" t="n">
-        <v>400.8</v>
+        <v>395.5</v>
       </c>
       <c r="F77" t="n">
-        <v>5000</v>
+        <v>472.2799</v>
       </c>
       <c r="G77" t="n">
-        <v>407.0666666666667</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H77" t="n">
-        <v>401.6666666666669</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,36 +3397,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>401.8</v>
+        <v>393.7</v>
       </c>
       <c r="C78" t="n">
-        <v>399.1</v>
+        <v>392.2</v>
       </c>
       <c r="D78" t="n">
-        <v>401.8</v>
+        <v>393.7</v>
       </c>
       <c r="E78" t="n">
-        <v>399.1</v>
+        <v>392.2</v>
       </c>
       <c r="F78" t="n">
-        <v>408.16</v>
+        <v>1261.6551</v>
       </c>
       <c r="G78" t="n">
-        <v>406.6400000000001</v>
+        <v>-76302.62465984</v>
       </c>
       <c r="H78" t="n">
-        <v>401.5783333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,36 +3436,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="C79" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="D79" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="E79" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="F79" t="n">
-        <v>81.8121</v>
+        <v>472.2799</v>
       </c>
       <c r="G79" t="n">
-        <v>406.2133333333334</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H79" t="n">
-        <v>401.5500000000002</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,36 +3475,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="C80" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="D80" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="E80" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="F80" t="n">
-        <v>19878.555</v>
+        <v>195.2536</v>
       </c>
       <c r="G80" t="n">
-        <v>405.7866666666668</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H80" t="n">
-        <v>401.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,36 +3514,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="C81" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="D81" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="E81" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="F81" t="n">
-        <v>332.5507</v>
+        <v>182.7578</v>
       </c>
       <c r="G81" t="n">
-        <v>405.3600000000002</v>
+        <v>-75647.58695984</v>
       </c>
       <c r="H81" t="n">
-        <v>401.6116666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,36 +3553,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="C82" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="D82" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="E82" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="F82" t="n">
-        <v>2740</v>
+        <v>90.5766</v>
       </c>
       <c r="G82" t="n">
-        <v>404.9333333333335</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H82" t="n">
-        <v>401.6966666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,36 +3592,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="C83" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="D83" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="E83" t="n">
-        <v>403.8</v>
+        <v>394</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>46.8081</v>
       </c>
       <c r="G83" t="n">
-        <v>404.5066666666669</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H83" t="n">
-        <v>401.7600000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,36 +3631,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>403.8</v>
+        <v>393.2</v>
       </c>
       <c r="C84" t="n">
-        <v>403.8</v>
+        <v>391.2</v>
       </c>
       <c r="D84" t="n">
-        <v>403.8</v>
+        <v>393.2</v>
       </c>
       <c r="E84" t="n">
-        <v>403.8</v>
+        <v>391.2</v>
       </c>
       <c r="F84" t="n">
-        <v>2518.31</v>
+        <v>4280.8203</v>
       </c>
       <c r="G84" t="n">
-        <v>404.0800000000002</v>
+        <v>-79837.83065984001</v>
       </c>
       <c r="H84" t="n">
-        <v>401.775</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,36 +3670,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="C85" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="D85" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="E85" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="F85" t="n">
-        <v>400</v>
+        <v>109.18065514</v>
       </c>
       <c r="G85" t="n">
-        <v>403.6666666666669</v>
+        <v>-79728.65000470002</v>
       </c>
       <c r="H85" t="n">
-        <v>401.7933333333334</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>391.2</v>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,36 +3711,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>403.8</v>
+        <v>392.5</v>
       </c>
       <c r="C86" t="n">
-        <v>403.8</v>
+        <v>392.1</v>
       </c>
       <c r="D86" t="n">
-        <v>403.8</v>
+        <v>392.5</v>
       </c>
       <c r="E86" t="n">
-        <v>403.8</v>
+        <v>392.1</v>
       </c>
       <c r="F86" t="n">
-        <v>18.97</v>
+        <v>111.5855</v>
       </c>
       <c r="G86" t="n">
-        <v>403.3200000000003</v>
+        <v>-79840.23550470002</v>
       </c>
       <c r="H86" t="n">
-        <v>401.8116666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,36 +3750,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>404</v>
+        <v>391.1</v>
       </c>
       <c r="C87" t="n">
-        <v>403.8</v>
+        <v>391.1</v>
       </c>
       <c r="D87" t="n">
-        <v>404</v>
+        <v>391.1</v>
       </c>
       <c r="E87" t="n">
-        <v>403.8</v>
+        <v>391.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1453.7886</v>
+        <v>1040</v>
       </c>
       <c r="G87" t="n">
-        <v>403.1066666666669</v>
+        <v>-80880.23550470002</v>
       </c>
       <c r="H87" t="n">
-        <v>401.7466666666667</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>392.1</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,36 +3791,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>403.8</v>
+        <v>395.5</v>
       </c>
       <c r="C88" t="n">
-        <v>403.8</v>
+        <v>395.5</v>
       </c>
       <c r="D88" t="n">
-        <v>403.8</v>
+        <v>395.5</v>
       </c>
       <c r="E88" t="n">
-        <v>403.8</v>
+        <v>395.5</v>
       </c>
       <c r="F88" t="n">
-        <v>1060</v>
+        <v>0.0001</v>
       </c>
       <c r="G88" t="n">
-        <v>402.9600000000003</v>
+        <v>-80880.23540470001</v>
       </c>
       <c r="H88" t="n">
-        <v>401.7633333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,36 +3830,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>403.8</v>
+        <v>395.7</v>
       </c>
       <c r="C89" t="n">
-        <v>403.8</v>
+        <v>395.7</v>
       </c>
       <c r="D89" t="n">
-        <v>403.8</v>
+        <v>395.7</v>
       </c>
       <c r="E89" t="n">
-        <v>403.8</v>
+        <v>395.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2510</v>
+        <v>1.3</v>
       </c>
       <c r="G89" t="n">
-        <v>403.0666666666669</v>
+        <v>-80878.93540470001</v>
       </c>
       <c r="H89" t="n">
-        <v>401.825</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,36 +3869,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>403.8</v>
+        <v>395.9</v>
       </c>
       <c r="C90" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="D90" t="n">
-        <v>403.8</v>
+        <v>409</v>
       </c>
       <c r="E90" t="n">
-        <v>403.8</v>
+        <v>395.9</v>
       </c>
       <c r="F90" t="n">
-        <v>8230</v>
+        <v>22119.7678</v>
       </c>
       <c r="G90" t="n">
-        <v>403.1800000000003</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H90" t="n">
-        <v>401.8866666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,36 +3908,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="C91" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="D91" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="E91" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="F91" t="n">
-        <v>560</v>
+        <v>12560</v>
       </c>
       <c r="G91" t="n">
-        <v>403.286666666667</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H91" t="n">
-        <v>401.95</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,36 +3947,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="C92" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="D92" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="E92" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="F92" t="n">
-        <v>4296.0869</v>
+        <v>4757.66</v>
       </c>
       <c r="G92" t="n">
-        <v>403.486666666667</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H92" t="n">
-        <v>402.0133333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,36 +3986,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C93" t="n">
-        <v>401</v>
+        <v>410.2</v>
       </c>
       <c r="D93" t="n">
-        <v>401</v>
+        <v>410.2</v>
       </c>
       <c r="E93" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F93" t="n">
-        <v>14.0913</v>
+        <v>7328.79721304</v>
       </c>
       <c r="G93" t="n">
-        <v>403.6133333333336</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H93" t="n">
-        <v>401.9233333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,36 +4025,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>401</v>
+        <v>409.2</v>
       </c>
       <c r="C94" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="D94" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="E94" t="n">
-        <v>401</v>
+        <v>409.2</v>
       </c>
       <c r="F94" t="n">
-        <v>4.4</v>
+        <v>11958.75670404</v>
       </c>
       <c r="G94" t="n">
-        <v>403.6866666666669</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H94" t="n">
-        <v>401.8516666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,36 +4064,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C95" t="n">
-        <v>401</v>
+        <v>410.2</v>
       </c>
       <c r="D95" t="n">
-        <v>401</v>
+        <v>410.2</v>
       </c>
       <c r="E95" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F95" t="n">
-        <v>246.8499</v>
+        <v>13454.56908292</v>
       </c>
       <c r="G95" t="n">
-        <v>403.5000000000002</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H95" t="n">
-        <v>401.7866666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,36 +4103,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="C96" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="D96" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="E96" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="F96" t="n">
-        <v>1.24</v>
+        <v>778.0367</v>
       </c>
       <c r="G96" t="n">
-        <v>403.5733333333336</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H96" t="n">
-        <v>401.735</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,74 +4142,70 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="C97" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="D97" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="E97" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="F97" t="n">
-        <v>4267.5889</v>
+        <v>3322.764</v>
       </c>
       <c r="G97" t="n">
-        <v>403.3933333333335</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H97" t="n">
-        <v>401.7383333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="C98" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="D98" t="n">
-        <v>404.9</v>
+        <v>410.2</v>
       </c>
       <c r="E98" t="n">
-        <v>401.1</v>
+        <v>410.2</v>
       </c>
       <c r="F98" t="n">
-        <v>3.3</v>
+        <v>1.708e-05</v>
       </c>
       <c r="G98" t="n">
-        <v>403.4666666666669</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H98" t="n">
-        <v>401.6883333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,36 +4214,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>401.1</v>
+        <v>410</v>
       </c>
       <c r="C99" t="n">
-        <v>401.1</v>
+        <v>410</v>
       </c>
       <c r="D99" t="n">
-        <v>401.1</v>
+        <v>410</v>
       </c>
       <c r="E99" t="n">
-        <v>401.1</v>
+        <v>410</v>
       </c>
       <c r="F99" t="n">
-        <v>252.4561</v>
+        <v>8.53658536</v>
       </c>
       <c r="G99" t="n">
-        <v>403.2866666666669</v>
+        <v>-51438.90697702001</v>
       </c>
       <c r="H99" t="n">
-        <v>401.6833333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,36 +4249,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>401.1</v>
+        <v>409</v>
       </c>
       <c r="C100" t="n">
-        <v>401.1</v>
+        <v>409</v>
       </c>
       <c r="D100" t="n">
-        <v>401.1</v>
+        <v>409</v>
       </c>
       <c r="E100" t="n">
-        <v>401.1</v>
+        <v>409</v>
       </c>
       <c r="F100" t="n">
-        <v>75.7368</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>403.1066666666669</v>
+        <v>-51441.90697702001</v>
       </c>
       <c r="H100" t="n">
-        <v>401.6366666666665</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4344,36 +4284,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>401.1</v>
+        <v>407</v>
       </c>
       <c r="C101" t="n">
-        <v>401.1</v>
+        <v>407</v>
       </c>
       <c r="D101" t="n">
-        <v>401.1</v>
+        <v>407</v>
       </c>
       <c r="E101" t="n">
-        <v>401.1</v>
+        <v>407</v>
       </c>
       <c r="F101" t="n">
-        <v>374.8973</v>
+        <v>63.54</v>
       </c>
       <c r="G101" t="n">
-        <v>402.9266666666669</v>
+        <v>-51505.44697702001</v>
       </c>
       <c r="H101" t="n">
-        <v>401.5899999999998</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,36 +4319,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>401.1</v>
+        <v>406</v>
       </c>
       <c r="C102" t="n">
-        <v>401.1</v>
+        <v>406</v>
       </c>
       <c r="D102" t="n">
-        <v>401.1</v>
+        <v>406</v>
       </c>
       <c r="E102" t="n">
-        <v>401.1</v>
+        <v>406</v>
       </c>
       <c r="F102" t="n">
-        <v>901.5371</v>
+        <v>50</v>
       </c>
       <c r="G102" t="n">
-        <v>402.7466666666669</v>
+        <v>-51555.44697702001</v>
       </c>
       <c r="H102" t="n">
-        <v>401.5849999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,36 +4354,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="C103" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="D103" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="E103" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>402.5666666666669</v>
+        <v>-51558.44697702001</v>
       </c>
       <c r="H103" t="n">
-        <v>401.538333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,36 +4389,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>401.1</v>
+        <v>404</v>
       </c>
       <c r="C104" t="n">
-        <v>401.1</v>
+        <v>402.1</v>
       </c>
       <c r="D104" t="n">
-        <v>401.1</v>
+        <v>404</v>
       </c>
       <c r="E104" t="n">
-        <v>401.1</v>
+        <v>402.1</v>
       </c>
       <c r="F104" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>402.3866666666669</v>
+        <v>-51758.44697702001</v>
       </c>
       <c r="H104" t="n">
-        <v>401.533333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,36 +4424,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>401.2</v>
+        <v>402.2</v>
       </c>
       <c r="C105" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="D105" t="n">
-        <v>401.2</v>
+        <v>402.2</v>
       </c>
       <c r="E105" t="n">
-        <v>401.1</v>
+        <v>402.2</v>
       </c>
       <c r="F105" t="n">
-        <v>740</v>
+        <v>599.63</v>
       </c>
       <c r="G105" t="n">
-        <v>402.2066666666669</v>
+        <v>-51158.81697702001</v>
       </c>
       <c r="H105" t="n">
-        <v>401.6799999999996</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,36 +4459,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>401.1</v>
+        <v>403.2</v>
       </c>
       <c r="C106" t="n">
-        <v>401.1</v>
+        <v>400.8</v>
       </c>
       <c r="D106" t="n">
-        <v>401.1</v>
+        <v>403.2</v>
       </c>
       <c r="E106" t="n">
-        <v>401.1</v>
+        <v>400.8</v>
       </c>
       <c r="F106" t="n">
-        <v>2660</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="n">
-        <v>402.0266666666669</v>
+        <v>-56158.81697702001</v>
       </c>
       <c r="H106" t="n">
-        <v>401.7733333333329</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,36 +4494,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>401.2</v>
+        <v>401.8</v>
       </c>
       <c r="C107" t="n">
-        <v>401.2</v>
+        <v>399.1</v>
       </c>
       <c r="D107" t="n">
-        <v>401.2</v>
+        <v>401.8</v>
       </c>
       <c r="E107" t="n">
-        <v>401.2</v>
+        <v>399.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1590</v>
+        <v>408.16</v>
       </c>
       <c r="G107" t="n">
-        <v>401.8533333333336</v>
+        <v>-56566.97697702001</v>
       </c>
       <c r="H107" t="n">
-        <v>401.8683333333329</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,36 +4529,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="C108" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="D108" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="E108" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="F108" t="n">
-        <v>150.4146</v>
+        <v>81.8121</v>
       </c>
       <c r="G108" t="n">
-        <v>401.8666666666669</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H108" t="n">
-        <v>401.963333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,36 +4564,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="C109" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="D109" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="E109" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="F109" t="n">
-        <v>970</v>
+        <v>19878.555</v>
       </c>
       <c r="G109" t="n">
-        <v>401.6133333333336</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H109" t="n">
-        <v>402.1116666666663</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,36 +4599,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="C110" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="D110" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="E110" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="F110" t="n">
-        <v>20.322</v>
+        <v>332.5507</v>
       </c>
       <c r="G110" t="n">
-        <v>401.6200000000003</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H110" t="n">
-        <v>402.2466666666662</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,36 +4634,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="C111" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="D111" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="E111" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="F111" t="n">
-        <v>929.1826</v>
+        <v>2740</v>
       </c>
       <c r="G111" t="n">
-        <v>401.366666666667</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H111" t="n">
-        <v>402.3816666666662</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,36 +4669,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="C112" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="D112" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="E112" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1760</v>
+        <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>401.2400000000004</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H112" t="n">
-        <v>402.4716666666662</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,36 +4704,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="C113" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="D113" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="E113" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="F113" t="n">
-        <v>689.5494</v>
+        <v>2518.31</v>
       </c>
       <c r="G113" t="n">
-        <v>400.8600000000004</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H113" t="n">
-        <v>402.5583333333329</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,36 +4739,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="C114" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="D114" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="E114" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="F114" t="n">
-        <v>610.667</v>
+        <v>400</v>
       </c>
       <c r="G114" t="n">
-        <v>400.7333333333336</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H114" t="n">
-        <v>402.6449999999996</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,36 +4774,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="C115" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="D115" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="E115" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="F115" t="n">
-        <v>182.0577</v>
+        <v>18.97</v>
       </c>
       <c r="G115" t="n">
-        <v>400.6066666666669</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H115" t="n">
-        <v>402.7783333333329</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,36 +4809,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>399.2</v>
+        <v>404</v>
       </c>
       <c r="C116" t="n">
-        <v>399</v>
+        <v>403.8</v>
       </c>
       <c r="D116" t="n">
-        <v>399.2</v>
+        <v>404</v>
       </c>
       <c r="E116" t="n">
-        <v>393.9</v>
+        <v>403.8</v>
       </c>
       <c r="F116" t="n">
-        <v>1539.201</v>
+        <v>1453.7886</v>
       </c>
       <c r="G116" t="n">
-        <v>400.4666666666669</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H116" t="n">
-        <v>402.8633333333329</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,36 +4844,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>398</v>
+        <v>403.8</v>
       </c>
       <c r="C117" t="n">
-        <v>398</v>
+        <v>403.8</v>
       </c>
       <c r="D117" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="E117" t="n">
-        <v>398</v>
+        <v>403.8</v>
       </c>
       <c r="F117" t="n">
-        <v>478.3417</v>
+        <v>1060</v>
       </c>
       <c r="G117" t="n">
-        <v>400.2600000000002</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H117" t="n">
-        <v>402.9616666666662</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,36 +4879,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>398.1</v>
+        <v>403.8</v>
       </c>
       <c r="C118" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="D118" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="E118" t="n">
-        <v>398.1</v>
+        <v>403.8</v>
       </c>
       <c r="F118" t="n">
-        <v>3.3</v>
+        <v>2510</v>
       </c>
       <c r="G118" t="n">
-        <v>400.1933333333336</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H118" t="n">
-        <v>403.1116666666663</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,36 +4914,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="C119" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="D119" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="E119" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="F119" t="n">
-        <v>21</v>
+        <v>8230</v>
       </c>
       <c r="G119" t="n">
-        <v>400.1266666666669</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H119" t="n">
-        <v>403.1883333333329</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,36 +4949,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="C120" t="n">
-        <v>400.2</v>
+        <v>403.8</v>
       </c>
       <c r="D120" t="n">
-        <v>400.2</v>
+        <v>403.8</v>
       </c>
       <c r="E120" t="n">
-        <v>400.1</v>
+        <v>403.8</v>
       </c>
       <c r="F120" t="n">
-        <v>249.25295739</v>
+        <v>560</v>
       </c>
       <c r="G120" t="n">
-        <v>400.0666666666668</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H120" t="n">
-        <v>403.2633333333329</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,36 +4984,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="C121" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="D121" t="n">
-        <v>401.2</v>
+        <v>403.8</v>
       </c>
       <c r="E121" t="n">
-        <v>401.1</v>
+        <v>403.8</v>
       </c>
       <c r="F121" t="n">
-        <v>1937.5812</v>
+        <v>4296.0869</v>
       </c>
       <c r="G121" t="n">
-        <v>400.0733333333335</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H121" t="n">
-        <v>403.1916666666663</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,36 +5019,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="C122" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="D122" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="E122" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="F122" t="n">
-        <v>248.3321</v>
+        <v>14.0913</v>
       </c>
       <c r="G122" t="n">
-        <v>400.0733333333335</v>
+        <v>-56499.25617702001</v>
       </c>
       <c r="H122" t="n">
-        <v>403.1199999999996</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,36 +5054,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="C123" t="n">
-        <v>401.2</v>
+        <v>404.9</v>
       </c>
       <c r="D123" t="n">
-        <v>401.2</v>
+        <v>404.9</v>
       </c>
       <c r="E123" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="F123" t="n">
-        <v>4194</v>
+        <v>4.4</v>
       </c>
       <c r="G123" t="n">
-        <v>400.0733333333335</v>
+        <v>-56494.85617702001</v>
       </c>
       <c r="H123" t="n">
-        <v>403.0483333333329</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5218,36 +5089,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="C124" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="D124" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="E124" t="n">
-        <v>401.2</v>
+        <v>401</v>
       </c>
       <c r="F124" t="n">
-        <v>3928.8818</v>
+        <v>246.8499</v>
       </c>
       <c r="G124" t="n">
-        <v>400.0800000000001</v>
+        <v>-56741.70607702001</v>
       </c>
       <c r="H124" t="n">
-        <v>402.8983333333329</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,36 +5124,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>401.2</v>
+        <v>404.9</v>
       </c>
       <c r="C125" t="n">
-        <v>405.4</v>
+        <v>404.9</v>
       </c>
       <c r="D125" t="n">
-        <v>405.4</v>
+        <v>404.9</v>
       </c>
       <c r="E125" t="n">
-        <v>401.2</v>
+        <v>404.9</v>
       </c>
       <c r="F125" t="n">
-        <v>221.63630098</v>
+        <v>1.24</v>
       </c>
       <c r="G125" t="n">
-        <v>400.3666666666667</v>
+        <v>-56740.46607702001</v>
       </c>
       <c r="H125" t="n">
-        <v>402.8183333333329</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,36 +5159,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>402.3</v>
+        <v>401.1</v>
       </c>
       <c r="C126" t="n">
-        <v>402.3</v>
+        <v>401.1</v>
       </c>
       <c r="D126" t="n">
-        <v>402.3</v>
+        <v>401.1</v>
       </c>
       <c r="E126" t="n">
-        <v>402.3</v>
+        <v>401.1</v>
       </c>
       <c r="F126" t="n">
-        <v>86.90000000000001</v>
+        <v>4267.5889</v>
       </c>
       <c r="G126" t="n">
-        <v>400.4466666666667</v>
+        <v>-61008.05497702002</v>
       </c>
       <c r="H126" t="n">
-        <v>402.6866666666663</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,36 +5194,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="C127" t="n">
-        <v>405.4</v>
+        <v>404.9</v>
       </c>
       <c r="D127" t="n">
-        <v>405.4</v>
+        <v>404.9</v>
       </c>
       <c r="E127" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="F127" t="n">
-        <v>2621.3</v>
+        <v>3.3</v>
       </c>
       <c r="G127" t="n">
-        <v>400.86</v>
+        <v>-61004.75497702001</v>
       </c>
       <c r="H127" t="n">
-        <v>402.6066666666663</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5370,36 +5229,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>402</v>
+        <v>401.1</v>
       </c>
       <c r="C128" t="n">
-        <v>403.9</v>
+        <v>401.1</v>
       </c>
       <c r="D128" t="n">
-        <v>403.9</v>
+        <v>401.1</v>
       </c>
       <c r="E128" t="n">
-        <v>402</v>
+        <v>401.1</v>
       </c>
       <c r="F128" t="n">
-        <v>93.14490000000001</v>
+        <v>252.4561</v>
       </c>
       <c r="G128" t="n">
-        <v>401.1733333333333</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H128" t="n">
-        <v>402.5016666666663</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,36 +5264,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>402</v>
+        <v>401.1</v>
       </c>
       <c r="C129" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="D129" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="E129" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="F129" t="n">
-        <v>749.5585</v>
+        <v>75.7368</v>
       </c>
       <c r="G129" t="n">
-        <v>401.42</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H129" t="n">
-        <v>402.3799999999996</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,36 +5299,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="C130" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="D130" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="E130" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="F130" t="n">
-        <v>988.3</v>
+        <v>374.8973</v>
       </c>
       <c r="G130" t="n">
-        <v>401.6666666666667</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H130" t="n">
-        <v>402.2616666666663</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,36 +5334,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="C131" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="D131" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="E131" t="n">
-        <v>401.3</v>
+        <v>401.1</v>
       </c>
       <c r="F131" t="n">
-        <v>689.0041</v>
+        <v>901.5371</v>
       </c>
       <c r="G131" t="n">
-        <v>401.82</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H131" t="n">
-        <v>402.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,36 +5369,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="C132" t="n">
-        <v>404.9</v>
+        <v>401.1</v>
       </c>
       <c r="D132" t="n">
-        <v>404.9</v>
+        <v>401.1</v>
       </c>
       <c r="E132" t="n">
-        <v>402.9</v>
+        <v>401.1</v>
       </c>
       <c r="F132" t="n">
-        <v>6.43257594</v>
+        <v>1200</v>
       </c>
       <c r="G132" t="n">
-        <v>402.28</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H132" t="n">
-        <v>402.098333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5560,36 +5404,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>401</v>
+        <v>401.1</v>
       </c>
       <c r="C133" t="n">
-        <v>401</v>
+        <v>401.1</v>
       </c>
       <c r="D133" t="n">
-        <v>401</v>
+        <v>401.1</v>
       </c>
       <c r="E133" t="n">
-        <v>401</v>
+        <v>401.1</v>
       </c>
       <c r="F133" t="n">
-        <v>133.9996</v>
+        <v>800</v>
       </c>
       <c r="G133" t="n">
-        <v>402.34</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H133" t="n">
-        <v>402.0149999999996</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,36 +5439,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>406</v>
+        <v>401.2</v>
       </c>
       <c r="C134" t="n">
-        <v>406</v>
+        <v>401.1</v>
       </c>
       <c r="D134" t="n">
-        <v>406</v>
+        <v>401.2</v>
       </c>
       <c r="E134" t="n">
-        <v>406</v>
+        <v>401.1</v>
       </c>
       <c r="F134" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="G134" t="n">
-        <v>402.7333333333333</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H134" t="n">
-        <v>402.078333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,36 +5474,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>406.6</v>
+        <v>401.1</v>
       </c>
       <c r="C135" t="n">
-        <v>406.6</v>
+        <v>401.1</v>
       </c>
       <c r="D135" t="n">
-        <v>406.6</v>
+        <v>401.1</v>
       </c>
       <c r="E135" t="n">
-        <v>406.6</v>
+        <v>401.1</v>
       </c>
       <c r="F135" t="n">
-        <v>108.0324</v>
+        <v>2660</v>
       </c>
       <c r="G135" t="n">
-        <v>403.16</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H135" t="n">
-        <v>402.153333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,36 +5509,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>406.6</v>
+        <v>401.2</v>
       </c>
       <c r="C136" t="n">
-        <v>406.6</v>
+        <v>401.2</v>
       </c>
       <c r="D136" t="n">
-        <v>406.6</v>
+        <v>401.2</v>
       </c>
       <c r="E136" t="n">
-        <v>406.6</v>
+        <v>401.2</v>
       </c>
       <c r="F136" t="n">
-        <v>90.027</v>
+        <v>1590</v>
       </c>
       <c r="G136" t="n">
-        <v>403.52</v>
+        <v>-59667.21107702002</v>
       </c>
       <c r="H136" t="n">
-        <v>402.2266666666663</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,33 +5547,30 @@
         <v>401.2</v>
       </c>
       <c r="C137" t="n">
-        <v>407</v>
+        <v>401.2</v>
       </c>
       <c r="D137" t="n">
-        <v>408</v>
+        <v>401.2</v>
       </c>
       <c r="E137" t="n">
         <v>401.2</v>
       </c>
       <c r="F137" t="n">
-        <v>730.3723</v>
+        <v>150.4146</v>
       </c>
       <c r="G137" t="n">
-        <v>403.9066666666667</v>
+        <v>-59667.21107702002</v>
       </c>
       <c r="H137" t="n">
-        <v>402.3299999999996</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,36 +5579,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>408</v>
+        <v>401.1</v>
       </c>
       <c r="C138" t="n">
-        <v>408.5</v>
+        <v>401.1</v>
       </c>
       <c r="D138" t="n">
-        <v>408.5</v>
+        <v>401.1</v>
       </c>
       <c r="E138" t="n">
-        <v>408</v>
+        <v>401.1</v>
       </c>
       <c r="F138" t="n">
-        <v>1147.5709</v>
+        <v>970</v>
       </c>
       <c r="G138" t="n">
-        <v>404.3933333333334</v>
+        <v>-60637.21107702002</v>
       </c>
       <c r="H138" t="n">
-        <v>402.4866666666663</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,36 +5614,1048 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>404.2</v>
+        <v>401.1</v>
       </c>
       <c r="C139" t="n">
-        <v>404.2</v>
+        <v>401.1</v>
       </c>
       <c r="D139" t="n">
-        <v>404.2</v>
+        <v>401.1</v>
       </c>
       <c r="E139" t="n">
-        <v>404.2</v>
+        <v>401.1</v>
       </c>
       <c r="F139" t="n">
-        <v>40</v>
+        <v>20.322</v>
       </c>
       <c r="G139" t="n">
-        <v>404.5933333333334</v>
+        <v>-60637.21107702002</v>
       </c>
       <c r="H139" t="n">
-        <v>402.493333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>929.1826</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>689.5494</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>610.667</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>182.0577</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>399</v>
+      </c>
+      <c r="D145" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1539.201</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-63936.41207702002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>398</v>
+      </c>
+      <c r="C146" t="n">
+        <v>398</v>
+      </c>
+      <c r="D146" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>398</v>
+      </c>
+      <c r="F146" t="n">
+        <v>478.3417</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-64414.75377702001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-64411.45377702001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-64411.45377702001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>249.25295739</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-64162.20081963001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1937.5812</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>248.3321</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4194</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3928.8818</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>221.63630098</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-62002.98331865001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-62089.88331865001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2621.3</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-59468.58331865001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>402</v>
+      </c>
+      <c r="C157" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>402</v>
+      </c>
+      <c r="F157" t="n">
+        <v>93.14490000000001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-59561.72821865001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>402</v>
+      </c>
+      <c r="C158" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>749.5585</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-60311.28671865001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>988.3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-60311.28671865001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>689.0041</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-61000.29081865001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6.43257594</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-60993.85824271</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>401</v>
+      </c>
+      <c r="C162" t="n">
+        <v>401</v>
+      </c>
+      <c r="D162" t="n">
+        <v>401</v>
+      </c>
+      <c r="E162" t="n">
+        <v>401</v>
+      </c>
+      <c r="F162" t="n">
+        <v>133.9996</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-61127.85784271001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>406</v>
+      </c>
+      <c r="C163" t="n">
+        <v>406</v>
+      </c>
+      <c r="D163" t="n">
+        <v>406</v>
+      </c>
+      <c r="E163" t="n">
+        <v>406</v>
+      </c>
+      <c r="F163" t="n">
+        <v>451</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-60676.85784271001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>108.0324</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-60568.82544271001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>90.027</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-60568.82544271001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>407</v>
+      </c>
+      <c r="D166" t="n">
+        <v>408</v>
+      </c>
+      <c r="E166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>730.3723</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-59838.45314271001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>408</v>
+      </c>
+      <c r="C167" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>408</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1147.5709</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-58690.88224271001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-58730.88224271001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>390.5</v>
+        <v>398.1</v>
       </c>
       <c r="C2" t="n">
-        <v>390.5</v>
+        <v>398.1</v>
       </c>
       <c r="D2" t="n">
-        <v>390.5</v>
+        <v>398.1</v>
       </c>
       <c r="E2" t="n">
-        <v>390.5</v>
+        <v>398.1</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>479</v>
       </c>
       <c r="G2" t="n">
-        <v>-11383.85264212999</v>
+        <v>8354.304640160006</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,69 +467,65 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>390.5</v>
+        <v>404</v>
       </c>
       <c r="C3" t="n">
-        <v>390.6</v>
+        <v>397</v>
       </c>
       <c r="D3" t="n">
-        <v>390.6</v>
+        <v>411.9</v>
       </c>
       <c r="E3" t="n">
-        <v>390.5</v>
+        <v>397</v>
       </c>
       <c r="F3" t="n">
-        <v>1111.1685</v>
+        <v>54681.8818</v>
       </c>
       <c r="G3" t="n">
-        <v>-10272.68414212999</v>
+        <v>-46327.57715984</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>390.5</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>397.7</v>
+        <v>411</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6</v>
+        <v>411</v>
       </c>
       <c r="D4" t="n">
-        <v>397.7</v>
+        <v>411</v>
       </c>
       <c r="E4" t="n">
-        <v>397.6</v>
+        <v>411</v>
       </c>
       <c r="F4" t="n">
-        <v>79.6292</v>
+        <v>112.8978</v>
       </c>
       <c r="G4" t="n">
-        <v>-10193.05494212999</v>
+        <v>-46214.67935984</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,36 +535,33 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391.7</v>
+        <v>404.4</v>
       </c>
       <c r="C5" t="n">
-        <v>391.7</v>
+        <v>404.4</v>
       </c>
       <c r="D5" t="n">
-        <v>391.7</v>
+        <v>404.4</v>
       </c>
       <c r="E5" t="n">
-        <v>391.7</v>
+        <v>404.4</v>
       </c>
       <c r="F5" t="n">
-        <v>89.9999</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>-10283.05484213</v>
+        <v>-46264.67935984</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,36 +571,33 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391.9</v>
+        <v>405.5</v>
       </c>
       <c r="C6" t="n">
-        <v>391.9</v>
+        <v>405.5</v>
       </c>
       <c r="D6" t="n">
-        <v>391.9</v>
+        <v>405.5</v>
       </c>
       <c r="E6" t="n">
-        <v>391.9</v>
+        <v>405.5</v>
       </c>
       <c r="F6" t="n">
-        <v>51.9547</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>-10231.10014213</v>
+        <v>-46263.37935983999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -612,36 +607,33 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>391.9</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>391.9</v>
+        <v>397.2</v>
       </c>
       <c r="D7" t="n">
-        <v>391.9</v>
+        <v>407</v>
       </c>
       <c r="E7" t="n">
-        <v>391.9</v>
+        <v>397.2</v>
       </c>
       <c r="F7" t="n">
-        <v>61.5712</v>
+        <v>5340</v>
       </c>
       <c r="G7" t="n">
-        <v>-10231.10014213</v>
+        <v>-51603.37935983999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -651,77 +643,69 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>391.9</v>
+        <v>406.7</v>
       </c>
       <c r="C8" t="n">
-        <v>391.9</v>
+        <v>406.7</v>
       </c>
       <c r="D8" t="n">
-        <v>391.9</v>
+        <v>406.7</v>
       </c>
       <c r="E8" t="n">
-        <v>391.9</v>
+        <v>406.7</v>
       </c>
       <c r="F8" t="n">
-        <v>155.0661</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-10231.10014213</v>
+        <v>-51602.07935983999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>391.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>391.9</v>
+        <v>398.7</v>
       </c>
       <c r="C9" t="n">
-        <v>391.9</v>
+        <v>398.7</v>
       </c>
       <c r="D9" t="n">
-        <v>391.9</v>
+        <v>398.7</v>
       </c>
       <c r="E9" t="n">
-        <v>391.9</v>
+        <v>398.7</v>
       </c>
       <c r="F9" t="n">
-        <v>32.308</v>
+        <v>268.0852</v>
       </c>
       <c r="G9" t="n">
-        <v>-10231.10014213</v>
+        <v>-51870.16455983999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -731,36 +715,33 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>392.9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
-        <v>392.9</v>
+        <v>400</v>
       </c>
       <c r="D10" t="n">
-        <v>392.9</v>
+        <v>404</v>
       </c>
       <c r="E10" t="n">
-        <v>392.9</v>
+        <v>398.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>215.3757</v>
       </c>
       <c r="G10" t="n">
-        <v>-10229.80014213</v>
+        <v>-51654.78885983999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -770,36 +751,33 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>392.7</v>
+        <v>400.1</v>
       </c>
       <c r="C11" t="n">
-        <v>392.8</v>
+        <v>402.9</v>
       </c>
       <c r="D11" t="n">
-        <v>392.8</v>
+        <v>402.9</v>
       </c>
       <c r="E11" t="n">
-        <v>392.7</v>
+        <v>400.1</v>
       </c>
       <c r="F11" t="n">
-        <v>162.18431771</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
-        <v>-10391.98445984</v>
+        <v>-51650.48885983999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -809,36 +787,33 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>392.9</v>
+        <v>402.7</v>
       </c>
       <c r="C12" t="n">
-        <v>392.9</v>
+        <v>402.7</v>
       </c>
       <c r="D12" t="n">
-        <v>392.9</v>
+        <v>402.8</v>
       </c>
       <c r="E12" t="n">
-        <v>392.9</v>
+        <v>402.7</v>
       </c>
       <c r="F12" t="n">
-        <v>51.8225</v>
+        <v>9585.5519</v>
       </c>
       <c r="G12" t="n">
-        <v>-10340.16195984</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -848,36 +823,33 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>392.8</v>
+        <v>402.7</v>
       </c>
       <c r="C13" t="n">
-        <v>392.7</v>
+        <v>402.7</v>
       </c>
       <c r="D13" t="n">
-        <v>392.8</v>
+        <v>402.7</v>
       </c>
       <c r="E13" t="n">
-        <v>392.7</v>
+        <v>402.7</v>
       </c>
       <c r="F13" t="n">
-        <v>42.7548</v>
+        <v>507.7231</v>
       </c>
       <c r="G13" t="n">
-        <v>-10382.91675984</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -887,36 +859,33 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>392.2</v>
+        <v>402.9</v>
       </c>
       <c r="C14" t="n">
-        <v>392.2</v>
+        <v>407.7</v>
       </c>
       <c r="D14" t="n">
-        <v>392.2</v>
+        <v>407.7</v>
       </c>
       <c r="E14" t="n">
-        <v>392.2</v>
+        <v>402.9</v>
       </c>
       <c r="F14" t="n">
-        <v>509.943</v>
+        <v>179.0206</v>
       </c>
       <c r="G14" t="n">
-        <v>-10892.85975984</v>
+        <v>-61057.02015983999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -926,36 +895,33 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>392.9</v>
+        <v>403.5</v>
       </c>
       <c r="C15" t="n">
-        <v>392.9</v>
+        <v>402.8</v>
       </c>
       <c r="D15" t="n">
-        <v>392.9</v>
+        <v>403.5</v>
       </c>
       <c r="E15" t="n">
-        <v>392.9</v>
+        <v>402.8</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-10887.85975984</v>
+        <v>-61157.02015983999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -965,36 +931,33 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>392.9</v>
+        <v>402.8</v>
       </c>
       <c r="C16" t="n">
-        <v>395</v>
+        <v>400.1</v>
       </c>
       <c r="D16" t="n">
-        <v>395</v>
+        <v>407.9</v>
       </c>
       <c r="E16" t="n">
-        <v>392.9</v>
+        <v>400.1</v>
       </c>
       <c r="F16" t="n">
-        <v>6168.6373</v>
+        <v>940</v>
       </c>
       <c r="G16" t="n">
-        <v>-4719.222459839995</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1004,36 +967,33 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>395</v>
+        <v>400.1</v>
       </c>
       <c r="C17" t="n">
-        <v>394.2</v>
+        <v>400.1</v>
       </c>
       <c r="D17" t="n">
-        <v>395</v>
+        <v>400.1</v>
       </c>
       <c r="E17" t="n">
-        <v>394.2</v>
+        <v>400.1</v>
       </c>
       <c r="F17" t="n">
-        <v>222.61</v>
+        <v>70.77</v>
       </c>
       <c r="G17" t="n">
-        <v>-4941.832459839995</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1043,36 +1003,33 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>394.2</v>
+        <v>401</v>
       </c>
       <c r="C18" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
-        <v>394.2</v>
+        <v>401</v>
       </c>
       <c r="E18" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="F18" t="n">
-        <v>56.93</v>
+        <v>710</v>
       </c>
       <c r="G18" t="n">
-        <v>-4941.832459839995</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1082,36 +1039,33 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="C19" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="D19" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="E19" t="n">
-        <v>394.2</v>
+        <v>400</v>
       </c>
       <c r="F19" t="n">
-        <v>368</v>
+        <v>417.2547</v>
       </c>
       <c r="G19" t="n">
-        <v>-4941.832459839995</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1121,36 +1075,33 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>393.8</v>
+        <v>404</v>
       </c>
       <c r="C20" t="n">
-        <v>393.8</v>
+        <v>406.4</v>
       </c>
       <c r="D20" t="n">
-        <v>393.8</v>
+        <v>410</v>
       </c>
       <c r="E20" t="n">
-        <v>393.8</v>
+        <v>399.4</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>585.3200000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-4991.832459839995</v>
+        <v>-62221.70015983999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1160,36 +1111,33 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>393.8</v>
+        <v>409.2</v>
       </c>
       <c r="C21" t="n">
-        <v>392</v>
+        <v>409.2</v>
       </c>
       <c r="D21" t="n">
-        <v>393.8</v>
+        <v>409.2</v>
       </c>
       <c r="E21" t="n">
-        <v>392</v>
+        <v>409.2</v>
       </c>
       <c r="F21" t="n">
-        <v>59.19</v>
+        <v>61</v>
       </c>
       <c r="G21" t="n">
-        <v>-5051.022459839995</v>
+        <v>-62160.70015983999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1199,36 +1147,33 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>392</v>
+        <v>406.9</v>
       </c>
       <c r="C22" t="n">
-        <v>392</v>
+        <v>404.9</v>
       </c>
       <c r="D22" t="n">
-        <v>392</v>
+        <v>406.9</v>
       </c>
       <c r="E22" t="n">
-        <v>392</v>
+        <v>399.6</v>
       </c>
       <c r="F22" t="n">
-        <v>200.7</v>
+        <v>163.51</v>
       </c>
       <c r="G22" t="n">
-        <v>-5051.022459839995</v>
+        <v>-62324.21015983999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1238,36 +1183,33 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>392</v>
+        <v>399.9</v>
       </c>
       <c r="C23" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D23" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="E23" t="n">
-        <v>392</v>
+        <v>399.9</v>
       </c>
       <c r="F23" t="n">
-        <v>269.634</v>
+        <v>982.6614</v>
       </c>
       <c r="G23" t="n">
-        <v>-5051.022459839995</v>
+        <v>-61341.54875983999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1277,36 +1219,33 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C24" t="n">
-        <v>391</v>
+        <v>400.9</v>
       </c>
       <c r="D24" t="n">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="E24" t="n">
-        <v>391</v>
+        <v>400.8</v>
       </c>
       <c r="F24" t="n">
-        <v>964.6994999999999</v>
+        <v>395.73</v>
       </c>
       <c r="G24" t="n">
-        <v>-6015.721959839994</v>
+        <v>-61737.27875984</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1316,36 +1255,33 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>390.8</v>
+        <v>407.9</v>
       </c>
       <c r="C25" t="n">
-        <v>390.8</v>
+        <v>407.9</v>
       </c>
       <c r="D25" t="n">
-        <v>390.8</v>
+        <v>407.9</v>
       </c>
       <c r="E25" t="n">
-        <v>390.8</v>
+        <v>407.9</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0959</v>
+        <v>1.25</v>
       </c>
       <c r="G25" t="n">
-        <v>-6365.817859839995</v>
+        <v>-61736.02875984</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1355,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>389.1</v>
+        <v>401.4</v>
       </c>
       <c r="C26" t="n">
-        <v>389.1</v>
+        <v>401.4</v>
       </c>
       <c r="D26" t="n">
-        <v>389.1</v>
+        <v>401.4</v>
       </c>
       <c r="E26" t="n">
-        <v>389.1</v>
+        <v>401.4</v>
       </c>
       <c r="F26" t="n">
-        <v>1259.7122</v>
+        <v>180.73</v>
       </c>
       <c r="G26" t="n">
-        <v>-7625.530059839994</v>
+        <v>-61916.75875984</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1394,36 +1327,33 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>390.6</v>
+        <v>403.9</v>
       </c>
       <c r="C27" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="D27" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="E27" t="n">
-        <v>390.6</v>
+        <v>403.9</v>
       </c>
       <c r="F27" t="n">
-        <v>635.6658</v>
+        <v>137.3847</v>
       </c>
       <c r="G27" t="n">
-        <v>-6989.864259839995</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1433,36 +1363,33 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>392</v>
+        <v>403.9</v>
       </c>
       <c r="C28" t="n">
-        <v>392</v>
+        <v>403.9</v>
       </c>
       <c r="D28" t="n">
-        <v>392</v>
+        <v>403.9</v>
       </c>
       <c r="E28" t="n">
-        <v>392</v>
+        <v>403.9</v>
       </c>
       <c r="F28" t="n">
-        <v>3571.9769</v>
+        <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>-3417.887359839995</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1472,36 +1399,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>392</v>
+        <v>401.4</v>
       </c>
       <c r="C29" t="n">
-        <v>391</v>
+        <v>401.4</v>
       </c>
       <c r="D29" t="n">
-        <v>392</v>
+        <v>401.4</v>
       </c>
       <c r="E29" t="n">
-        <v>391</v>
+        <v>401.4</v>
       </c>
       <c r="F29" t="n">
-        <v>881.0862</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-4298.973559839995</v>
+        <v>-61829.37405984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1511,36 +1435,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="C30" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="D30" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="E30" t="n">
-        <v>391</v>
+        <v>403.9</v>
       </c>
       <c r="F30" t="n">
-        <v>213.68</v>
+        <v>1.7092</v>
       </c>
       <c r="G30" t="n">
-        <v>-4298.973559839995</v>
+        <v>-61827.66485984</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1550,36 +1471,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>391</v>
+        <v>401.4</v>
       </c>
       <c r="C31" t="n">
-        <v>390.1</v>
+        <v>401.4</v>
       </c>
       <c r="D31" t="n">
-        <v>391</v>
+        <v>401.4</v>
       </c>
       <c r="E31" t="n">
-        <v>390.1</v>
+        <v>401.4</v>
       </c>
       <c r="F31" t="n">
-        <v>448.13</v>
+        <v>9.99</v>
       </c>
       <c r="G31" t="n">
-        <v>-4747.103559839995</v>
+        <v>-61837.65485984</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1589,36 +1507,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>390.1</v>
+        <v>401.4</v>
       </c>
       <c r="C32" t="n">
-        <v>389.1</v>
+        <v>392.3</v>
       </c>
       <c r="D32" t="n">
-        <v>390.1</v>
+        <v>401.4</v>
       </c>
       <c r="E32" t="n">
-        <v>389.1</v>
+        <v>392.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1258.3286</v>
+        <v>13228.79</v>
       </c>
       <c r="G32" t="n">
-        <v>-6005.432159839995</v>
+        <v>-75066.44485984</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,36 +1543,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="C33" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="E33" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="F33" t="n">
-        <v>87.503</v>
+        <v>25.4753</v>
       </c>
       <c r="G33" t="n">
-        <v>-5917.929159839995</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1667,36 +1579,33 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="C34" t="n">
-        <v>388.1</v>
+        <v>395.5</v>
       </c>
       <c r="D34" t="n">
-        <v>390.2</v>
+        <v>395.5</v>
       </c>
       <c r="E34" t="n">
-        <v>388.1</v>
+        <v>395.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1241.5989</v>
+        <v>482.026</v>
       </c>
       <c r="G34" t="n">
-        <v>-7159.528059839995</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,36 +1615,33 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>388</v>
+        <v>395.5</v>
       </c>
       <c r="C35" t="n">
-        <v>388</v>
+        <v>395.5</v>
       </c>
       <c r="D35" t="n">
-        <v>388</v>
+        <v>395.5</v>
       </c>
       <c r="E35" t="n">
-        <v>388</v>
+        <v>395.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3724.7968</v>
+        <v>472.2799</v>
       </c>
       <c r="G35" t="n">
-        <v>-10884.32485984</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1745,36 +1651,33 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>393.9</v>
+        <v>393.7</v>
       </c>
       <c r="C36" t="n">
-        <v>393.9</v>
+        <v>392.2</v>
       </c>
       <c r="D36" t="n">
-        <v>393.9</v>
+        <v>393.7</v>
       </c>
       <c r="E36" t="n">
-        <v>393.9</v>
+        <v>392.2</v>
       </c>
       <c r="F36" t="n">
-        <v>6.329</v>
+        <v>1261.6551</v>
       </c>
       <c r="G36" t="n">
-        <v>-10877.99585984</v>
+        <v>-76302.62465984</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1784,36 +1687,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="C37" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="D37" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="E37" t="n">
-        <v>393.9</v>
+        <v>393</v>
       </c>
       <c r="F37" t="n">
-        <v>305.8908</v>
+        <v>472.2799</v>
       </c>
       <c r="G37" t="n">
-        <v>-10877.99585984</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1823,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="C38" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="D38" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="E38" t="n">
-        <v>393.8</v>
+        <v>393</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1164</v>
+        <v>195.2536</v>
       </c>
       <c r="G38" t="n">
-        <v>-10881.11225984</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1862,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="C39" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="D39" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="E39" t="n">
-        <v>393</v>
+        <v>393.8</v>
       </c>
       <c r="F39" t="n">
-        <v>15527.5347</v>
+        <v>182.7578</v>
       </c>
       <c r="G39" t="n">
-        <v>-26408.64695984</v>
+        <v>-75647.58695984</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1901,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C40" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D40" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E40" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F40" t="n">
-        <v>3114.3355</v>
+        <v>90.5766</v>
       </c>
       <c r="G40" t="n">
-        <v>-26408.64695984</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1940,36 +1831,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>393.9</v>
+        <v>394</v>
       </c>
       <c r="C41" t="n">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D41" t="n">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E41" t="n">
-        <v>393.9</v>
+        <v>394</v>
       </c>
       <c r="F41" t="n">
-        <v>43632.8216</v>
+        <v>46.8081</v>
       </c>
       <c r="G41" t="n">
-        <v>17224.17464016001</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1979,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>410</v>
+        <v>393.2</v>
       </c>
       <c r="C42" t="n">
-        <v>391.1</v>
+        <v>391.2</v>
       </c>
       <c r="D42" t="n">
-        <v>410</v>
+        <v>393.2</v>
       </c>
       <c r="E42" t="n">
-        <v>389.6</v>
+        <v>391.2</v>
       </c>
       <c r="F42" t="n">
-        <v>8417.83</v>
+        <v>4280.8203</v>
       </c>
       <c r="G42" t="n">
-        <v>8806.344640160007</v>
+        <v>-79837.83065984001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,36 +1903,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>399</v>
+        <v>393.8</v>
       </c>
       <c r="C43" t="n">
-        <v>399</v>
+        <v>393.9</v>
       </c>
       <c r="D43" t="n">
-        <v>399</v>
+        <v>393.9</v>
       </c>
       <c r="E43" t="n">
-        <v>399</v>
+        <v>393.8</v>
       </c>
       <c r="F43" t="n">
-        <v>26.96</v>
+        <v>109.18065514</v>
       </c>
       <c r="G43" t="n">
-        <v>8833.304640160006</v>
+        <v>-79728.65000470002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2057,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>398.1</v>
+        <v>392.5</v>
       </c>
       <c r="C44" t="n">
-        <v>398.1</v>
+        <v>392.1</v>
       </c>
       <c r="D44" t="n">
-        <v>398.1</v>
+        <v>392.5</v>
       </c>
       <c r="E44" t="n">
-        <v>398.1</v>
+        <v>392.1</v>
       </c>
       <c r="F44" t="n">
-        <v>479</v>
+        <v>111.5855</v>
       </c>
       <c r="G44" t="n">
-        <v>8354.304640160006</v>
+        <v>-79840.23550470002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2096,231 +1975,245 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>404</v>
+        <v>391.1</v>
       </c>
       <c r="C45" t="n">
-        <v>397</v>
+        <v>391.1</v>
       </c>
       <c r="D45" t="n">
-        <v>411.9</v>
+        <v>391.1</v>
       </c>
       <c r="E45" t="n">
-        <v>397</v>
+        <v>391.1</v>
       </c>
       <c r="F45" t="n">
-        <v>54681.8818</v>
+        <v>1040</v>
       </c>
       <c r="G45" t="n">
-        <v>-46327.57715984</v>
+        <v>-80880.23550470002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>411</v>
+        <v>395.5</v>
       </c>
       <c r="C46" t="n">
-        <v>411</v>
+        <v>395.5</v>
       </c>
       <c r="D46" t="n">
-        <v>411</v>
+        <v>395.5</v>
       </c>
       <c r="E46" t="n">
-        <v>411</v>
+        <v>395.5</v>
       </c>
       <c r="F46" t="n">
-        <v>112.8978</v>
+        <v>0.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>-46214.67935984</v>
+        <v>-80880.23540470001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>392.1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>404.4</v>
+        <v>395.7</v>
       </c>
       <c r="C47" t="n">
-        <v>404.4</v>
+        <v>395.7</v>
       </c>
       <c r="D47" t="n">
-        <v>404.4</v>
+        <v>395.7</v>
       </c>
       <c r="E47" t="n">
-        <v>404.4</v>
+        <v>395.7</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>1.3</v>
       </c>
       <c r="G47" t="n">
-        <v>-46264.67935984</v>
+        <v>-80878.93540470001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>392.1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>405.5</v>
+        <v>395.9</v>
       </c>
       <c r="C48" t="n">
         <v>405.5</v>
       </c>
       <c r="D48" t="n">
-        <v>405.5</v>
+        <v>409</v>
       </c>
       <c r="E48" t="n">
-        <v>405.5</v>
+        <v>395.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1.3</v>
+        <v>22119.7678</v>
       </c>
       <c r="G48" t="n">
-        <v>-46263.37935983999</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="K48" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>407</v>
+        <v>405.5</v>
       </c>
       <c r="C49" t="n">
-        <v>397.2</v>
+        <v>405.5</v>
       </c>
       <c r="D49" t="n">
-        <v>407</v>
+        <v>405.5</v>
       </c>
       <c r="E49" t="n">
-        <v>397.2</v>
+        <v>405.5</v>
       </c>
       <c r="F49" t="n">
-        <v>5340</v>
+        <v>12560</v>
       </c>
       <c r="G49" t="n">
-        <v>-51603.37935983999</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>405.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>395.7</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>406.7</v>
+        <v>405.5</v>
       </c>
       <c r="C50" t="n">
-        <v>406.7</v>
+        <v>405.5</v>
       </c>
       <c r="D50" t="n">
-        <v>406.7</v>
+        <v>405.5</v>
       </c>
       <c r="E50" t="n">
-        <v>406.7</v>
+        <v>405.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1.3</v>
+        <v>4757.66</v>
       </c>
       <c r="G50" t="n">
-        <v>-51602.07935983999</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2329,37 +2222,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>395.7</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>398.7</v>
+        <v>405</v>
       </c>
       <c r="C51" t="n">
-        <v>398.7</v>
+        <v>410.2</v>
       </c>
       <c r="D51" t="n">
-        <v>398.7</v>
+        <v>410.2</v>
       </c>
       <c r="E51" t="n">
-        <v>398.7</v>
+        <v>405</v>
       </c>
       <c r="F51" t="n">
-        <v>268.0852</v>
+        <v>7328.79721304</v>
       </c>
       <c r="G51" t="n">
-        <v>-51870.16455983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2369,36 +2265,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>400</v>
+        <v>409.2</v>
       </c>
       <c r="C52" t="n">
-        <v>400</v>
+        <v>410.2</v>
       </c>
       <c r="D52" t="n">
-        <v>404</v>
+        <v>410.2</v>
       </c>
       <c r="E52" t="n">
-        <v>398.7</v>
+        <v>409.2</v>
       </c>
       <c r="F52" t="n">
-        <v>215.3757</v>
+        <v>11958.75670404</v>
       </c>
       <c r="G52" t="n">
-        <v>-51654.78885983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2408,36 +2301,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>400.1</v>
+        <v>403</v>
       </c>
       <c r="C53" t="n">
-        <v>402.9</v>
+        <v>410.2</v>
       </c>
       <c r="D53" t="n">
-        <v>402.9</v>
+        <v>410.2</v>
       </c>
       <c r="E53" t="n">
-        <v>400.1</v>
+        <v>403</v>
       </c>
       <c r="F53" t="n">
-        <v>4.3</v>
+        <v>13454.56908292</v>
       </c>
       <c r="G53" t="n">
-        <v>-51650.48885983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2447,36 +2337,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="C54" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="D54" t="n">
-        <v>402.8</v>
+        <v>410.2</v>
       </c>
       <c r="E54" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="F54" t="n">
-        <v>9585.5519</v>
+        <v>778.0367</v>
       </c>
       <c r="G54" t="n">
-        <v>-61236.04075983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2486,36 +2373,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="C55" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="D55" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="E55" t="n">
-        <v>402.7</v>
+        <v>410.2</v>
       </c>
       <c r="F55" t="n">
-        <v>507.7231</v>
+        <v>3322.764</v>
       </c>
       <c r="G55" t="n">
-        <v>-61236.04075983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2525,36 +2409,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>402.9</v>
+        <v>410.2</v>
       </c>
       <c r="C56" t="n">
-        <v>407.7</v>
+        <v>410.2</v>
       </c>
       <c r="D56" t="n">
-        <v>407.7</v>
+        <v>410.2</v>
       </c>
       <c r="E56" t="n">
-        <v>402.9</v>
+        <v>410.2</v>
       </c>
       <c r="F56" t="n">
-        <v>179.0206</v>
+        <v>1.708e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>-61057.02015983999</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2564,36 +2445,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>403.5</v>
+        <v>410</v>
       </c>
       <c r="C57" t="n">
-        <v>402.8</v>
+        <v>410</v>
       </c>
       <c r="D57" t="n">
-        <v>403.5</v>
+        <v>410</v>
       </c>
       <c r="E57" t="n">
-        <v>402.8</v>
+        <v>410</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>8.53658536</v>
       </c>
       <c r="G57" t="n">
-        <v>-61157.02015983999</v>
+        <v>-51438.90697702001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2603,36 +2481,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>402.8</v>
+        <v>409</v>
       </c>
       <c r="C58" t="n">
-        <v>400.1</v>
+        <v>409</v>
       </c>
       <c r="D58" t="n">
-        <v>407.9</v>
+        <v>409</v>
       </c>
       <c r="E58" t="n">
-        <v>400.1</v>
+        <v>409</v>
       </c>
       <c r="F58" t="n">
-        <v>940</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>-62097.02015983999</v>
+        <v>-51441.90697702001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2642,36 +2517,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>400.1</v>
+        <v>407</v>
       </c>
       <c r="C59" t="n">
-        <v>400.1</v>
+        <v>407</v>
       </c>
       <c r="D59" t="n">
-        <v>400.1</v>
+        <v>407</v>
       </c>
       <c r="E59" t="n">
-        <v>400.1</v>
+        <v>407</v>
       </c>
       <c r="F59" t="n">
-        <v>70.77</v>
+        <v>63.54</v>
       </c>
       <c r="G59" t="n">
-        <v>-62097.02015983999</v>
+        <v>-51505.44697702001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2681,36 +2553,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C60" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D60" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E60" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F60" t="n">
-        <v>710</v>
+        <v>50</v>
       </c>
       <c r="G60" t="n">
-        <v>-62807.02015983999</v>
+        <v>-51555.44697702001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2720,36 +2589,33 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>400</v>
+        <v>402.2</v>
       </c>
       <c r="C61" t="n">
-        <v>400</v>
+        <v>402.2</v>
       </c>
       <c r="D61" t="n">
-        <v>400</v>
+        <v>402.2</v>
       </c>
       <c r="E61" t="n">
-        <v>400</v>
+        <v>402.2</v>
       </c>
       <c r="F61" t="n">
-        <v>417.2547</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>-62807.02015983999</v>
+        <v>-51558.44697702001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2759,14 +2625,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2776,19 +2639,19 @@
         <v>404</v>
       </c>
       <c r="C62" t="n">
-        <v>406.4</v>
+        <v>402.1</v>
       </c>
       <c r="D62" t="n">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E62" t="n">
-        <v>399.4</v>
+        <v>402.1</v>
       </c>
       <c r="F62" t="n">
-        <v>585.3200000000001</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>-62221.70015983999</v>
+        <v>-51758.44697702001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2798,36 +2661,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>409.2</v>
+        <v>402.2</v>
       </c>
       <c r="C63" t="n">
-        <v>409.2</v>
+        <v>402.2</v>
       </c>
       <c r="D63" t="n">
-        <v>409.2</v>
+        <v>402.2</v>
       </c>
       <c r="E63" t="n">
-        <v>409.2</v>
+        <v>402.2</v>
       </c>
       <c r="F63" t="n">
-        <v>61</v>
+        <v>599.63</v>
       </c>
       <c r="G63" t="n">
-        <v>-62160.70015983999</v>
+        <v>-51158.81697702001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2837,36 +2697,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>406.9</v>
+        <v>403.2</v>
       </c>
       <c r="C64" t="n">
-        <v>404.9</v>
+        <v>400.8</v>
       </c>
       <c r="D64" t="n">
-        <v>406.9</v>
+        <v>403.2</v>
       </c>
       <c r="E64" t="n">
-        <v>399.6</v>
+        <v>400.8</v>
       </c>
       <c r="F64" t="n">
-        <v>163.51</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="n">
-        <v>-62324.21015983999</v>
+        <v>-56158.81697702001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,36 +2733,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>399.9</v>
+        <v>401.8</v>
       </c>
       <c r="C65" t="n">
-        <v>408</v>
+        <v>399.1</v>
       </c>
       <c r="D65" t="n">
-        <v>408</v>
+        <v>401.8</v>
       </c>
       <c r="E65" t="n">
-        <v>399.9</v>
+        <v>399.1</v>
       </c>
       <c r="F65" t="n">
-        <v>982.6614</v>
+        <v>408.16</v>
       </c>
       <c r="G65" t="n">
-        <v>-61341.54875983999</v>
+        <v>-56566.97697702001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2915,36 +2769,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>408</v>
+        <v>403.8</v>
       </c>
       <c r="C66" t="n">
-        <v>400.9</v>
+        <v>403.8</v>
       </c>
       <c r="D66" t="n">
-        <v>408</v>
+        <v>403.8</v>
       </c>
       <c r="E66" t="n">
-        <v>400.8</v>
+        <v>403.8</v>
       </c>
       <c r="F66" t="n">
-        <v>395.73</v>
+        <v>81.8121</v>
       </c>
       <c r="G66" t="n">
-        <v>-61737.27875984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2954,36 +2805,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>407.9</v>
+        <v>403.8</v>
       </c>
       <c r="C67" t="n">
-        <v>407.9</v>
+        <v>403.8</v>
       </c>
       <c r="D67" t="n">
-        <v>407.9</v>
+        <v>403.8</v>
       </c>
       <c r="E67" t="n">
-        <v>407.9</v>
+        <v>403.8</v>
       </c>
       <c r="F67" t="n">
-        <v>1.25</v>
+        <v>19878.555</v>
       </c>
       <c r="G67" t="n">
-        <v>-61736.02875984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2993,36 +2841,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="C68" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="D68" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="E68" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="F68" t="n">
-        <v>180.73</v>
+        <v>332.5507</v>
       </c>
       <c r="G68" t="n">
-        <v>-61916.75875984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3032,36 +2877,33 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="C69" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="D69" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="E69" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="F69" t="n">
-        <v>137.3847</v>
+        <v>2740</v>
       </c>
       <c r="G69" t="n">
-        <v>-61779.37405984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3071,36 +2913,33 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="C70" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="D70" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="E70" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1.3</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>-61779.37405984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3110,36 +2949,33 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="C71" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="D71" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="E71" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>2518.31</v>
       </c>
       <c r="G71" t="n">
-        <v>-61829.37405984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3149,36 +2985,33 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="C72" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="D72" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="E72" t="n">
-        <v>403.9</v>
+        <v>403.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1.7092</v>
+        <v>400</v>
       </c>
       <c r="G72" t="n">
-        <v>-61827.66485984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3188,36 +3021,33 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="C73" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="D73" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="E73" t="n">
-        <v>401.4</v>
+        <v>403.8</v>
       </c>
       <c r="F73" t="n">
-        <v>9.99</v>
+        <v>18.97</v>
       </c>
       <c r="G73" t="n">
-        <v>-61837.65485984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3227,36 +3057,33 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>401.4</v>
+        <v>404</v>
       </c>
       <c r="C74" t="n">
-        <v>392.3</v>
+        <v>403.8</v>
       </c>
       <c r="D74" t="n">
-        <v>401.4</v>
+        <v>404</v>
       </c>
       <c r="E74" t="n">
-        <v>392.3</v>
+        <v>403.8</v>
       </c>
       <c r="F74" t="n">
-        <v>13228.79</v>
+        <v>1453.7886</v>
       </c>
       <c r="G74" t="n">
-        <v>-75066.44485984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3266,36 +3093,33 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="C75" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="D75" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="E75" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="F75" t="n">
-        <v>25.4753</v>
+        <v>1060</v>
       </c>
       <c r="G75" t="n">
-        <v>-75040.96955984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3305,36 +3129,33 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="C76" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="D76" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="E76" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="F76" t="n">
-        <v>482.026</v>
+        <v>2510</v>
       </c>
       <c r="G76" t="n">
-        <v>-75040.96955984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3344,36 +3165,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="C77" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="D77" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="E77" t="n">
-        <v>395.5</v>
+        <v>403.8</v>
       </c>
       <c r="F77" t="n">
-        <v>472.2799</v>
+        <v>8230</v>
       </c>
       <c r="G77" t="n">
-        <v>-75040.96955984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3383,36 +3201,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>393.7</v>
+        <v>403.8</v>
       </c>
       <c r="C78" t="n">
-        <v>392.2</v>
+        <v>403.8</v>
       </c>
       <c r="D78" t="n">
-        <v>393.7</v>
+        <v>403.8</v>
       </c>
       <c r="E78" t="n">
-        <v>392.2</v>
+        <v>403.8</v>
       </c>
       <c r="F78" t="n">
-        <v>1261.6551</v>
+        <v>560</v>
       </c>
       <c r="G78" t="n">
-        <v>-76302.62465984</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3422,36 +3237,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>393</v>
+        <v>403.8</v>
       </c>
       <c r="C79" t="n">
-        <v>393</v>
+        <v>403.8</v>
       </c>
       <c r="D79" t="n">
-        <v>393</v>
+        <v>403.8</v>
       </c>
       <c r="E79" t="n">
-        <v>393</v>
+        <v>403.8</v>
       </c>
       <c r="F79" t="n">
-        <v>472.2799</v>
+        <v>4296.0869</v>
       </c>
       <c r="G79" t="n">
-        <v>-75830.34475984001</v>
+        <v>-56485.16487702001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3461,36 +3273,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C80" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D80" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E80" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F80" t="n">
-        <v>195.2536</v>
+        <v>14.0913</v>
       </c>
       <c r="G80" t="n">
-        <v>-75830.34475984001</v>
+        <v>-56499.25617702001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3500,36 +3309,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>393.8</v>
+        <v>401</v>
       </c>
       <c r="C81" t="n">
-        <v>393.8</v>
+        <v>404.9</v>
       </c>
       <c r="D81" t="n">
-        <v>393.8</v>
+        <v>404.9</v>
       </c>
       <c r="E81" t="n">
-        <v>393.8</v>
+        <v>401</v>
       </c>
       <c r="F81" t="n">
-        <v>182.7578</v>
+        <v>4.4</v>
       </c>
       <c r="G81" t="n">
-        <v>-75647.58695984</v>
+        <v>-56494.85617702001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3539,36 +3345,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C82" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D82" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E82" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F82" t="n">
-        <v>90.5766</v>
+        <v>246.8499</v>
       </c>
       <c r="G82" t="n">
-        <v>-75557.01035984</v>
+        <v>-56741.70607702001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3578,36 +3381,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>394</v>
+        <v>404.9</v>
       </c>
       <c r="C83" t="n">
-        <v>394</v>
+        <v>404.9</v>
       </c>
       <c r="D83" t="n">
-        <v>394</v>
+        <v>404.9</v>
       </c>
       <c r="E83" t="n">
-        <v>394</v>
+        <v>404.9</v>
       </c>
       <c r="F83" t="n">
-        <v>46.8081</v>
+        <v>1.24</v>
       </c>
       <c r="G83" t="n">
-        <v>-75557.01035984</v>
+        <v>-56740.46607702001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3617,36 +3417,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>393.2</v>
+        <v>401.1</v>
       </c>
       <c r="C84" t="n">
-        <v>391.2</v>
+        <v>401.1</v>
       </c>
       <c r="D84" t="n">
-        <v>393.2</v>
+        <v>401.1</v>
       </c>
       <c r="E84" t="n">
-        <v>391.2</v>
+        <v>401.1</v>
       </c>
       <c r="F84" t="n">
-        <v>4280.8203</v>
+        <v>4267.5889</v>
       </c>
       <c r="G84" t="n">
-        <v>-79837.83065984001</v>
+        <v>-61008.05497702002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,77 +3453,69 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>393.8</v>
+        <v>401.1</v>
       </c>
       <c r="C85" t="n">
-        <v>393.9</v>
+        <v>404.9</v>
       </c>
       <c r="D85" t="n">
-        <v>393.9</v>
+        <v>404.9</v>
       </c>
       <c r="E85" t="n">
-        <v>393.8</v>
+        <v>401.1</v>
       </c>
       <c r="F85" t="n">
-        <v>109.18065514</v>
+        <v>3.3</v>
       </c>
       <c r="G85" t="n">
-        <v>-79728.65000470002</v>
+        <v>-61004.75497702001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>391.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>392.5</v>
+        <v>401.1</v>
       </c>
       <c r="C86" t="n">
-        <v>392.1</v>
+        <v>401.1</v>
       </c>
       <c r="D86" t="n">
-        <v>392.5</v>
+        <v>401.1</v>
       </c>
       <c r="E86" t="n">
-        <v>392.1</v>
+        <v>401.1</v>
       </c>
       <c r="F86" t="n">
-        <v>111.5855</v>
+        <v>252.4561</v>
       </c>
       <c r="G86" t="n">
-        <v>-79840.23550470002</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3736,77 +3525,69 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>391.1</v>
+        <v>401.1</v>
       </c>
       <c r="C87" t="n">
-        <v>391.1</v>
+        <v>401.1</v>
       </c>
       <c r="D87" t="n">
-        <v>391.1</v>
+        <v>401.1</v>
       </c>
       <c r="E87" t="n">
-        <v>391.1</v>
+        <v>401.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1040</v>
+        <v>75.7368</v>
       </c>
       <c r="G87" t="n">
-        <v>-80880.23550470002</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>392.1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>395.5</v>
+        <v>401.1</v>
       </c>
       <c r="C88" t="n">
-        <v>395.5</v>
+        <v>401.1</v>
       </c>
       <c r="D88" t="n">
-        <v>395.5</v>
+        <v>401.1</v>
       </c>
       <c r="E88" t="n">
-        <v>395.5</v>
+        <v>401.1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001</v>
+        <v>374.8973</v>
       </c>
       <c r="G88" t="n">
-        <v>-80880.23540470001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3816,36 +3597,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>395.7</v>
+        <v>401.1</v>
       </c>
       <c r="C89" t="n">
-        <v>395.7</v>
+        <v>401.1</v>
       </c>
       <c r="D89" t="n">
-        <v>395.7</v>
+        <v>401.1</v>
       </c>
       <c r="E89" t="n">
-        <v>395.7</v>
+        <v>401.1</v>
       </c>
       <c r="F89" t="n">
-        <v>1.3</v>
+        <v>901.5371</v>
       </c>
       <c r="G89" t="n">
-        <v>-80878.93540470001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3855,36 +3633,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>395.9</v>
+        <v>401.1</v>
       </c>
       <c r="C90" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="D90" t="n">
-        <v>409</v>
+        <v>401.1</v>
       </c>
       <c r="E90" t="n">
-        <v>395.9</v>
+        <v>401.1</v>
       </c>
       <c r="F90" t="n">
-        <v>22119.7678</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="n">
-        <v>-58759.16760470001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3894,36 +3669,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="C91" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="D91" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="E91" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="F91" t="n">
-        <v>12560</v>
+        <v>800</v>
       </c>
       <c r="G91" t="n">
-        <v>-58759.16760470001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3933,36 +3705,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>405.5</v>
+        <v>401.2</v>
       </c>
       <c r="C92" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="D92" t="n">
-        <v>405.5</v>
+        <v>401.2</v>
       </c>
       <c r="E92" t="n">
-        <v>405.5</v>
+        <v>401.1</v>
       </c>
       <c r="F92" t="n">
-        <v>4757.66</v>
+        <v>740</v>
       </c>
       <c r="G92" t="n">
-        <v>-58759.16760470001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3972,36 +3741,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>405</v>
+        <v>401.1</v>
       </c>
       <c r="C93" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="D93" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="E93" t="n">
-        <v>405</v>
+        <v>401.1</v>
       </c>
       <c r="F93" t="n">
-        <v>7328.79721304</v>
+        <v>2660</v>
       </c>
       <c r="G93" t="n">
-        <v>-51430.37039166001</v>
+        <v>-61257.21107702002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4011,36 +3777,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>409.2</v>
+        <v>401.2</v>
       </c>
       <c r="C94" t="n">
-        <v>410.2</v>
+        <v>401.2</v>
       </c>
       <c r="D94" t="n">
-        <v>410.2</v>
+        <v>401.2</v>
       </c>
       <c r="E94" t="n">
-        <v>409.2</v>
+        <v>401.2</v>
       </c>
       <c r="F94" t="n">
-        <v>11958.75670404</v>
+        <v>1590</v>
       </c>
       <c r="G94" t="n">
-        <v>-51430.37039166001</v>
+        <v>-59667.21107702002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4050,36 +3813,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>403</v>
+        <v>401.2</v>
       </c>
       <c r="C95" t="n">
-        <v>410.2</v>
+        <v>401.2</v>
       </c>
       <c r="D95" t="n">
-        <v>410.2</v>
+        <v>401.2</v>
       </c>
       <c r="E95" t="n">
-        <v>403</v>
+        <v>401.2</v>
       </c>
       <c r="F95" t="n">
-        <v>13454.56908292</v>
+        <v>150.4146</v>
       </c>
       <c r="G95" t="n">
-        <v>-51430.37039166001</v>
+        <v>-59667.21107702002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4089,75 +3849,69 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="C96" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="D96" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="E96" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="F96" t="n">
-        <v>778.0367</v>
+        <v>970</v>
       </c>
       <c r="G96" t="n">
-        <v>-51430.37039166001</v>
+        <v>-60637.21107702002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="C97" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="D97" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="E97" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="F97" t="n">
-        <v>3322.764</v>
+        <v>20.322</v>
       </c>
       <c r="G97" t="n">
-        <v>-51430.37039166001</v>
+        <v>-60637.21107702002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4167,34 +3921,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="C98" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="D98" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="E98" t="n">
-        <v>410.2</v>
+        <v>401.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1.708e-05</v>
+        <v>929.1826</v>
       </c>
       <c r="G98" t="n">
-        <v>-51430.37039166001</v>
+        <v>-60637.21107702002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4208,28 +3961,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>410</v>
+        <v>401.1</v>
       </c>
       <c r="C99" t="n">
-        <v>410</v>
+        <v>399.2</v>
       </c>
       <c r="D99" t="n">
-        <v>410</v>
+        <v>401.1</v>
       </c>
       <c r="E99" t="n">
-        <v>410</v>
+        <v>399.2</v>
       </c>
       <c r="F99" t="n">
-        <v>8.53658536</v>
+        <v>1760</v>
       </c>
       <c r="G99" t="n">
-        <v>-51438.90697702001</v>
+        <v>-62397.21107702002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4243,28 +3997,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>409</v>
+        <v>399.2</v>
       </c>
       <c r="C100" t="n">
-        <v>409</v>
+        <v>399.2</v>
       </c>
       <c r="D100" t="n">
-        <v>409</v>
+        <v>399.2</v>
       </c>
       <c r="E100" t="n">
-        <v>409</v>
+        <v>399.2</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>689.5494</v>
       </c>
       <c r="G100" t="n">
-        <v>-51441.90697702001</v>
+        <v>-62397.21107702002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4278,28 +4033,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>407</v>
+        <v>399.2</v>
       </c>
       <c r="C101" t="n">
-        <v>407</v>
+        <v>399.2</v>
       </c>
       <c r="D101" t="n">
-        <v>407</v>
+        <v>399.2</v>
       </c>
       <c r="E101" t="n">
-        <v>407</v>
+        <v>399.2</v>
       </c>
       <c r="F101" t="n">
-        <v>63.54</v>
+        <v>610.667</v>
       </c>
       <c r="G101" t="n">
-        <v>-51505.44697702001</v>
+        <v>-62397.21107702002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4313,28 +4069,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>406</v>
+        <v>400.1</v>
       </c>
       <c r="C102" t="n">
-        <v>406</v>
+        <v>399.2</v>
       </c>
       <c r="D102" t="n">
-        <v>406</v>
+        <v>400.1</v>
       </c>
       <c r="E102" t="n">
-        <v>406</v>
+        <v>399.2</v>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>182.0577</v>
       </c>
       <c r="G102" t="n">
-        <v>-51555.44697702001</v>
+        <v>-62397.21107702002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4348,28 +4105,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>402.2</v>
+        <v>399.2</v>
       </c>
       <c r="C103" t="n">
-        <v>402.2</v>
+        <v>399</v>
       </c>
       <c r="D103" t="n">
-        <v>402.2</v>
+        <v>399.2</v>
       </c>
       <c r="E103" t="n">
-        <v>402.2</v>
+        <v>393.9</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>1539.201</v>
       </c>
       <c r="G103" t="n">
-        <v>-51558.44697702001</v>
+        <v>-63936.41207702002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4383,28 +4141,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C104" t="n">
-        <v>402.1</v>
+        <v>398</v>
       </c>
       <c r="D104" t="n">
-        <v>404</v>
+        <v>400.1</v>
       </c>
       <c r="E104" t="n">
-        <v>402.1</v>
+        <v>398</v>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>478.3417</v>
       </c>
       <c r="G104" t="n">
-        <v>-51758.44697702001</v>
+        <v>-64414.75377702001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4418,28 +4177,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>402.2</v>
+        <v>398.1</v>
       </c>
       <c r="C105" t="n">
-        <v>402.2</v>
+        <v>400.1</v>
       </c>
       <c r="D105" t="n">
-        <v>402.2</v>
+        <v>400.1</v>
       </c>
       <c r="E105" t="n">
-        <v>402.2</v>
+        <v>398.1</v>
       </c>
       <c r="F105" t="n">
-        <v>599.63</v>
+        <v>3.3</v>
       </c>
       <c r="G105" t="n">
-        <v>-51158.81697702001</v>
+        <v>-64411.45377702001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4453,28 +4213,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>403.2</v>
+        <v>400.1</v>
       </c>
       <c r="C106" t="n">
-        <v>400.8</v>
+        <v>400.1</v>
       </c>
       <c r="D106" t="n">
-        <v>403.2</v>
+        <v>400.1</v>
       </c>
       <c r="E106" t="n">
-        <v>400.8</v>
+        <v>400.1</v>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>21</v>
       </c>
       <c r="G106" t="n">
-        <v>-56158.81697702001</v>
+        <v>-64411.45377702001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4488,28 +4249,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>401.8</v>
+        <v>400.1</v>
       </c>
       <c r="C107" t="n">
-        <v>399.1</v>
+        <v>400.2</v>
       </c>
       <c r="D107" t="n">
-        <v>401.8</v>
+        <v>400.2</v>
       </c>
       <c r="E107" t="n">
-        <v>399.1</v>
+        <v>400.1</v>
       </c>
       <c r="F107" t="n">
-        <v>408.16</v>
+        <v>249.25295739</v>
       </c>
       <c r="G107" t="n">
-        <v>-56566.97697702001</v>
+        <v>-64162.20081963001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4523,28 +4285,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>403.8</v>
+        <v>401.1</v>
       </c>
       <c r="C108" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="D108" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="E108" t="n">
-        <v>403.8</v>
+        <v>401.1</v>
       </c>
       <c r="F108" t="n">
-        <v>81.8121</v>
+        <v>1937.5812</v>
       </c>
       <c r="G108" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62224.61961963001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4558,28 +4321,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="C109" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="D109" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="E109" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="F109" t="n">
-        <v>19878.555</v>
+        <v>248.3321</v>
       </c>
       <c r="G109" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62224.61961963001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4593,34 +4357,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="C110" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="D110" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="E110" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="F110" t="n">
-        <v>332.5507</v>
+        <v>4194</v>
       </c>
       <c r="G110" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62224.61961963001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4628,28 +4393,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="C111" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="D111" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="E111" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="F111" t="n">
-        <v>2740</v>
+        <v>3928.8818</v>
       </c>
       <c r="G111" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62224.61961963001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4663,28 +4429,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="C112" t="n">
-        <v>403.8</v>
+        <v>405.4</v>
       </c>
       <c r="D112" t="n">
-        <v>403.8</v>
+        <v>405.4</v>
       </c>
       <c r="E112" t="n">
-        <v>403.8</v>
+        <v>401.2</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>221.63630098</v>
       </c>
       <c r="G112" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62002.98331865001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4698,28 +4465,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>403.8</v>
+        <v>402.3</v>
       </c>
       <c r="C113" t="n">
-        <v>403.8</v>
+        <v>402.3</v>
       </c>
       <c r="D113" t="n">
-        <v>403.8</v>
+        <v>402.3</v>
       </c>
       <c r="E113" t="n">
-        <v>403.8</v>
+        <v>402.3</v>
       </c>
       <c r="F113" t="n">
-        <v>2518.31</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-56485.16487702001</v>
+        <v>-62089.88331865001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4733,28 +4501,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="C114" t="n">
-        <v>403.8</v>
+        <v>405.4</v>
       </c>
       <c r="D114" t="n">
-        <v>403.8</v>
+        <v>405.4</v>
       </c>
       <c r="E114" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="F114" t="n">
-        <v>400</v>
+        <v>2621.3</v>
       </c>
       <c r="G114" t="n">
-        <v>-56485.16487702001</v>
+        <v>-59468.58331865001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4768,34 +4537,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>403.8</v>
+        <v>402</v>
       </c>
       <c r="C115" t="n">
-        <v>403.8</v>
+        <v>403.9</v>
       </c>
       <c r="D115" t="n">
-        <v>403.8</v>
+        <v>403.9</v>
       </c>
       <c r="E115" t="n">
-        <v>403.8</v>
+        <v>402</v>
       </c>
       <c r="F115" t="n">
-        <v>18.97</v>
+        <v>93.14490000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-56485.16487702001</v>
+        <v>-59561.72821865001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4803,34 +4573,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C116" t="n">
-        <v>403.8</v>
+        <v>402.9</v>
       </c>
       <c r="D116" t="n">
-        <v>404</v>
+        <v>402.9</v>
       </c>
       <c r="E116" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1453.7886</v>
+        <v>749.5585</v>
       </c>
       <c r="G116" t="n">
-        <v>-56485.16487702001</v>
+        <v>-60311.28671865001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4838,34 +4609,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="C117" t="n">
-        <v>403.8</v>
+        <v>402.9</v>
       </c>
       <c r="D117" t="n">
-        <v>403.8</v>
+        <v>402.9</v>
       </c>
       <c r="E117" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="F117" t="n">
-        <v>1060</v>
+        <v>988.3</v>
       </c>
       <c r="G117" t="n">
-        <v>-56485.16487702001</v>
+        <v>-60311.28671865001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4873,28 +4645,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="C118" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="D118" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="E118" t="n">
-        <v>403.8</v>
+        <v>401.3</v>
       </c>
       <c r="F118" t="n">
-        <v>2510</v>
+        <v>689.0041</v>
       </c>
       <c r="G118" t="n">
-        <v>-56485.16487702001</v>
+        <v>-61000.29081865001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4908,34 +4681,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>403.8</v>
+        <v>402.9</v>
       </c>
       <c r="C119" t="n">
-        <v>403.8</v>
+        <v>404.9</v>
       </c>
       <c r="D119" t="n">
-        <v>403.8</v>
+        <v>404.9</v>
       </c>
       <c r="E119" t="n">
-        <v>403.8</v>
+        <v>402.9</v>
       </c>
       <c r="F119" t="n">
-        <v>8230</v>
+        <v>6.43257594</v>
       </c>
       <c r="G119" t="n">
-        <v>-56485.16487702001</v>
+        <v>-60993.85824271</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4943,34 +4717,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>403.8</v>
+        <v>401</v>
       </c>
       <c r="C120" t="n">
-        <v>403.8</v>
+        <v>401</v>
       </c>
       <c r="D120" t="n">
-        <v>403.8</v>
+        <v>401</v>
       </c>
       <c r="E120" t="n">
-        <v>403.8</v>
+        <v>401</v>
       </c>
       <c r="F120" t="n">
-        <v>560</v>
+        <v>133.9996</v>
       </c>
       <c r="G120" t="n">
-        <v>-56485.16487702001</v>
+        <v>-61127.85784271001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4978,34 +4753,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>403.8</v>
+        <v>406</v>
       </c>
       <c r="C121" t="n">
-        <v>403.8</v>
+        <v>406</v>
       </c>
       <c r="D121" t="n">
-        <v>403.8</v>
+        <v>406</v>
       </c>
       <c r="E121" t="n">
-        <v>403.8</v>
+        <v>406</v>
       </c>
       <c r="F121" t="n">
-        <v>4296.0869</v>
+        <v>451</v>
       </c>
       <c r="G121" t="n">
-        <v>-56485.16487702001</v>
+        <v>-60676.85784271001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5013,34 +4789,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="C122" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="D122" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="E122" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="F122" t="n">
-        <v>14.0913</v>
+        <v>108.0324</v>
       </c>
       <c r="G122" t="n">
-        <v>-56499.25617702001</v>
+        <v>-60568.82544271001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5048,34 +4825,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="C123" t="n">
-        <v>404.9</v>
+        <v>406.6</v>
       </c>
       <c r="D123" t="n">
-        <v>404.9</v>
+        <v>406.6</v>
       </c>
       <c r="E123" t="n">
-        <v>401</v>
+        <v>406.6</v>
       </c>
       <c r="F123" t="n">
-        <v>4.4</v>
+        <v>90.027</v>
       </c>
       <c r="G123" t="n">
-        <v>-56494.85617702001</v>
+        <v>-60568.82544271001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5083,34 +4861,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>401</v>
+        <v>401.2</v>
       </c>
       <c r="C124" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D124" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E124" t="n">
-        <v>401</v>
+        <v>401.2</v>
       </c>
       <c r="F124" t="n">
-        <v>246.8499</v>
+        <v>730.3723</v>
       </c>
       <c r="G124" t="n">
-        <v>-56741.70607702001</v>
+        <v>-59838.45314271001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5118,34 +4897,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>404.9</v>
+        <v>408</v>
       </c>
       <c r="C125" t="n">
-        <v>404.9</v>
+        <v>408.5</v>
       </c>
       <c r="D125" t="n">
-        <v>404.9</v>
+        <v>408.5</v>
       </c>
       <c r="E125" t="n">
-        <v>404.9</v>
+        <v>408</v>
       </c>
       <c r="F125" t="n">
-        <v>1.24</v>
+        <v>1147.5709</v>
       </c>
       <c r="G125" t="n">
-        <v>-56740.46607702001</v>
+        <v>-58690.88224271001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5153,34 +4933,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>401.1</v>
+        <v>404.2</v>
       </c>
       <c r="C126" t="n">
-        <v>401.1</v>
+        <v>404.2</v>
       </c>
       <c r="D126" t="n">
-        <v>401.1</v>
+        <v>404.2</v>
       </c>
       <c r="E126" t="n">
-        <v>401.1</v>
+        <v>404.2</v>
       </c>
       <c r="F126" t="n">
-        <v>4267.5889</v>
+        <v>40</v>
       </c>
       <c r="G126" t="n">
-        <v>-61008.05497702002</v>
+        <v>-58730.88224271001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5188,1476 +4969,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-61004.75497702001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>252.4561</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>75.7368</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>374.8973</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>901.5371</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>800</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C134" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>740</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2660</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>150.4146</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F138" t="n">
-        <v>970</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>20.322</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>929.1826</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1760</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>689.5494</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>610.667</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>182.0577</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>399</v>
-      </c>
-      <c r="D145" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1539.201</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-63936.41207702002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>398</v>
-      </c>
-      <c r="C146" t="n">
-        <v>398</v>
-      </c>
-      <c r="D146" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>398</v>
-      </c>
-      <c r="F146" t="n">
-        <v>478.3417</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-64414.75377702001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>398.1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>398.1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-64411.45377702001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E148" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>21</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-64411.45377702001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>400.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>400.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>249.25295739</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-64162.20081963001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1937.5812</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>248.3321</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C152" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D152" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E152" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>4194</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3928.8818</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>221.63630098</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-62002.98331865001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-62089.88331865001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="E156" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2621.3</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-59468.58331865001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>402</v>
-      </c>
-      <c r="C157" t="n">
-        <v>403.9</v>
-      </c>
-      <c r="D157" t="n">
-        <v>403.9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>402</v>
-      </c>
-      <c r="F157" t="n">
-        <v>93.14490000000001</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-59561.72821865001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>402</v>
-      </c>
-      <c r="C158" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>749.5585</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-60311.28671865001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>988.3</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-60311.28671865001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>689.0041</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-61000.29081865001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6.43257594</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-60993.85824271</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>401</v>
-      </c>
-      <c r="C162" t="n">
-        <v>401</v>
-      </c>
-      <c r="D162" t="n">
-        <v>401</v>
-      </c>
-      <c r="E162" t="n">
-        <v>401</v>
-      </c>
-      <c r="F162" t="n">
-        <v>133.9996</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-61127.85784271001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>406</v>
-      </c>
-      <c r="C163" t="n">
-        <v>406</v>
-      </c>
-      <c r="D163" t="n">
-        <v>406</v>
-      </c>
-      <c r="E163" t="n">
-        <v>406</v>
-      </c>
-      <c r="F163" t="n">
-        <v>451</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-60676.85784271001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="E164" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>108.0324</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-60568.82544271001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="C165" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="E165" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>90.027</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-60568.82544271001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C166" t="n">
-        <v>407</v>
-      </c>
-      <c r="D166" t="n">
-        <v>408</v>
-      </c>
-      <c r="E166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F166" t="n">
-        <v>730.3723</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-59838.45314271001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>408</v>
-      </c>
-      <c r="C167" t="n">
-        <v>408.5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>408.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>408</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1147.5709</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-58690.88224271001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>404.2</v>
-      </c>
-      <c r="C168" t="n">
-        <v>404.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>404.2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>404.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>40</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-58730.88224271001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>398.1</v>
+        <v>407.3</v>
       </c>
       <c r="C2" t="n">
-        <v>398.1</v>
+        <v>404</v>
       </c>
       <c r="D2" t="n">
-        <v>398.1</v>
+        <v>407.3</v>
       </c>
       <c r="E2" t="n">
-        <v>398.1</v>
+        <v>404</v>
       </c>
       <c r="F2" t="n">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="G2" t="n">
-        <v>8354.304640160006</v>
+        <v>126272.4228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>404</v>
+        <v>407.2</v>
       </c>
       <c r="C3" t="n">
-        <v>397</v>
+        <v>409.4</v>
       </c>
       <c r="D3" t="n">
-        <v>411.9</v>
+        <v>409.4</v>
       </c>
       <c r="E3" t="n">
-        <v>397</v>
+        <v>407.2</v>
       </c>
       <c r="F3" t="n">
-        <v>54681.8818</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>-46327.57715984</v>
+        <v>126276.4228</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>411</v>
+        <v>409.5</v>
       </c>
       <c r="C4" t="n">
-        <v>411</v>
+        <v>412.8</v>
       </c>
       <c r="D4" t="n">
-        <v>411</v>
+        <v>412.8</v>
       </c>
       <c r="E4" t="n">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F4" t="n">
-        <v>112.8978</v>
+        <v>858</v>
       </c>
       <c r="G4" t="n">
-        <v>-46214.67935984</v>
+        <v>127134.4228</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404.4</v>
+        <v>412.8</v>
       </c>
       <c r="C5" t="n">
-        <v>404.4</v>
+        <v>408.9</v>
       </c>
       <c r="D5" t="n">
-        <v>404.4</v>
+        <v>412.8</v>
       </c>
       <c r="E5" t="n">
-        <v>404.4</v>
+        <v>402</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>2532.67494213</v>
       </c>
       <c r="G5" t="n">
-        <v>-46264.67935984</v>
+        <v>124601.74785787</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405.5</v>
+        <v>404</v>
       </c>
       <c r="C6" t="n">
-        <v>405.5</v>
+        <v>405</v>
       </c>
       <c r="D6" t="n">
-        <v>405.5</v>
+        <v>405</v>
       </c>
       <c r="E6" t="n">
-        <v>405.5</v>
+        <v>404</v>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>142</v>
       </c>
       <c r="G6" t="n">
-        <v>-46263.37935983999</v>
+        <v>124459.74785787</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" t="n">
-        <v>397.2</v>
+        <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E7" t="n">
-        <v>397.2</v>
+        <v>408</v>
       </c>
       <c r="F7" t="n">
-        <v>5340</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>-51603.37935983999</v>
+        <v>124463.74785787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>406.7</v>
+        <v>404.2</v>
       </c>
       <c r="C8" t="n">
-        <v>406.7</v>
+        <v>404.2</v>
       </c>
       <c r="D8" t="n">
-        <v>406.7</v>
+        <v>404.2</v>
       </c>
       <c r="E8" t="n">
-        <v>406.7</v>
+        <v>404.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>433.3526</v>
       </c>
       <c r="G8" t="n">
-        <v>-51602.07935983999</v>
+        <v>124030.39525787</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398.7</v>
+        <v>403.9</v>
       </c>
       <c r="C9" t="n">
-        <v>398.7</v>
+        <v>404.9</v>
       </c>
       <c r="D9" t="n">
-        <v>398.7</v>
+        <v>404.9</v>
       </c>
       <c r="E9" t="n">
-        <v>398.7</v>
+        <v>403.9</v>
       </c>
       <c r="F9" t="n">
-        <v>268.0852</v>
+        <v>393.9962</v>
       </c>
       <c r="G9" t="n">
-        <v>-51870.16455983999</v>
+        <v>124424.39145787</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>403.9</v>
       </c>
       <c r="C10" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D10" t="n">
         <v>404</v>
       </c>
       <c r="E10" t="n">
-        <v>398.7</v>
+        <v>403.9</v>
       </c>
       <c r="F10" t="n">
-        <v>215.3757</v>
+        <v>280.9772</v>
       </c>
       <c r="G10" t="n">
-        <v>-51654.78885983999</v>
+        <v>124143.41425787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400.1</v>
+        <v>408</v>
       </c>
       <c r="C11" t="n">
-        <v>402.9</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>402.9</v>
+        <v>408</v>
       </c>
       <c r="E11" t="n">
-        <v>400.1</v>
+        <v>407</v>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>4.1234</v>
       </c>
       <c r="G11" t="n">
-        <v>-51650.48885983999</v>
+        <v>124147.53765787</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>402.7</v>
+        <v>403.2</v>
       </c>
       <c r="C12" t="n">
-        <v>402.7</v>
+        <v>403.2</v>
       </c>
       <c r="D12" t="n">
-        <v>402.8</v>
+        <v>403.2</v>
       </c>
       <c r="E12" t="n">
-        <v>402.7</v>
+        <v>403.2</v>
       </c>
       <c r="F12" t="n">
-        <v>9585.5519</v>
+        <v>48.718</v>
       </c>
       <c r="G12" t="n">
-        <v>-61236.04075983999</v>
+        <v>124098.81965787</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402.7</v>
+        <v>402.2</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7</v>
+        <v>402.2</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7</v>
+        <v>402.2</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7</v>
+        <v>402.2</v>
       </c>
       <c r="F13" t="n">
-        <v>507.7231</v>
+        <v>207.486</v>
       </c>
       <c r="G13" t="n">
-        <v>-61236.04075983999</v>
+        <v>123891.33365787</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402.9</v>
+        <v>402.1</v>
       </c>
       <c r="C14" t="n">
-        <v>407.7</v>
+        <v>402.3</v>
       </c>
       <c r="D14" t="n">
-        <v>407.7</v>
+        <v>403.2</v>
       </c>
       <c r="E14" t="n">
-        <v>402.9</v>
+        <v>402.1</v>
       </c>
       <c r="F14" t="n">
-        <v>179.0206</v>
+        <v>6071.8828</v>
       </c>
       <c r="G14" t="n">
-        <v>-61057.02015983999</v>
+        <v>129963.21645787</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403.5</v>
+        <v>402.3</v>
       </c>
       <c r="C15" t="n">
-        <v>402.8</v>
+        <v>410.7</v>
       </c>
       <c r="D15" t="n">
-        <v>403.5</v>
+        <v>410.7</v>
       </c>
       <c r="E15" t="n">
-        <v>402.8</v>
+        <v>402.3</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>1113.044</v>
       </c>
       <c r="G15" t="n">
-        <v>-61157.02015983999</v>
+        <v>131076.26045787</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402.8</v>
+        <v>403</v>
       </c>
       <c r="C16" t="n">
-        <v>400.1</v>
+        <v>409.5</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9</v>
+        <v>409.5</v>
       </c>
       <c r="E16" t="n">
-        <v>400.1</v>
+        <v>402.4</v>
       </c>
       <c r="F16" t="n">
-        <v>940</v>
+        <v>410.3</v>
       </c>
       <c r="G16" t="n">
-        <v>-62097.02015983999</v>
+        <v>130665.96045787</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>400.1</v>
+        <v>402.4</v>
       </c>
       <c r="C17" t="n">
-        <v>400.1</v>
+        <v>399.8</v>
       </c>
       <c r="D17" t="n">
-        <v>400.1</v>
+        <v>402.4</v>
       </c>
       <c r="E17" t="n">
-        <v>400.1</v>
+        <v>399.7</v>
       </c>
       <c r="F17" t="n">
-        <v>70.77</v>
+        <v>65210.5829</v>
       </c>
       <c r="G17" t="n">
-        <v>-62097.02015983999</v>
+        <v>65455.37755786999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>401</v>
+        <v>410.7</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>410.7</v>
       </c>
       <c r="D18" t="n">
-        <v>401</v>
+        <v>410.7</v>
       </c>
       <c r="E18" t="n">
-        <v>400</v>
+        <v>410.7</v>
       </c>
       <c r="F18" t="n">
-        <v>710</v>
+        <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>-62807.02015983999</v>
+        <v>65456.67755787</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>400</v>
+        <v>401.1</v>
       </c>
       <c r="C19" t="n">
         <v>400</v>
       </c>
       <c r="D19" t="n">
-        <v>400</v>
+        <v>401.1</v>
       </c>
       <c r="E19" t="n">
         <v>400</v>
       </c>
       <c r="F19" t="n">
-        <v>417.2547</v>
+        <v>784.0606</v>
       </c>
       <c r="G19" t="n">
-        <v>-62807.02015983999</v>
+        <v>64672.61695787</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C20" t="n">
-        <v>406.4</v>
+        <v>398</v>
       </c>
       <c r="D20" t="n">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E20" t="n">
-        <v>399.4</v>
+        <v>398</v>
       </c>
       <c r="F20" t="n">
-        <v>585.3200000000001</v>
+        <v>130.4903</v>
       </c>
       <c r="G20" t="n">
-        <v>-62221.70015983999</v>
+        <v>64542.12665787</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>409.2</v>
+        <v>398</v>
       </c>
       <c r="C21" t="n">
-        <v>409.2</v>
+        <v>389</v>
       </c>
       <c r="D21" t="n">
-        <v>409.2</v>
+        <v>398</v>
       </c>
       <c r="E21" t="n">
-        <v>409.2</v>
+        <v>389</v>
       </c>
       <c r="F21" t="n">
-        <v>61</v>
+        <v>81749.2294</v>
       </c>
       <c r="G21" t="n">
-        <v>-62160.70015983999</v>
+        <v>-17207.10274213</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>406.9</v>
+        <v>398.9</v>
       </c>
       <c r="C22" t="n">
-        <v>404.9</v>
+        <v>398.9</v>
       </c>
       <c r="D22" t="n">
-        <v>406.9</v>
+        <v>398.9</v>
       </c>
       <c r="E22" t="n">
-        <v>399.6</v>
+        <v>398.9</v>
       </c>
       <c r="F22" t="n">
-        <v>163.51</v>
+        <v>1594</v>
       </c>
       <c r="G22" t="n">
-        <v>-62324.21015983999</v>
+        <v>-15613.10274213</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>399.9</v>
+        <v>396.4</v>
       </c>
       <c r="C23" t="n">
-        <v>408</v>
+        <v>389.2</v>
       </c>
       <c r="D23" t="n">
-        <v>408</v>
+        <v>396.5</v>
       </c>
       <c r="E23" t="n">
-        <v>399.9</v>
+        <v>389.2</v>
       </c>
       <c r="F23" t="n">
-        <v>982.6614</v>
+        <v>8473.8575</v>
       </c>
       <c r="G23" t="n">
-        <v>-61341.54875983999</v>
+        <v>-24086.96024212999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>408</v>
+        <v>393.2</v>
       </c>
       <c r="C24" t="n">
-        <v>400.9</v>
+        <v>389.8</v>
       </c>
       <c r="D24" t="n">
-        <v>408</v>
+        <v>393.2</v>
       </c>
       <c r="E24" t="n">
-        <v>400.8</v>
+        <v>389.8</v>
       </c>
       <c r="F24" t="n">
-        <v>395.73</v>
+        <v>8490.5499</v>
       </c>
       <c r="G24" t="n">
-        <v>-61737.27875984</v>
+        <v>-15596.41034212999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>407.9</v>
+        <v>392</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9</v>
+        <v>392</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9</v>
+        <v>392</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9</v>
+        <v>392</v>
       </c>
       <c r="F25" t="n">
-        <v>1.25</v>
+        <v>95.8094</v>
       </c>
       <c r="G25" t="n">
-        <v>-61736.02875984</v>
+        <v>-15500.60094212999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>401.4</v>
+        <v>391.9</v>
       </c>
       <c r="C26" t="n">
-        <v>401.4</v>
+        <v>392</v>
       </c>
       <c r="D26" t="n">
-        <v>401.4</v>
+        <v>392</v>
       </c>
       <c r="E26" t="n">
-        <v>401.4</v>
+        <v>391.9</v>
       </c>
       <c r="F26" t="n">
-        <v>180.73</v>
+        <v>756.1301999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-61916.75875984</v>
+        <v>-15500.60094212999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>403.9</v>
+        <v>391.8</v>
       </c>
       <c r="C27" t="n">
-        <v>403.9</v>
+        <v>391.8</v>
       </c>
       <c r="D27" t="n">
-        <v>403.9</v>
+        <v>391.8</v>
       </c>
       <c r="E27" t="n">
-        <v>403.9</v>
+        <v>391.8</v>
       </c>
       <c r="F27" t="n">
-        <v>137.3847</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-61779.37405984</v>
+        <v>-16500.60094212999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>403.9</v>
+        <v>390</v>
       </c>
       <c r="C28" t="n">
-        <v>403.9</v>
+        <v>390</v>
       </c>
       <c r="D28" t="n">
-        <v>403.9</v>
+        <v>390</v>
       </c>
       <c r="E28" t="n">
-        <v>403.9</v>
+        <v>390</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>876.2107999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-61779.37405984</v>
+        <v>-17376.81174212999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="C29" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="D29" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="E29" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>6088.2303</v>
       </c>
       <c r="G29" t="n">
-        <v>-61829.37405984</v>
+        <v>-11288.58144212999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>403.9</v>
+        <v>390.4</v>
       </c>
       <c r="C30" t="n">
-        <v>403.9</v>
+        <v>390.4</v>
       </c>
       <c r="D30" t="n">
-        <v>403.9</v>
+        <v>390.4</v>
       </c>
       <c r="E30" t="n">
-        <v>403.9</v>
+        <v>390.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7092</v>
+        <v>195.2712</v>
       </c>
       <c r="G30" t="n">
-        <v>-61827.66485984</v>
+        <v>-11483.85264212999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="C31" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="D31" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="E31" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="F31" t="n">
-        <v>9.99</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>-61837.65485984</v>
+        <v>-11383.85264212999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,32 +1518,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>401.4</v>
+        <v>390.5</v>
       </c>
       <c r="C32" t="n">
-        <v>392.3</v>
+        <v>390.6</v>
       </c>
       <c r="D32" t="n">
-        <v>401.4</v>
+        <v>390.6</v>
       </c>
       <c r="E32" t="n">
-        <v>392.3</v>
+        <v>390.5</v>
       </c>
       <c r="F32" t="n">
-        <v>13228.79</v>
+        <v>1111.1685</v>
       </c>
       <c r="G32" t="n">
-        <v>-75066.44485984</v>
+        <v>-10272.68414212999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>390.5</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1560,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>395.5</v>
+        <v>397.7</v>
       </c>
       <c r="C33" t="n">
-        <v>395.5</v>
+        <v>397.6</v>
       </c>
       <c r="D33" t="n">
-        <v>395.5</v>
+        <v>397.7</v>
       </c>
       <c r="E33" t="n">
-        <v>395.5</v>
+        <v>397.6</v>
       </c>
       <c r="F33" t="n">
-        <v>25.4753</v>
+        <v>79.6292</v>
       </c>
       <c r="G33" t="n">
-        <v>-75040.96955984</v>
+        <v>-10193.05494212999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>390.6</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1602,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>395.5</v>
+        <v>391.7</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5</v>
+        <v>391.7</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5</v>
+        <v>391.7</v>
       </c>
       <c r="E34" t="n">
-        <v>395.5</v>
+        <v>391.7</v>
       </c>
       <c r="F34" t="n">
-        <v>482.026</v>
+        <v>89.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-75040.96955984</v>
+        <v>-10283.05484213</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1627,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>395.5</v>
+        <v>391.9</v>
       </c>
       <c r="C35" t="n">
-        <v>395.5</v>
+        <v>391.9</v>
       </c>
       <c r="D35" t="n">
-        <v>395.5</v>
+        <v>391.9</v>
       </c>
       <c r="E35" t="n">
-        <v>395.5</v>
+        <v>391.9</v>
       </c>
       <c r="F35" t="n">
-        <v>472.2799</v>
+        <v>51.9547</v>
       </c>
       <c r="G35" t="n">
-        <v>-75040.96955984</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1667,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1682,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>393.7</v>
+        <v>391.9</v>
       </c>
       <c r="C36" t="n">
-        <v>392.2</v>
+        <v>391.9</v>
       </c>
       <c r="D36" t="n">
-        <v>393.7</v>
+        <v>391.9</v>
       </c>
       <c r="E36" t="n">
-        <v>392.2</v>
+        <v>391.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1261.6551</v>
+        <v>61.5712</v>
       </c>
       <c r="G36" t="n">
-        <v>-76302.62465984</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1707,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1722,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="C37" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="D37" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="E37" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="F37" t="n">
-        <v>472.2799</v>
+        <v>155.0661</v>
       </c>
       <c r="G37" t="n">
-        <v>-75830.34475984001</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1747,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1762,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="C38" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="D38" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="E38" t="n">
-        <v>393</v>
+        <v>391.9</v>
       </c>
       <c r="F38" t="n">
-        <v>195.2536</v>
+        <v>32.308</v>
       </c>
       <c r="G38" t="n">
-        <v>-75830.34475984001</v>
+        <v>-10231.10014213</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1787,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1802,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>393.8</v>
+        <v>392.9</v>
       </c>
       <c r="C39" t="n">
-        <v>393.8</v>
+        <v>392.9</v>
       </c>
       <c r="D39" t="n">
-        <v>393.8</v>
+        <v>392.9</v>
       </c>
       <c r="E39" t="n">
-        <v>393.8</v>
+        <v>392.9</v>
       </c>
       <c r="F39" t="n">
-        <v>182.7578</v>
+        <v>1.3</v>
       </c>
       <c r="G39" t="n">
-        <v>-75647.58695984</v>
+        <v>-10229.80014213</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1827,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1842,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>394</v>
+        <v>392.7</v>
       </c>
       <c r="C40" t="n">
-        <v>394</v>
+        <v>392.8</v>
       </c>
       <c r="D40" t="n">
-        <v>394</v>
+        <v>392.8</v>
       </c>
       <c r="E40" t="n">
-        <v>394</v>
+        <v>392.7</v>
       </c>
       <c r="F40" t="n">
-        <v>90.5766</v>
+        <v>162.18431771</v>
       </c>
       <c r="G40" t="n">
-        <v>-75557.01035984</v>
+        <v>-10391.98445984</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +1867,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1882,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>394</v>
+        <v>392.9</v>
       </c>
       <c r="C41" t="n">
-        <v>394</v>
+        <v>392.9</v>
       </c>
       <c r="D41" t="n">
-        <v>394</v>
+        <v>392.9</v>
       </c>
       <c r="E41" t="n">
-        <v>394</v>
+        <v>392.9</v>
       </c>
       <c r="F41" t="n">
-        <v>46.8081</v>
+        <v>51.8225</v>
       </c>
       <c r="G41" t="n">
-        <v>-75557.01035984</v>
+        <v>-10340.16195984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +1907,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +1922,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>393.2</v>
+        <v>392.8</v>
       </c>
       <c r="C42" t="n">
-        <v>391.2</v>
+        <v>392.7</v>
       </c>
       <c r="D42" t="n">
-        <v>393.2</v>
+        <v>392.8</v>
       </c>
       <c r="E42" t="n">
-        <v>391.2</v>
+        <v>392.7</v>
       </c>
       <c r="F42" t="n">
-        <v>4280.8203</v>
+        <v>42.7548</v>
       </c>
       <c r="G42" t="n">
-        <v>-79837.83065984001</v>
+        <v>-10382.91675984</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +1947,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +1962,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>393.8</v>
+        <v>392.2</v>
       </c>
       <c r="C43" t="n">
-        <v>393.9</v>
+        <v>392.2</v>
       </c>
       <c r="D43" t="n">
-        <v>393.9</v>
+        <v>392.2</v>
       </c>
       <c r="E43" t="n">
-        <v>393.8</v>
+        <v>392.2</v>
       </c>
       <c r="F43" t="n">
-        <v>109.18065514</v>
+        <v>509.943</v>
       </c>
       <c r="G43" t="n">
-        <v>-79728.65000470002</v>
+        <v>-10892.85975984</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +1987,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2002,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>392.5</v>
+        <v>392.9</v>
       </c>
       <c r="C44" t="n">
-        <v>392.1</v>
+        <v>392.9</v>
       </c>
       <c r="D44" t="n">
-        <v>392.5</v>
+        <v>392.9</v>
       </c>
       <c r="E44" t="n">
-        <v>392.1</v>
+        <v>392.9</v>
       </c>
       <c r="F44" t="n">
-        <v>111.5855</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>-79840.23550470002</v>
+        <v>-10887.85975984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>392.2</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,36 +2044,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>391.1</v>
+        <v>392.9</v>
       </c>
       <c r="C45" t="n">
-        <v>391.1</v>
+        <v>395</v>
       </c>
       <c r="D45" t="n">
-        <v>391.1</v>
+        <v>395</v>
       </c>
       <c r="E45" t="n">
-        <v>391.1</v>
+        <v>392.9</v>
       </c>
       <c r="F45" t="n">
-        <v>1040</v>
+        <v>6168.6373</v>
       </c>
       <c r="G45" t="n">
-        <v>-80880.23550470002</v>
+        <v>-4719.222459839995</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2026,38 +2084,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="C46" t="n">
-        <v>395.5</v>
+        <v>394.2</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="E46" t="n">
-        <v>395.5</v>
+        <v>394.2</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0001</v>
+        <v>222.61</v>
       </c>
       <c r="G46" t="n">
-        <v>-80880.23540470001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>392.1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2070,38 +2124,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>395.7</v>
+        <v>394.2</v>
       </c>
       <c r="C47" t="n">
-        <v>395.7</v>
+        <v>394.2</v>
       </c>
       <c r="D47" t="n">
-        <v>395.7</v>
+        <v>394.2</v>
       </c>
       <c r="E47" t="n">
-        <v>395.7</v>
+        <v>394.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1.3</v>
+        <v>56.93</v>
       </c>
       <c r="G47" t="n">
-        <v>-80878.93540470001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>395.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>392.1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2114,36 +2164,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>395.9</v>
+        <v>394.2</v>
       </c>
       <c r="C48" t="n">
-        <v>405.5</v>
+        <v>394.2</v>
       </c>
       <c r="D48" t="n">
-        <v>409</v>
+        <v>394.2</v>
       </c>
       <c r="E48" t="n">
-        <v>395.9</v>
+        <v>394.2</v>
       </c>
       <c r="F48" t="n">
-        <v>22119.7678</v>
+        <v>368</v>
       </c>
       <c r="G48" t="n">
-        <v>-58759.16760470001</v>
+        <v>-4941.832459839995</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>395.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>395.7</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2154,38 +2204,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="C49" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="D49" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="E49" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="F49" t="n">
-        <v>12560</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>-58759.16760470001</v>
+        <v>-4991.832459839995</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>405.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>395.7</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2198,22 +2244,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="C50" t="n">
-        <v>405.5</v>
+        <v>392</v>
       </c>
       <c r="D50" t="n">
-        <v>405.5</v>
+        <v>393.8</v>
       </c>
       <c r="E50" t="n">
-        <v>405.5</v>
+        <v>392</v>
       </c>
       <c r="F50" t="n">
-        <v>4757.66</v>
+        <v>59.19</v>
       </c>
       <c r="G50" t="n">
-        <v>-58759.16760470001</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2222,12 +2268,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>395.7</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2240,22 +2284,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C51" t="n">
-        <v>410.2</v>
+        <v>392</v>
       </c>
       <c r="D51" t="n">
-        <v>410.2</v>
+        <v>392</v>
       </c>
       <c r="E51" t="n">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F51" t="n">
-        <v>7328.79721304</v>
+        <v>200.7</v>
       </c>
       <c r="G51" t="n">
-        <v>-51430.37039166001</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2265,7 +2309,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +2324,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>409.2</v>
+        <v>392</v>
       </c>
       <c r="C52" t="n">
-        <v>410.2</v>
+        <v>392</v>
       </c>
       <c r="D52" t="n">
-        <v>410.2</v>
+        <v>392</v>
       </c>
       <c r="E52" t="n">
-        <v>409.2</v>
+        <v>392</v>
       </c>
       <c r="F52" t="n">
-        <v>11958.75670404</v>
+        <v>269.634</v>
       </c>
       <c r="G52" t="n">
-        <v>-51430.37039166001</v>
+        <v>-5051.022459839995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2301,7 +2349,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2312,22 +2364,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C53" t="n">
-        <v>410.2</v>
+        <v>391</v>
       </c>
       <c r="D53" t="n">
-        <v>410.2</v>
+        <v>391</v>
       </c>
       <c r="E53" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F53" t="n">
-        <v>13454.56908292</v>
+        <v>964.6994999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-51430.37039166001</v>
+        <v>-6015.721959839994</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2337,7 +2389,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2348,22 +2404,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>410.2</v>
+        <v>390.8</v>
       </c>
       <c r="C54" t="n">
-        <v>410.2</v>
+        <v>390.8</v>
       </c>
       <c r="D54" t="n">
-        <v>410.2</v>
+        <v>390.8</v>
       </c>
       <c r="E54" t="n">
-        <v>410.2</v>
+        <v>390.8</v>
       </c>
       <c r="F54" t="n">
-        <v>778.0367</v>
+        <v>350.0959</v>
       </c>
       <c r="G54" t="n">
-        <v>-51430.37039166001</v>
+        <v>-6365.817859839995</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2373,7 +2429,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2384,22 +2444,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>410.2</v>
+        <v>389.1</v>
       </c>
       <c r="C55" t="n">
-        <v>410.2</v>
+        <v>389.1</v>
       </c>
       <c r="D55" t="n">
-        <v>410.2</v>
+        <v>389.1</v>
       </c>
       <c r="E55" t="n">
-        <v>410.2</v>
+        <v>389.1</v>
       </c>
       <c r="F55" t="n">
-        <v>3322.764</v>
+        <v>1259.7122</v>
       </c>
       <c r="G55" t="n">
-        <v>-51430.37039166001</v>
+        <v>-7625.530059839994</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2409,7 +2469,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2484,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>410.2</v>
+        <v>390.6</v>
       </c>
       <c r="C56" t="n">
-        <v>410.2</v>
+        <v>391</v>
       </c>
       <c r="D56" t="n">
-        <v>410.2</v>
+        <v>391</v>
       </c>
       <c r="E56" t="n">
-        <v>410.2</v>
+        <v>390.6</v>
       </c>
       <c r="F56" t="n">
-        <v>1.708e-05</v>
+        <v>635.6658</v>
       </c>
       <c r="G56" t="n">
-        <v>-51430.37039166001</v>
+        <v>-6989.864259839995</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2445,7 +2509,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2524,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C57" t="n">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D57" t="n">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E57" t="n">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F57" t="n">
-        <v>8.53658536</v>
+        <v>3571.9769</v>
       </c>
       <c r="G57" t="n">
-        <v>-51438.90697702001</v>
+        <v>-3417.887359839995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2481,7 +2549,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2492,22 +2564,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C58" t="n">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D58" t="n">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="E58" t="n">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>881.0862</v>
       </c>
       <c r="G58" t="n">
-        <v>-51441.90697702001</v>
+        <v>-4298.973559839995</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2517,7 +2589,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2528,22 +2604,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C59" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D59" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E59" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F59" t="n">
-        <v>63.54</v>
+        <v>213.68</v>
       </c>
       <c r="G59" t="n">
-        <v>-51505.44697702001</v>
+        <v>-4298.973559839995</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2553,7 +2629,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2564,22 +2644,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C60" t="n">
-        <v>406</v>
+        <v>390.1</v>
       </c>
       <c r="D60" t="n">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E60" t="n">
-        <v>406</v>
+        <v>390.1</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>448.13</v>
       </c>
       <c r="G60" t="n">
-        <v>-51555.44697702001</v>
+        <v>-4747.103559839995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2589,7 +2669,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2600,22 +2684,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>402.2</v>
+        <v>390.1</v>
       </c>
       <c r="C61" t="n">
-        <v>402.2</v>
+        <v>389.1</v>
       </c>
       <c r="D61" t="n">
-        <v>402.2</v>
+        <v>390.1</v>
       </c>
       <c r="E61" t="n">
-        <v>402.2</v>
+        <v>389.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1258.3286</v>
       </c>
       <c r="G61" t="n">
-        <v>-51558.44697702001</v>
+        <v>-6005.432159839995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2625,7 +2709,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2636,22 +2724,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>404</v>
+        <v>390.2</v>
       </c>
       <c r="C62" t="n">
-        <v>402.1</v>
+        <v>390.2</v>
       </c>
       <c r="D62" t="n">
-        <v>404</v>
+        <v>390.2</v>
       </c>
       <c r="E62" t="n">
-        <v>402.1</v>
+        <v>390.2</v>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>87.503</v>
       </c>
       <c r="G62" t="n">
-        <v>-51758.44697702001</v>
+        <v>-5917.929159839995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2661,7 +2749,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2672,22 +2764,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>402.2</v>
+        <v>390.2</v>
       </c>
       <c r="C63" t="n">
-        <v>402.2</v>
+        <v>388.1</v>
       </c>
       <c r="D63" t="n">
-        <v>402.2</v>
+        <v>390.2</v>
       </c>
       <c r="E63" t="n">
-        <v>402.2</v>
+        <v>388.1</v>
       </c>
       <c r="F63" t="n">
-        <v>599.63</v>
+        <v>1241.5989</v>
       </c>
       <c r="G63" t="n">
-        <v>-51158.81697702001</v>
+        <v>-7159.528059839995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2697,7 +2789,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2804,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>403.2</v>
+        <v>388</v>
       </c>
       <c r="C64" t="n">
-        <v>400.8</v>
+        <v>388</v>
       </c>
       <c r="D64" t="n">
-        <v>403.2</v>
+        <v>388</v>
       </c>
       <c r="E64" t="n">
-        <v>400.8</v>
+        <v>388</v>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>3724.7968</v>
       </c>
       <c r="G64" t="n">
-        <v>-56158.81697702001</v>
+        <v>-10884.32485984</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2733,7 +2829,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2844,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>401.8</v>
+        <v>393.9</v>
       </c>
       <c r="C65" t="n">
-        <v>399.1</v>
+        <v>393.9</v>
       </c>
       <c r="D65" t="n">
-        <v>401.8</v>
+        <v>393.9</v>
       </c>
       <c r="E65" t="n">
-        <v>399.1</v>
+        <v>393.9</v>
       </c>
       <c r="F65" t="n">
-        <v>408.16</v>
+        <v>6.329</v>
       </c>
       <c r="G65" t="n">
-        <v>-56566.97697702001</v>
+        <v>-10877.99585984</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2769,7 +2869,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2780,22 +2884,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="C66" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="D66" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="E66" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="F66" t="n">
-        <v>81.8121</v>
+        <v>305.8908</v>
       </c>
       <c r="G66" t="n">
-        <v>-56485.16487702001</v>
+        <v>-10877.99585984</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2805,7 +2909,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2816,22 +2924,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="C67" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="D67" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="E67" t="n">
-        <v>403.8</v>
+        <v>393.8</v>
       </c>
       <c r="F67" t="n">
-        <v>19878.555</v>
+        <v>3.1164</v>
       </c>
       <c r="G67" t="n">
-        <v>-56485.16487702001</v>
+        <v>-10881.11225984</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2841,7 +2949,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2852,22 +2964,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="C68" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="D68" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="E68" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="F68" t="n">
-        <v>332.5507</v>
+        <v>15527.5347</v>
       </c>
       <c r="G68" t="n">
-        <v>-56485.16487702001</v>
+        <v>-26408.64695984</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2877,7 +2989,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +3004,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="C69" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="D69" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="E69" t="n">
-        <v>403.8</v>
+        <v>393</v>
       </c>
       <c r="F69" t="n">
-        <v>2740</v>
+        <v>3114.3355</v>
       </c>
       <c r="G69" t="n">
-        <v>-56485.16487702001</v>
+        <v>-26408.64695984</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2913,7 +3029,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2924,22 +3044,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="C70" t="n">
-        <v>403.8</v>
+        <v>410</v>
       </c>
       <c r="D70" t="n">
-        <v>403.8</v>
+        <v>410</v>
       </c>
       <c r="E70" t="n">
-        <v>403.8</v>
+        <v>393.9</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>43632.8216</v>
       </c>
       <c r="G70" t="n">
-        <v>-56485.16487702001</v>
+        <v>17224.17464016001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2949,7 +3069,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2960,22 +3084,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>403.8</v>
+        <v>410</v>
       </c>
       <c r="C71" t="n">
-        <v>403.8</v>
+        <v>391.1</v>
       </c>
       <c r="D71" t="n">
-        <v>403.8</v>
+        <v>410</v>
       </c>
       <c r="E71" t="n">
-        <v>403.8</v>
+        <v>389.6</v>
       </c>
       <c r="F71" t="n">
-        <v>2518.31</v>
+        <v>8417.83</v>
       </c>
       <c r="G71" t="n">
-        <v>-56485.16487702001</v>
+        <v>8806.344640160007</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2985,7 +3109,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +3124,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>403.8</v>
+        <v>399</v>
       </c>
       <c r="C72" t="n">
-        <v>403.8</v>
+        <v>399</v>
       </c>
       <c r="D72" t="n">
-        <v>403.8</v>
+        <v>399</v>
       </c>
       <c r="E72" t="n">
-        <v>403.8</v>
+        <v>399</v>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>26.96</v>
       </c>
       <c r="G72" t="n">
-        <v>-56485.16487702001</v>
+        <v>8833.304640160006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3021,7 +3149,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3032,22 +3164,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>403.8</v>
+        <v>398.1</v>
       </c>
       <c r="C73" t="n">
-        <v>403.8</v>
+        <v>398.1</v>
       </c>
       <c r="D73" t="n">
-        <v>403.8</v>
+        <v>398.1</v>
       </c>
       <c r="E73" t="n">
-        <v>403.8</v>
+        <v>398.1</v>
       </c>
       <c r="F73" t="n">
-        <v>18.97</v>
+        <v>479</v>
       </c>
       <c r="G73" t="n">
-        <v>-56485.16487702001</v>
+        <v>8354.304640160006</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3057,7 +3189,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3071,19 +3207,19 @@
         <v>404</v>
       </c>
       <c r="C74" t="n">
-        <v>403.8</v>
+        <v>397</v>
       </c>
       <c r="D74" t="n">
-        <v>404</v>
+        <v>411.9</v>
       </c>
       <c r="E74" t="n">
-        <v>403.8</v>
+        <v>397</v>
       </c>
       <c r="F74" t="n">
-        <v>1453.7886</v>
+        <v>54681.8818</v>
       </c>
       <c r="G74" t="n">
-        <v>-56485.16487702001</v>
+        <v>-46327.57715984</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3093,7 +3229,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +3244,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>403.8</v>
+        <v>411</v>
       </c>
       <c r="C75" t="n">
-        <v>403.8</v>
+        <v>411</v>
       </c>
       <c r="D75" t="n">
-        <v>403.8</v>
+        <v>411</v>
       </c>
       <c r="E75" t="n">
-        <v>403.8</v>
+        <v>411</v>
       </c>
       <c r="F75" t="n">
-        <v>1060</v>
+        <v>112.8978</v>
       </c>
       <c r="G75" t="n">
-        <v>-56485.16487702001</v>
+        <v>-46214.67935984</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3129,7 +3269,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3284,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>403.8</v>
+        <v>404.4</v>
       </c>
       <c r="C76" t="n">
-        <v>403.8</v>
+        <v>404.4</v>
       </c>
       <c r="D76" t="n">
-        <v>403.8</v>
+        <v>404.4</v>
       </c>
       <c r="E76" t="n">
-        <v>403.8</v>
+        <v>404.4</v>
       </c>
       <c r="F76" t="n">
-        <v>2510</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-56485.16487702001</v>
+        <v>-46264.67935984</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3165,7 +3309,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +3324,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="C77" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="D77" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="E77" t="n">
-        <v>403.8</v>
+        <v>405.5</v>
       </c>
       <c r="F77" t="n">
-        <v>8230</v>
+        <v>1.3</v>
       </c>
       <c r="G77" t="n">
-        <v>-56485.16487702001</v>
+        <v>-46263.37935983999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3201,7 +3349,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3212,22 +3364,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>403.8</v>
+        <v>407</v>
       </c>
       <c r="C78" t="n">
-        <v>403.8</v>
+        <v>397.2</v>
       </c>
       <c r="D78" t="n">
-        <v>403.8</v>
+        <v>407</v>
       </c>
       <c r="E78" t="n">
-        <v>403.8</v>
+        <v>397.2</v>
       </c>
       <c r="F78" t="n">
-        <v>560</v>
+        <v>5340</v>
       </c>
       <c r="G78" t="n">
-        <v>-56485.16487702001</v>
+        <v>-51603.37935983999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3237,7 +3389,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3248,22 +3404,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>403.8</v>
+        <v>406.7</v>
       </c>
       <c r="C79" t="n">
-        <v>403.8</v>
+        <v>406.7</v>
       </c>
       <c r="D79" t="n">
-        <v>403.8</v>
+        <v>406.7</v>
       </c>
       <c r="E79" t="n">
-        <v>403.8</v>
+        <v>406.7</v>
       </c>
       <c r="F79" t="n">
-        <v>4296.0869</v>
+        <v>1.3</v>
       </c>
       <c r="G79" t="n">
-        <v>-56485.16487702001</v>
+        <v>-51602.07935983999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3273,7 +3429,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3444,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>401</v>
+        <v>398.7</v>
       </c>
       <c r="C80" t="n">
-        <v>401</v>
+        <v>398.7</v>
       </c>
       <c r="D80" t="n">
-        <v>401</v>
+        <v>398.7</v>
       </c>
       <c r="E80" t="n">
-        <v>401</v>
+        <v>398.7</v>
       </c>
       <c r="F80" t="n">
-        <v>14.0913</v>
+        <v>268.0852</v>
       </c>
       <c r="G80" t="n">
-        <v>-56499.25617702001</v>
+        <v>-51870.16455983999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3309,7 +3469,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3320,22 +3484,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" t="n">
-        <v>404.9</v>
+        <v>400</v>
       </c>
       <c r="D81" t="n">
-        <v>404.9</v>
+        <v>404</v>
       </c>
       <c r="E81" t="n">
-        <v>401</v>
+        <v>398.7</v>
       </c>
       <c r="F81" t="n">
-        <v>4.4</v>
+        <v>215.3757</v>
       </c>
       <c r="G81" t="n">
-        <v>-56494.85617702001</v>
+        <v>-51654.78885983999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3345,7 +3509,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3524,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>401</v>
+        <v>400.1</v>
       </c>
       <c r="C82" t="n">
-        <v>401</v>
+        <v>402.9</v>
       </c>
       <c r="D82" t="n">
-        <v>401</v>
+        <v>402.9</v>
       </c>
       <c r="E82" t="n">
-        <v>401</v>
+        <v>400.1</v>
       </c>
       <c r="F82" t="n">
-        <v>246.8499</v>
+        <v>4.3</v>
       </c>
       <c r="G82" t="n">
-        <v>-56741.70607702001</v>
+        <v>-51650.48885983999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3381,7 +3549,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3564,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>404.9</v>
+        <v>402.7</v>
       </c>
       <c r="C83" t="n">
-        <v>404.9</v>
+        <v>402.7</v>
       </c>
       <c r="D83" t="n">
-        <v>404.9</v>
+        <v>402.8</v>
       </c>
       <c r="E83" t="n">
-        <v>404.9</v>
+        <v>402.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1.24</v>
+        <v>9585.5519</v>
       </c>
       <c r="G83" t="n">
-        <v>-56740.46607702001</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3417,7 +3589,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3604,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>401.1</v>
+        <v>402.7</v>
       </c>
       <c r="C84" t="n">
-        <v>401.1</v>
+        <v>402.7</v>
       </c>
       <c r="D84" t="n">
-        <v>401.1</v>
+        <v>402.7</v>
       </c>
       <c r="E84" t="n">
-        <v>401.1</v>
+        <v>402.7</v>
       </c>
       <c r="F84" t="n">
-        <v>4267.5889</v>
+        <v>507.7231</v>
       </c>
       <c r="G84" t="n">
-        <v>-61008.05497702002</v>
+        <v>-61236.04075983999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3453,7 +3629,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3644,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>401.1</v>
+        <v>402.9</v>
       </c>
       <c r="C85" t="n">
-        <v>404.9</v>
+        <v>407.7</v>
       </c>
       <c r="D85" t="n">
-        <v>404.9</v>
+        <v>407.7</v>
       </c>
       <c r="E85" t="n">
-        <v>401.1</v>
+        <v>402.9</v>
       </c>
       <c r="F85" t="n">
-        <v>3.3</v>
+        <v>179.0206</v>
       </c>
       <c r="G85" t="n">
-        <v>-61004.75497702001</v>
+        <v>-61057.02015983999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3489,7 +3669,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +3684,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>401.1</v>
+        <v>403.5</v>
       </c>
       <c r="C86" t="n">
-        <v>401.1</v>
+        <v>402.8</v>
       </c>
       <c r="D86" t="n">
-        <v>401.1</v>
+        <v>403.5</v>
       </c>
       <c r="E86" t="n">
-        <v>401.1</v>
+        <v>402.8</v>
       </c>
       <c r="F86" t="n">
-        <v>252.4561</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>-61257.21107702002</v>
+        <v>-61157.02015983999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3525,7 +3709,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3724,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>401.1</v>
+        <v>402.8</v>
       </c>
       <c r="C87" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="D87" t="n">
-        <v>401.1</v>
+        <v>407.9</v>
       </c>
       <c r="E87" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="F87" t="n">
-        <v>75.7368</v>
+        <v>940</v>
       </c>
       <c r="G87" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3561,7 +3749,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3764,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="C88" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="D88" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="E88" t="n">
-        <v>401.1</v>
+        <v>400.1</v>
       </c>
       <c r="F88" t="n">
-        <v>374.8973</v>
+        <v>70.77</v>
       </c>
       <c r="G88" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62097.02015983999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3597,7 +3789,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3804,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>401.1</v>
+        <v>401</v>
       </c>
       <c r="C89" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="D89" t="n">
-        <v>401.1</v>
+        <v>401</v>
       </c>
       <c r="E89" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="F89" t="n">
-        <v>901.5371</v>
+        <v>710</v>
       </c>
       <c r="G89" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3633,7 +3829,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3644,22 +3844,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="C90" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="D90" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="E90" t="n">
-        <v>401.1</v>
+        <v>400</v>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>417.2547</v>
       </c>
       <c r="G90" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62807.02015983999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3669,7 +3869,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3680,22 +3884,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>401.1</v>
+        <v>404</v>
       </c>
       <c r="C91" t="n">
-        <v>401.1</v>
+        <v>406.4</v>
       </c>
       <c r="D91" t="n">
-        <v>401.1</v>
+        <v>410</v>
       </c>
       <c r="E91" t="n">
-        <v>401.1</v>
+        <v>399.4</v>
       </c>
       <c r="F91" t="n">
-        <v>800</v>
+        <v>585.3200000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62221.70015983999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3705,7 +3909,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3924,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>401.2</v>
+        <v>409.2</v>
       </c>
       <c r="C92" t="n">
-        <v>401.1</v>
+        <v>409.2</v>
       </c>
       <c r="D92" t="n">
-        <v>401.2</v>
+        <v>409.2</v>
       </c>
       <c r="E92" t="n">
-        <v>401.1</v>
+        <v>409.2</v>
       </c>
       <c r="F92" t="n">
-        <v>740</v>
+        <v>61</v>
       </c>
       <c r="G92" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62160.70015983999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3741,7 +3949,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3752,22 +3964,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>401.1</v>
+        <v>406.9</v>
       </c>
       <c r="C93" t="n">
-        <v>401.1</v>
+        <v>404.9</v>
       </c>
       <c r="D93" t="n">
-        <v>401.1</v>
+        <v>406.9</v>
       </c>
       <c r="E93" t="n">
-        <v>401.1</v>
+        <v>399.6</v>
       </c>
       <c r="F93" t="n">
-        <v>2660</v>
+        <v>163.51</v>
       </c>
       <c r="G93" t="n">
-        <v>-61257.21107702002</v>
+        <v>-62324.21015983999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3777,7 +3989,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3788,22 +4004,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>401.2</v>
+        <v>399.9</v>
       </c>
       <c r="C94" t="n">
-        <v>401.2</v>
+        <v>408</v>
       </c>
       <c r="D94" t="n">
-        <v>401.2</v>
+        <v>408</v>
       </c>
       <c r="E94" t="n">
-        <v>401.2</v>
+        <v>399.9</v>
       </c>
       <c r="F94" t="n">
-        <v>1590</v>
+        <v>982.6614</v>
       </c>
       <c r="G94" t="n">
-        <v>-59667.21107702002</v>
+        <v>-61341.54875983999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3813,7 +4029,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3824,22 +4044,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>401.2</v>
+        <v>408</v>
       </c>
       <c r="C95" t="n">
-        <v>401.2</v>
+        <v>400.9</v>
       </c>
       <c r="D95" t="n">
-        <v>401.2</v>
+        <v>408</v>
       </c>
       <c r="E95" t="n">
-        <v>401.2</v>
+        <v>400.8</v>
       </c>
       <c r="F95" t="n">
-        <v>150.4146</v>
+        <v>395.73</v>
       </c>
       <c r="G95" t="n">
-        <v>-59667.21107702002</v>
+        <v>-61737.27875984</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3849,7 +4069,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3860,32 +4084,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>401.1</v>
+        <v>407.9</v>
       </c>
       <c r="C96" t="n">
-        <v>401.1</v>
+        <v>407.9</v>
       </c>
       <c r="D96" t="n">
-        <v>401.1</v>
+        <v>407.9</v>
       </c>
       <c r="E96" t="n">
-        <v>401.1</v>
+        <v>407.9</v>
       </c>
       <c r="F96" t="n">
-        <v>970</v>
+        <v>1.25</v>
       </c>
       <c r="G96" t="n">
-        <v>-60637.21107702002</v>
+        <v>-61736.02875984</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3896,32 +4124,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>401.1</v>
+        <v>401.4</v>
       </c>
       <c r="C97" t="n">
-        <v>401.1</v>
+        <v>401.4</v>
       </c>
       <c r="D97" t="n">
-        <v>401.1</v>
+        <v>401.4</v>
       </c>
       <c r="E97" t="n">
-        <v>401.1</v>
+        <v>401.4</v>
       </c>
       <c r="F97" t="n">
-        <v>20.322</v>
+        <v>180.73</v>
       </c>
       <c r="G97" t="n">
-        <v>-60637.21107702002</v>
+        <v>-61916.75875984</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3932,32 +4164,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="C98" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="D98" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="E98" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="F98" t="n">
-        <v>929.1826</v>
+        <v>137.3847</v>
       </c>
       <c r="G98" t="n">
-        <v>-60637.21107702002</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3968,32 +4204,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="C99" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="D99" t="n">
-        <v>401.1</v>
+        <v>403.9</v>
       </c>
       <c r="E99" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1760</v>
+        <v>1.3</v>
       </c>
       <c r="G99" t="n">
-        <v>-62397.21107702002</v>
+        <v>-61779.37405984</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4004,32 +4244,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="C100" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="D100" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="E100" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="F100" t="n">
-        <v>689.5494</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-62397.21107702002</v>
+        <v>-61829.37405984</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4040,32 +4284,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="C101" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="D101" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="E101" t="n">
-        <v>399.2</v>
+        <v>403.9</v>
       </c>
       <c r="F101" t="n">
-        <v>610.667</v>
+        <v>1.7092</v>
       </c>
       <c r="G101" t="n">
-        <v>-62397.21107702002</v>
+        <v>-61827.66485984</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +4324,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>400.1</v>
+        <v>401.4</v>
       </c>
       <c r="C102" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="D102" t="n">
-        <v>400.1</v>
+        <v>401.4</v>
       </c>
       <c r="E102" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="F102" t="n">
-        <v>182.0577</v>
+        <v>9.99</v>
       </c>
       <c r="G102" t="n">
-        <v>-62397.21107702002</v>
+        <v>-61837.65485984</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4101,7 +4349,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4112,22 +4364,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="C103" t="n">
-        <v>399</v>
+        <v>392.3</v>
       </c>
       <c r="D103" t="n">
-        <v>399.2</v>
+        <v>401.4</v>
       </c>
       <c r="E103" t="n">
-        <v>393.9</v>
+        <v>392.3</v>
       </c>
       <c r="F103" t="n">
-        <v>1539.201</v>
+        <v>13228.79</v>
       </c>
       <c r="G103" t="n">
-        <v>-63936.41207702002</v>
+        <v>-75066.44485984</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4137,7 +4389,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4148,22 +4404,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>398</v>
+        <v>395.5</v>
       </c>
       <c r="C104" t="n">
-        <v>398</v>
+        <v>395.5</v>
       </c>
       <c r="D104" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="E104" t="n">
-        <v>398</v>
+        <v>395.5</v>
       </c>
       <c r="F104" t="n">
-        <v>478.3417</v>
+        <v>25.4753</v>
       </c>
       <c r="G104" t="n">
-        <v>-64414.75377702001</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4173,7 +4429,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4184,22 +4444,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>398.1</v>
+        <v>395.5</v>
       </c>
       <c r="C105" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="D105" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="E105" t="n">
-        <v>398.1</v>
+        <v>395.5</v>
       </c>
       <c r="F105" t="n">
-        <v>3.3</v>
+        <v>482.026</v>
       </c>
       <c r="G105" t="n">
-        <v>-64411.45377702001</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4209,7 +4469,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4220,22 +4484,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="C106" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="D106" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="E106" t="n">
-        <v>400.1</v>
+        <v>395.5</v>
       </c>
       <c r="F106" t="n">
-        <v>21</v>
+        <v>472.2799</v>
       </c>
       <c r="G106" t="n">
-        <v>-64411.45377702001</v>
+        <v>-75040.96955984</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4245,7 +4509,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4256,22 +4524,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>400.1</v>
+        <v>393.7</v>
       </c>
       <c r="C107" t="n">
-        <v>400.2</v>
+        <v>392.2</v>
       </c>
       <c r="D107" t="n">
-        <v>400.2</v>
+        <v>393.7</v>
       </c>
       <c r="E107" t="n">
-        <v>400.1</v>
+        <v>392.2</v>
       </c>
       <c r="F107" t="n">
-        <v>249.25295739</v>
+        <v>1261.6551</v>
       </c>
       <c r="G107" t="n">
-        <v>-64162.20081963001</v>
+        <v>-76302.62465984</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4281,7 +4549,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4292,22 +4564,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>401.1</v>
+        <v>393</v>
       </c>
       <c r="C108" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="D108" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="E108" t="n">
-        <v>401.1</v>
+        <v>393</v>
       </c>
       <c r="F108" t="n">
-        <v>1937.5812</v>
+        <v>472.2799</v>
       </c>
       <c r="G108" t="n">
-        <v>-62224.61961963001</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4317,7 +4589,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4328,22 +4604,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="C109" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="D109" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="E109" t="n">
-        <v>401.2</v>
+        <v>393</v>
       </c>
       <c r="F109" t="n">
-        <v>248.3321</v>
+        <v>195.2536</v>
       </c>
       <c r="G109" t="n">
-        <v>-62224.61961963001</v>
+        <v>-75830.34475984001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4353,7 +4629,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4644,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>401.2</v>
+        <v>393.8</v>
       </c>
       <c r="C110" t="n">
-        <v>401.2</v>
+        <v>393.8</v>
       </c>
       <c r="D110" t="n">
-        <v>401.2</v>
+        <v>393.8</v>
       </c>
       <c r="E110" t="n">
-        <v>401.2</v>
+        <v>393.8</v>
       </c>
       <c r="F110" t="n">
-        <v>4194</v>
+        <v>182.7578</v>
       </c>
       <c r="G110" t="n">
-        <v>-62224.61961963001</v>
+        <v>-75647.58695984</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4389,7 +4669,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4400,22 +4684,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="C111" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="D111" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="E111" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="F111" t="n">
-        <v>3928.8818</v>
+        <v>90.5766</v>
       </c>
       <c r="G111" t="n">
-        <v>-62224.61961963001</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4425,7 +4709,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4436,22 +4724,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="C112" t="n">
-        <v>405.4</v>
+        <v>394</v>
       </c>
       <c r="D112" t="n">
-        <v>405.4</v>
+        <v>394</v>
       </c>
       <c r="E112" t="n">
-        <v>401.2</v>
+        <v>394</v>
       </c>
       <c r="F112" t="n">
-        <v>221.63630098</v>
+        <v>46.8081</v>
       </c>
       <c r="G112" t="n">
-        <v>-62002.98331865001</v>
+        <v>-75557.01035984</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4461,7 +4749,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4472,22 +4764,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>402.3</v>
+        <v>393.2</v>
       </c>
       <c r="C113" t="n">
-        <v>402.3</v>
+        <v>391.2</v>
       </c>
       <c r="D113" t="n">
-        <v>402.3</v>
+        <v>393.2</v>
       </c>
       <c r="E113" t="n">
-        <v>402.3</v>
+        <v>391.2</v>
       </c>
       <c r="F113" t="n">
-        <v>86.90000000000001</v>
+        <v>4280.8203</v>
       </c>
       <c r="G113" t="n">
-        <v>-62089.88331865001</v>
+        <v>-79837.83065984001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4497,7 +4789,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4508,22 +4804,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>401.3</v>
+        <v>393.8</v>
       </c>
       <c r="C114" t="n">
-        <v>405.4</v>
+        <v>393.9</v>
       </c>
       <c r="D114" t="n">
-        <v>405.4</v>
+        <v>393.9</v>
       </c>
       <c r="E114" t="n">
-        <v>401.3</v>
+        <v>393.8</v>
       </c>
       <c r="F114" t="n">
-        <v>2621.3</v>
+        <v>109.18065514</v>
       </c>
       <c r="G114" t="n">
-        <v>-59468.58331865001</v>
+        <v>-79728.65000470002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4533,7 +4829,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4544,32 +4844,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>402</v>
+        <v>392.5</v>
       </c>
       <c r="C115" t="n">
-        <v>403.9</v>
+        <v>392.1</v>
       </c>
       <c r="D115" t="n">
-        <v>403.9</v>
+        <v>392.5</v>
       </c>
       <c r="E115" t="n">
-        <v>402</v>
+        <v>392.1</v>
       </c>
       <c r="F115" t="n">
-        <v>93.14490000000001</v>
+        <v>111.5855</v>
       </c>
       <c r="G115" t="n">
-        <v>-59561.72821865001</v>
+        <v>-79840.23550470002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4580,32 +4884,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>402</v>
+        <v>391.1</v>
       </c>
       <c r="C116" t="n">
-        <v>402.9</v>
+        <v>391.1</v>
       </c>
       <c r="D116" t="n">
-        <v>402.9</v>
+        <v>391.1</v>
       </c>
       <c r="E116" t="n">
-        <v>401.3</v>
+        <v>391.1</v>
       </c>
       <c r="F116" t="n">
-        <v>749.5585</v>
+        <v>1040</v>
       </c>
       <c r="G116" t="n">
-        <v>-60311.28671865001</v>
+        <v>-80880.23550470002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4616,32 +4924,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>401.3</v>
+        <v>395.5</v>
       </c>
       <c r="C117" t="n">
-        <v>402.9</v>
+        <v>395.5</v>
       </c>
       <c r="D117" t="n">
-        <v>402.9</v>
+        <v>395.5</v>
       </c>
       <c r="E117" t="n">
-        <v>401.3</v>
+        <v>395.5</v>
       </c>
       <c r="F117" t="n">
-        <v>988.3</v>
+        <v>0.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>-60311.28671865001</v>
+        <v>-80880.23540470001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4652,22 +4964,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>401.3</v>
+        <v>395.7</v>
       </c>
       <c r="C118" t="n">
-        <v>401.3</v>
+        <v>395.7</v>
       </c>
       <c r="D118" t="n">
-        <v>401.3</v>
+        <v>395.7</v>
       </c>
       <c r="E118" t="n">
-        <v>401.3</v>
+        <v>395.7</v>
       </c>
       <c r="F118" t="n">
-        <v>689.0041</v>
+        <v>1.3</v>
       </c>
       <c r="G118" t="n">
-        <v>-61000.29081865001</v>
+        <v>-80878.93540470001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4677,7 +4989,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4688,32 +5004,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>402.9</v>
+        <v>395.9</v>
       </c>
       <c r="C119" t="n">
-        <v>404.9</v>
+        <v>405.5</v>
       </c>
       <c r="D119" t="n">
-        <v>404.9</v>
+        <v>409</v>
       </c>
       <c r="E119" t="n">
-        <v>402.9</v>
+        <v>395.9</v>
       </c>
       <c r="F119" t="n">
-        <v>6.43257594</v>
+        <v>22119.7678</v>
       </c>
       <c r="G119" t="n">
-        <v>-60993.85824271</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4724,32 +5044,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>401</v>
+        <v>405.5</v>
       </c>
       <c r="C120" t="n">
-        <v>401</v>
+        <v>405.5</v>
       </c>
       <c r="D120" t="n">
-        <v>401</v>
+        <v>405.5</v>
       </c>
       <c r="E120" t="n">
-        <v>401</v>
+        <v>405.5</v>
       </c>
       <c r="F120" t="n">
-        <v>133.9996</v>
+        <v>12560</v>
       </c>
       <c r="G120" t="n">
-        <v>-61127.85784271001</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4760,32 +5084,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>406</v>
+        <v>405.5</v>
       </c>
       <c r="C121" t="n">
-        <v>406</v>
+        <v>405.5</v>
       </c>
       <c r="D121" t="n">
-        <v>406</v>
+        <v>405.5</v>
       </c>
       <c r="E121" t="n">
-        <v>406</v>
+        <v>405.5</v>
       </c>
       <c r="F121" t="n">
-        <v>451</v>
+        <v>4757.66</v>
       </c>
       <c r="G121" t="n">
-        <v>-60676.85784271001</v>
+        <v>-58759.16760470001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4796,32 +5124,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>406.6</v>
+        <v>405</v>
       </c>
       <c r="C122" t="n">
-        <v>406.6</v>
+        <v>410.2</v>
       </c>
       <c r="D122" t="n">
-        <v>406.6</v>
+        <v>410.2</v>
       </c>
       <c r="E122" t="n">
-        <v>406.6</v>
+        <v>405</v>
       </c>
       <c r="F122" t="n">
-        <v>108.0324</v>
+        <v>7328.79721304</v>
       </c>
       <c r="G122" t="n">
-        <v>-60568.82544271001</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4832,32 +5164,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>406.6</v>
+        <v>409.2</v>
       </c>
       <c r="C123" t="n">
-        <v>406.6</v>
+        <v>410.2</v>
       </c>
       <c r="D123" t="n">
-        <v>406.6</v>
+        <v>410.2</v>
       </c>
       <c r="E123" t="n">
-        <v>406.6</v>
+        <v>409.2</v>
       </c>
       <c r="F123" t="n">
-        <v>90.027</v>
+        <v>11958.75670404</v>
       </c>
       <c r="G123" t="n">
-        <v>-60568.82544271001</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4868,32 +5204,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>401.2</v>
+        <v>403</v>
       </c>
       <c r="C124" t="n">
-        <v>407</v>
+        <v>410.2</v>
       </c>
       <c r="D124" t="n">
-        <v>408</v>
+        <v>410.2</v>
       </c>
       <c r="E124" t="n">
-        <v>401.2</v>
+        <v>403</v>
       </c>
       <c r="F124" t="n">
-        <v>730.3723</v>
+        <v>13454.56908292</v>
       </c>
       <c r="G124" t="n">
-        <v>-59838.45314271001</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4904,32 +5244,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>408</v>
+        <v>410.2</v>
       </c>
       <c r="C125" t="n">
-        <v>408.5</v>
+        <v>410.2</v>
       </c>
       <c r="D125" t="n">
-        <v>408.5</v>
+        <v>410.2</v>
       </c>
       <c r="E125" t="n">
-        <v>408</v>
+        <v>410.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1147.5709</v>
+        <v>778.0367</v>
       </c>
       <c r="G125" t="n">
-        <v>-58690.88224271001</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4940,36 +5284,2920 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>404.2</v>
+        <v>410.2</v>
       </c>
       <c r="C126" t="n">
-        <v>404.2</v>
+        <v>410.2</v>
       </c>
       <c r="D126" t="n">
-        <v>404.2</v>
+        <v>410.2</v>
       </c>
       <c r="E126" t="n">
-        <v>404.2</v>
+        <v>410.2</v>
       </c>
       <c r="F126" t="n">
-        <v>40</v>
+        <v>3322.764</v>
       </c>
       <c r="G126" t="n">
-        <v>-58730.88224271001</v>
+        <v>-51430.37039166001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
       <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.708e-05</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-51430.37039166001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>410</v>
+      </c>
+      <c r="C128" t="n">
+        <v>410</v>
+      </c>
+      <c r="D128" t="n">
+        <v>410</v>
+      </c>
+      <c r="E128" t="n">
+        <v>410</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.53658536</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-51438.90697702001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>409</v>
+      </c>
+      <c r="C129" t="n">
+        <v>409</v>
+      </c>
+      <c r="D129" t="n">
+        <v>409</v>
+      </c>
+      <c r="E129" t="n">
+        <v>409</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-51441.90697702001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>407</v>
+      </c>
+      <c r="C130" t="n">
+        <v>407</v>
+      </c>
+      <c r="D130" t="n">
+        <v>407</v>
+      </c>
+      <c r="E130" t="n">
+        <v>407</v>
+      </c>
+      <c r="F130" t="n">
+        <v>63.54</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-51505.44697702001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>406</v>
+      </c>
+      <c r="C131" t="n">
+        <v>406</v>
+      </c>
+      <c r="D131" t="n">
+        <v>406</v>
+      </c>
+      <c r="E131" t="n">
+        <v>406</v>
+      </c>
+      <c r="F131" t="n">
+        <v>50</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-51555.44697702001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-51558.44697702001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>404</v>
+      </c>
+      <c r="C133" t="n">
+        <v>402.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>404</v>
+      </c>
+      <c r="E133" t="n">
+        <v>402.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>200</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-51758.44697702001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>599.63</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-51158.81697702001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-56158.81697702001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>401.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>401.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>408.16</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-56566.97697702001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>81.8121</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>19878.555</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>332.5507</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2740</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2518.31</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>404</v>
+      </c>
+      <c r="C145" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>404</v>
+      </c>
+      <c r="E145" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1453.7886</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2510</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8230</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>560</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4296.0869</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-56485.16487702001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>401</v>
+      </c>
+      <c r="C151" t="n">
+        <v>401</v>
+      </c>
+      <c r="D151" t="n">
+        <v>401</v>
+      </c>
+      <c r="E151" t="n">
+        <v>401</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14.0913</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-56499.25617702001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>401</v>
+      </c>
+      <c r="C152" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>401</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-56494.85617702001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>401</v>
+      </c>
+      <c r="C153" t="n">
+        <v>401</v>
+      </c>
+      <c r="D153" t="n">
+        <v>401</v>
+      </c>
+      <c r="E153" t="n">
+        <v>401</v>
+      </c>
+      <c r="F153" t="n">
+        <v>246.8499</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-56741.70607702001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-56740.46607702001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4267.5889</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-61008.05497702002</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-61004.75497702001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>252.4561</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>75.7368</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>374.8973</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>901.5371</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>800</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>740</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2660</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-59667.21107702002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>150.4146</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-59667.21107702002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>970</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20.322</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>929.1826</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>689.5494</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>610.667</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>182.0577</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>399</v>
+      </c>
+      <c r="D174" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1539.201</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-63936.41207702002</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>398</v>
+      </c>
+      <c r="C175" t="n">
+        <v>398</v>
+      </c>
+      <c r="D175" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>398</v>
+      </c>
+      <c r="F175" t="n">
+        <v>478.3417</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-64414.75377702001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>399</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-64411.45377702001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>398</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-64411.45377702001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>249.25295739</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-64162.20081963001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1937.5812</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>248.3321</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4194</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3928.8818</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-62224.61961963001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>221.63630098</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-62002.98331865001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-62089.88331865001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2621.3</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-59468.58331865001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>402</v>
+      </c>
+      <c r="C186" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>402</v>
+      </c>
+      <c r="F186" t="n">
+        <v>93.14490000000001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-59561.72821865001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>402</v>
+      </c>
+      <c r="C187" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>749.5585</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-60311.28671865001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>988.3</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-60311.28671865001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>689.0041</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-61000.29081865001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6.43257594</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-60993.85824271</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>401</v>
+      </c>
+      <c r="C191" t="n">
+        <v>401</v>
+      </c>
+      <c r="D191" t="n">
+        <v>401</v>
+      </c>
+      <c r="E191" t="n">
+        <v>401</v>
+      </c>
+      <c r="F191" t="n">
+        <v>133.9996</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-61127.85784271001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>406</v>
+      </c>
+      <c r="C192" t="n">
+        <v>406</v>
+      </c>
+      <c r="D192" t="n">
+        <v>406</v>
+      </c>
+      <c r="E192" t="n">
+        <v>406</v>
+      </c>
+      <c r="F192" t="n">
+        <v>451</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-60676.85784271001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>401</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>108.0324</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-60568.82544271001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="C194" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>90.027</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-60568.82544271001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>401</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>407</v>
+      </c>
+      <c r="D195" t="n">
+        <v>408</v>
+      </c>
+      <c r="E195" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>730.3723</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-59838.45314271001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>408</v>
+      </c>
+      <c r="C196" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>408</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1147.5709</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-58690.88224271001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>40</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-58730.88224271001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>65456.67755787</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>64672.61695787</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-15613.10274213</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,19 @@
         <v>-11483.85264212999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>390.5</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1412,23 @@
         <v>-11383.85264212999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>390.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,24 +1453,23 @@
         <v>-10272.68414212999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>390.5</v>
       </c>
       <c r="J32" t="n">
         <v>390.5</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1578,24 +1494,21 @@
         <v>-10193.05494212999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>390.6</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1622,20 +1535,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,20 +1574,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,20 +1613,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1742,20 +1652,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1782,20 +1691,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1822,20 +1730,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,20 +1769,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1902,20 +1808,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1942,20 +1847,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1982,20 +1886,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2020,24 +1923,21 @@
         <v>-10887.85975984</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>392.2</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2064,20 +1964,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2104,20 +2003,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2144,20 +2042,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2184,20 +2081,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2224,20 +2120,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2264,20 +2159,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2304,20 +2198,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2344,20 +2237,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2384,20 +2276,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2424,20 +2315,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2464,20 +2354,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2504,20 +2393,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2544,20 +2432,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2584,20 +2471,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2624,20 +2510,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2664,20 +2549,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2704,20 +2588,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,20 +2627,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2784,20 +2666,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2824,20 +2705,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2864,20 +2744,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2904,20 +2783,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2944,20 +2822,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2984,20 +2861,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3024,20 +2900,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3064,20 +2939,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3104,20 +2978,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3144,20 +3017,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3184,20 +3056,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3224,20 +3095,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3264,20 +3134,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3304,20 +3173,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3344,20 +3212,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3384,20 +3251,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3424,20 +3290,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3462,22 +3327,23 @@
         <v>-51870.16455983999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>406.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3504,20 +3370,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3542,22 +3407,23 @@
         <v>-51650.48885983999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="J82" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3584,20 +3450,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3624,20 +3489,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3664,20 +3528,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3704,20 +3567,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3744,20 +3606,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3784,20 +3645,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3824,20 +3684,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3864,20 +3723,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3904,20 +3762,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3944,20 +3801,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3984,20 +3840,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4024,20 +3879,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4064,20 +3918,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4104,20 +3957,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4144,20 +3996,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4184,20 +4035,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4224,20 +4074,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4264,20 +4113,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4304,20 +4152,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4344,20 +4191,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4384,20 +4230,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4424,20 +4269,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4464,20 +4308,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4504,20 +4347,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4544,20 +4386,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4584,20 +4425,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4624,20 +4464,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4664,20 +4503,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4704,20 +4542,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,20 +4581,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4784,20 +4620,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4824,20 +4659,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4864,20 +4698,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4904,20 +4737,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4944,20 +4776,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4984,20 +4815,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5024,20 +4854,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,20 +4893,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5104,20 +4932,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5144,20 +4971,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5184,20 +5010,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5224,20 +5049,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5264,20 +5088,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5304,20 +5127,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5344,20 +5166,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5384,20 +5205,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5424,20 +5244,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5464,20 +5283,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5504,20 +5322,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5544,20 +5361,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5584,20 +5400,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,20 +5439,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5664,20 +5478,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5704,20 +5517,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5744,20 +5556,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5784,20 +5595,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5824,20 +5634,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5864,20 +5673,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5904,20 +5712,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5944,20 +5751,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5984,20 +5790,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6024,20 +5829,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6064,20 +5868,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6104,20 +5907,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6144,20 +5946,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6184,20 +5985,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6224,20 +6024,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6264,20 +6063,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6304,20 +6102,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6344,20 +6141,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6384,20 +6180,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6424,20 +6219,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6464,20 +6258,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6504,20 +6297,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6544,20 +6336,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6582,24 +6373,21 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6624,24 +6412,21 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6666,24 +6451,21 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6708,24 +6490,21 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6752,22 +6531,19 @@
       <c r="H162" t="n">
         <v>1</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6792,24 +6568,21 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6836,22 +6609,19 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6878,22 +6648,19 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6920,22 +6687,19 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6960,24 +6724,21 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7004,22 +6765,19 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7046,22 +6804,19 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7086,24 +6841,21 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7128,24 +6880,21 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7170,24 +6919,21 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7214,22 +6960,19 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7256,22 +6999,19 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7298,22 +7038,19 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>399</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7340,22 +7077,19 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>398</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7382,22 +7116,19 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7424,22 +7155,19 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7464,22 +7192,21 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7506,20 +7233,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7544,22 +7270,21 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7586,20 +7311,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7626,20 +7350,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7666,20 +7389,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7706,20 +7428,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7744,24 +7465,21 @@
         <v>-59561.72821865001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7788,20 +7506,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7826,24 +7543,21 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7868,24 +7582,21 @@
         <v>-61000.29081865001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7910,24 +7621,21 @@
         <v>-60993.85824271</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7954,20 +7662,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7992,24 +7699,21 @@
         <v>-60676.85784271001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>401</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>390.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8036,18 +7740,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
       </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8074,22 +7779,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>401</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8116,16 +7818,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8152,16 +7857,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8186,20 +7894,23 @@
         <v>-58730.88224271001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1.030083226632522</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,7 +1012,7 @@
         <v>64672.61695787</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>64542.12665787</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-17207.10274213</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-15613.10274213</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-24086.96024212999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-75040.96955984</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-76302.62465984</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5599,14 +5599,10 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>401.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
@@ -5639,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5675,19 +5665,11 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +5698,10 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>401.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5753,19 +5731,11 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5794,423 +5764,353 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>401.1</v>
       </c>
-      <c r="J163" t="n">
+      <c r="C164" t="n">
         <v>401.1</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="D164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2660</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-61257.21107702002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-59667.21107702002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>150.4146</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-59667.21107702002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>970</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20.322</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>929.1826</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-60637.21107702002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>689.5494</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>610.667</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>182.0577</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-62397.21107702002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2660</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D165" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E165" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="C166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="D166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="E166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="F166" t="n">
-        <v>150.4146</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>970</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F168" t="n">
-        <v>20.322</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>929.1826</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1760</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="E171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F171" t="n">
-        <v>689.5494</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>610.667</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="F173" t="n">
-        <v>182.0577</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +6139,13 @@
         <v>-63936.41207702002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>399.2</v>
+      </c>
       <c r="J174" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6278,11 +6180,13 @@
         <v>-64414.75377702001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>399</v>
+      </c>
       <c r="J175" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6317,11 +6221,13 @@
         <v>-64411.45377702001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>398</v>
+      </c>
       <c r="J176" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6356,11 +6262,13 @@
         <v>-64411.45377702001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>400.1</v>
+      </c>
       <c r="J177" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6395,11 +6303,13 @@
         <v>-64162.20081963001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>400.1</v>
+      </c>
       <c r="J178" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6434,11 +6344,13 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>400.2</v>
+      </c>
       <c r="J179" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6473,11 +6385,13 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>401.2</v>
+      </c>
       <c r="J180" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6516,7 +6430,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6555,7 +6469,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6594,7 +6508,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6633,7 +6547,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6672,7 +6586,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6711,7 +6625,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6750,7 +6664,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6789,7 +6703,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6824,13 +6738,11 @@
         <v>-61000.29081865001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>402.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6871,7 +6783,7 @@
         <v>401.3</v>
       </c>
       <c r="J190" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6910,7 +6822,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6949,7 +6861,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6988,7 +6900,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7027,7 +6939,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7066,7 +6978,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7105,7 +7017,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7144,7 +7056,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>401.1</v>
+        <v>399.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7157,6 +7069,6 @@
       <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -3883,7 +3883,7 @@
         <v>-75040.96955984</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-76302.62465984</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,10 +3982,14 @@
         <v>-75830.34475984001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>393</v>
+      </c>
+      <c r="J109" t="n">
+        <v>393</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4018,8 +4022,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>393</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4061,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>393</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4147,10 +4163,14 @@
         <v>-79728.65000470002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>391.2</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4180,11 +4200,19 @@
         <v>-79840.23550470002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="J115" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4241,19 @@
         <v>-80880.23550470002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>391.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,10 +4282,14 @@
         <v>-80880.23540470001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>391.1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4282,8 +4322,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4361,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5368,10 +5420,14 @@
         <v>-56499.25617702001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="J151" t="n">
+        <v>403.8</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5401,11 +5457,19 @@
         <v>-56494.85617702001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>401</v>
+      </c>
+      <c r="J152" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5537,19 @@
         <v>-56740.46607702001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>401</v>
+      </c>
+      <c r="J154" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5581,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5617,19 @@
         <v>-61004.75497702001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5658,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J157" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5699,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5740,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5781,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5822,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5863,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5904,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5945,19 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5986,19 @@
         <v>-59667.21107702002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6027,19 @@
         <v>-59667.21107702002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6068,19 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>401.2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6109,19 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6150,19 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6191,19 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6232,19 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6067,9 +6279,13 @@
         <v>399.2</v>
       </c>
       <c r="J172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+        <v>403.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +6320,11 @@
         <v>399.2</v>
       </c>
       <c r="J173" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6145,7 +6361,7 @@
         <v>399.2</v>
       </c>
       <c r="J174" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6186,7 +6402,7 @@
         <v>399</v>
       </c>
       <c r="J175" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6227,7 +6443,7 @@
         <v>398</v>
       </c>
       <c r="J176" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6268,7 +6484,7 @@
         <v>400.1</v>
       </c>
       <c r="J177" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6309,7 +6525,7 @@
         <v>400.1</v>
       </c>
       <c r="J178" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6350,7 +6566,7 @@
         <v>400.2</v>
       </c>
       <c r="J179" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6391,7 +6607,7 @@
         <v>401.2</v>
       </c>
       <c r="J180" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6426,11 +6642,13 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>401.2</v>
+      </c>
       <c r="J181" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6465,11 +6683,13 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>401.2</v>
+      </c>
       <c r="J182" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6504,11 +6724,13 @@
         <v>-62002.98331865001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>401.2</v>
+      </c>
       <c r="J183" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6543,11 +6765,13 @@
         <v>-62089.88331865001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>405.4</v>
+      </c>
       <c r="J184" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6582,11 +6806,13 @@
         <v>-59468.58331865001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>402.3</v>
+      </c>
       <c r="J185" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6621,11 +6847,13 @@
         <v>-59561.72821865001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>405.4</v>
+      </c>
       <c r="J186" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6660,11 +6888,13 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>403.9</v>
+      </c>
       <c r="J187" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6699,11 +6929,13 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>402.9</v>
+      </c>
       <c r="J188" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6738,11 +6970,13 @@
         <v>-61000.29081865001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>402.9</v>
+      </c>
       <c r="J189" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6783,7 +7017,7 @@
         <v>401.3</v>
       </c>
       <c r="J190" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6818,11 +7052,13 @@
         <v>-61127.85784271001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>404.9</v>
+      </c>
       <c r="J191" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6857,11 +7093,13 @@
         <v>-60676.85784271001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>401</v>
+      </c>
       <c r="J192" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6896,11 +7134,13 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>406</v>
+      </c>
       <c r="J193" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6935,19 +7175,19 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>399.2</v>
+        <v>403.8</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>1.001934125804854</v>
       </c>
       <c r="M194" t="inlineStr"/>
     </row>
@@ -6974,17 +7214,11 @@
         <v>-59838.45314271001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7013,17 +7247,15 @@
         <v>-58690.88224271001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>407</v>
+      </c>
       <c r="J196" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7052,15 +7284,15 @@
         <v>-58730.88224271001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>399.2</v>
+        <v>407</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L197" t="n">

--- a/BackTest/2020-01-24 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-24 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>215</v>
       </c>
       <c r="G2" t="n">
-        <v>126272.4228</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>126276.4228</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>858</v>
       </c>
       <c r="G4" t="n">
-        <v>127134.4228</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2532.67494213</v>
       </c>
       <c r="G5" t="n">
-        <v>124601.74785787</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>142</v>
       </c>
       <c r="G6" t="n">
-        <v>124459.74785787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>124463.74785787</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>433.3526</v>
       </c>
       <c r="G8" t="n">
-        <v>124030.39525787</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>393.9962</v>
       </c>
       <c r="G9" t="n">
-        <v>124424.39145787</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>280.9772</v>
       </c>
       <c r="G10" t="n">
-        <v>124143.41425787</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4.1234</v>
       </c>
       <c r="G11" t="n">
-        <v>124147.53765787</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>48.718</v>
       </c>
       <c r="G12" t="n">
-        <v>124098.81965787</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>207.486</v>
       </c>
       <c r="G13" t="n">
-        <v>123891.33365787</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6071.8828</v>
       </c>
       <c r="G14" t="n">
-        <v>129963.21645787</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1113.044</v>
       </c>
       <c r="G15" t="n">
-        <v>131076.26045787</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>410.3</v>
       </c>
       <c r="G16" t="n">
-        <v>130665.96045787</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>65210.5829</v>
       </c>
       <c r="G17" t="n">
-        <v>65455.37755786999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>65456.67755787</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>784.0606</v>
       </c>
       <c r="G19" t="n">
-        <v>64672.61695787</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>130.4903</v>
       </c>
       <c r="G20" t="n">
-        <v>64542.12665787</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>81749.2294</v>
       </c>
       <c r="G21" t="n">
-        <v>-17207.10274213</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1594</v>
       </c>
       <c r="G22" t="n">
-        <v>-15613.10274213</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>8473.8575</v>
       </c>
       <c r="G23" t="n">
-        <v>-24086.96024212999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>8490.5499</v>
       </c>
       <c r="G24" t="n">
-        <v>-15596.41034212999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>95.8094</v>
       </c>
       <c r="G25" t="n">
-        <v>-15500.60094212999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>756.1301999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-15500.60094212999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-16500.60094212999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>876.2107999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-17376.81174212999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>6088.2303</v>
       </c>
       <c r="G29" t="n">
-        <v>-11288.58144212999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>195.2712</v>
       </c>
       <c r="G30" t="n">
-        <v>-11483.85264212999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>-11383.85264212999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1111.1685</v>
       </c>
       <c r="G32" t="n">
-        <v>-10272.68414212999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>79.6292</v>
       </c>
       <c r="G33" t="n">
-        <v>-10193.05494212999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>89.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-10283.05484213</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>51.9547</v>
       </c>
       <c r="G35" t="n">
-        <v>-10231.10014213</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>61.5712</v>
       </c>
       <c r="G36" t="n">
-        <v>-10231.10014213</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>155.0661</v>
       </c>
       <c r="G37" t="n">
-        <v>-10231.10014213</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>32.308</v>
       </c>
       <c r="G38" t="n">
-        <v>-10231.10014213</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1.3</v>
       </c>
       <c r="G39" t="n">
-        <v>-10229.80014213</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>162.18431771</v>
       </c>
       <c r="G40" t="n">
-        <v>-10391.98445984</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>51.8225</v>
       </c>
       <c r="G41" t="n">
-        <v>-10340.16195984</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>42.7548</v>
       </c>
       <c r="G42" t="n">
-        <v>-10382.91675984</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>509.943</v>
       </c>
       <c r="G43" t="n">
-        <v>-10892.85975984</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>-10887.85975984</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6168.6373</v>
       </c>
       <c r="G45" t="n">
-        <v>-4719.222459839995</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>222.61</v>
       </c>
       <c r="G46" t="n">
-        <v>-4941.832459839995</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>56.93</v>
       </c>
       <c r="G47" t="n">
-        <v>-4941.832459839995</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>368</v>
       </c>
       <c r="G48" t="n">
-        <v>-4941.832459839995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>-4991.832459839995</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>59.19</v>
       </c>
       <c r="G50" t="n">
-        <v>-5051.022459839995</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>200.7</v>
       </c>
       <c r="G51" t="n">
-        <v>-5051.022459839995</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>269.634</v>
       </c>
       <c r="G52" t="n">
-        <v>-5051.022459839995</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>964.6994999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-6015.721959839994</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>350.0959</v>
       </c>
       <c r="G54" t="n">
-        <v>-6365.817859839995</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1259.7122</v>
       </c>
       <c r="G55" t="n">
-        <v>-7625.530059839994</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>635.6658</v>
       </c>
       <c r="G56" t="n">
-        <v>-6989.864259839995</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3571.9769</v>
       </c>
       <c r="G57" t="n">
-        <v>-3417.887359839995</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,21 @@
         <v>881.0862</v>
       </c>
       <c r="G58" t="n">
-        <v>-4298.973559839995</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2159,19 @@
         <v>213.68</v>
       </c>
       <c r="G59" t="n">
-        <v>-4298.973559839995</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2193,21 @@
         <v>448.13</v>
       </c>
       <c r="G60" t="n">
-        <v>-4747.103559839995</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,21 @@
         <v>1258.3286</v>
       </c>
       <c r="G61" t="n">
-        <v>-6005.432159839995</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>390.1</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2265,21 @@
         <v>87.503</v>
       </c>
       <c r="G62" t="n">
-        <v>-5917.929159839995</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>389.1</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2301,21 @@
         <v>1241.5989</v>
       </c>
       <c r="G63" t="n">
-        <v>-7159.528059839995</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>390.2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2337,21 @@
         <v>3724.7968</v>
       </c>
       <c r="G64" t="n">
-        <v>-10884.32485984</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>388.1</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2373,21 @@
         <v>6.329</v>
       </c>
       <c r="G65" t="n">
-        <v>-10877.99585984</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2409,21 @@
         <v>305.8908</v>
       </c>
       <c r="G66" t="n">
-        <v>-10877.99585984</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>393.9</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2445,19 @@
         <v>3.1164</v>
       </c>
       <c r="G67" t="n">
-        <v>-10881.11225984</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2479,19 @@
         <v>15527.5347</v>
       </c>
       <c r="G68" t="n">
-        <v>-26408.64695984</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2513,19 @@
         <v>3114.3355</v>
       </c>
       <c r="G69" t="n">
-        <v>-26408.64695984</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2547,19 @@
         <v>43632.8216</v>
       </c>
       <c r="G70" t="n">
-        <v>17224.17464016001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2581,19 @@
         <v>8417.83</v>
       </c>
       <c r="G71" t="n">
-        <v>8806.344640160007</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2615,19 @@
         <v>26.96</v>
       </c>
       <c r="G72" t="n">
-        <v>8833.304640160006</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2649,19 @@
         <v>479</v>
       </c>
       <c r="G73" t="n">
-        <v>8354.304640160006</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2683,19 @@
         <v>54681.8818</v>
       </c>
       <c r="G74" t="n">
-        <v>-46327.57715984</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2717,19 @@
         <v>112.8978</v>
       </c>
       <c r="G75" t="n">
-        <v>-46214.67935984</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2751,19 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-46264.67935984</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2785,19 @@
         <v>1.3</v>
       </c>
       <c r="G77" t="n">
-        <v>-46263.37935983999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2819,19 @@
         <v>5340</v>
       </c>
       <c r="G78" t="n">
-        <v>-51603.37935983999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2853,17 @@
         <v>1.3</v>
       </c>
       <c r="G79" t="n">
-        <v>-51602.07935983999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2885,15 @@
         <v>268.0852</v>
       </c>
       <c r="G80" t="n">
-        <v>-51870.16455983999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2915,15 @@
         <v>215.3757</v>
       </c>
       <c r="G81" t="n">
-        <v>-51654.78885983999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2945,15 @@
         <v>4.3</v>
       </c>
       <c r="G82" t="n">
-        <v>-51650.48885983999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2975,15 @@
         <v>9585.5519</v>
       </c>
       <c r="G83" t="n">
-        <v>-61236.04075983999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3005,15 @@
         <v>507.7231</v>
       </c>
       <c r="G84" t="n">
-        <v>-61236.04075983999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3035,15 @@
         <v>179.0206</v>
       </c>
       <c r="G85" t="n">
-        <v>-61057.02015983999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3065,15 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>-61157.02015983999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3095,15 @@
         <v>940</v>
       </c>
       <c r="G87" t="n">
-        <v>-62097.02015983999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3125,15 @@
         <v>70.77</v>
       </c>
       <c r="G88" t="n">
-        <v>-62097.02015983999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3155,15 @@
         <v>710</v>
       </c>
       <c r="G89" t="n">
-        <v>-62807.02015983999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3185,15 @@
         <v>417.2547</v>
       </c>
       <c r="G90" t="n">
-        <v>-62807.02015983999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3215,15 @@
         <v>585.3200000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-62221.70015983999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3245,15 @@
         <v>61</v>
       </c>
       <c r="G92" t="n">
-        <v>-62160.70015983999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3275,15 @@
         <v>163.51</v>
       </c>
       <c r="G93" t="n">
-        <v>-62324.21015983999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3305,15 @@
         <v>982.6614</v>
       </c>
       <c r="G94" t="n">
-        <v>-61341.54875983999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3335,15 @@
         <v>395.73</v>
       </c>
       <c r="G95" t="n">
-        <v>-61737.27875984</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3365,15 @@
         <v>1.25</v>
       </c>
       <c r="G96" t="n">
-        <v>-61736.02875984</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3395,15 @@
         <v>180.73</v>
       </c>
       <c r="G97" t="n">
-        <v>-61916.75875984</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3425,15 @@
         <v>137.3847</v>
       </c>
       <c r="G98" t="n">
-        <v>-61779.37405984</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3455,15 @@
         <v>1.3</v>
       </c>
       <c r="G99" t="n">
-        <v>-61779.37405984</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3485,15 @@
         <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-61829.37405984</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3515,15 @@
         <v>1.7092</v>
       </c>
       <c r="G101" t="n">
-        <v>-61827.66485984</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3545,15 @@
         <v>9.99</v>
       </c>
       <c r="G102" t="n">
-        <v>-61837.65485984</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3575,15 @@
         <v>13228.79</v>
       </c>
       <c r="G103" t="n">
-        <v>-75066.44485984</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3605,15 @@
         <v>25.4753</v>
       </c>
       <c r="G104" t="n">
-        <v>-75040.96955984</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3635,15 @@
         <v>482.026</v>
       </c>
       <c r="G105" t="n">
-        <v>-75040.96955984</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3665,15 @@
         <v>472.2799</v>
       </c>
       <c r="G106" t="n">
-        <v>-75040.96955984</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3695,15 @@
         <v>1261.6551</v>
       </c>
       <c r="G107" t="n">
-        <v>-76302.62465984</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3725,15 @@
         <v>472.2799</v>
       </c>
       <c r="G108" t="n">
-        <v>-75830.34475984001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,22 +3755,15 @@
         <v>195.2536</v>
       </c>
       <c r="G109" t="n">
-        <v>-75830.34475984001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>393</v>
-      </c>
-      <c r="J109" t="n">
-        <v>393</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4016,24 +3785,15 @@
         <v>182.7578</v>
       </c>
       <c r="G110" t="n">
-        <v>-75647.58695984</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>393</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4055,24 +3815,15 @@
         <v>90.5766</v>
       </c>
       <c r="G111" t="n">
-        <v>-75557.01035984</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>393</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4094,18 +3845,15 @@
         <v>46.8081</v>
       </c>
       <c r="G112" t="n">
-        <v>-75557.01035984</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4127,18 +3875,15 @@
         <v>4280.8203</v>
       </c>
       <c r="G113" t="n">
-        <v>-79837.83065984001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4160,22 +3905,15 @@
         <v>109.18065514</v>
       </c>
       <c r="G114" t="n">
-        <v>-79728.65000470002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="J114" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4197,26 +3935,15 @@
         <v>111.5855</v>
       </c>
       <c r="G115" t="n">
-        <v>-79840.23550470002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="J115" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4238,26 +3965,15 @@
         <v>1040</v>
       </c>
       <c r="G116" t="n">
-        <v>-80880.23550470002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4279,22 +3995,15 @@
         <v>0.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>-80880.23540470001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,24 +4025,15 @@
         <v>1.3</v>
       </c>
       <c r="G118" t="n">
-        <v>-80878.93540470001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4355,24 +4055,15 @@
         <v>22119.7678</v>
       </c>
       <c r="G119" t="n">
-        <v>-58759.16760470001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4394,18 +4085,15 @@
         <v>12560</v>
       </c>
       <c r="G120" t="n">
-        <v>-58759.16760470001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4427,18 +4115,15 @@
         <v>4757.66</v>
       </c>
       <c r="G121" t="n">
-        <v>-58759.16760470001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4460,18 +4145,15 @@
         <v>7328.79721304</v>
       </c>
       <c r="G122" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4493,18 +4175,15 @@
         <v>11958.75670404</v>
       </c>
       <c r="G123" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4526,18 +4205,15 @@
         <v>13454.56908292</v>
       </c>
       <c r="G124" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4559,18 +4235,15 @@
         <v>778.0367</v>
       </c>
       <c r="G125" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4592,18 +4265,15 @@
         <v>3322.764</v>
       </c>
       <c r="G126" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4625,18 +4295,15 @@
         <v>1.708e-05</v>
       </c>
       <c r="G127" t="n">
-        <v>-51430.37039166001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4658,18 +4325,15 @@
         <v>8.53658536</v>
       </c>
       <c r="G128" t="n">
-        <v>-51438.90697702001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4691,18 +4355,15 @@
         <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>-51441.90697702001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4724,18 +4385,15 @@
         <v>63.54</v>
       </c>
       <c r="G130" t="n">
-        <v>-51505.44697702001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4757,18 +4415,15 @@
         <v>50</v>
       </c>
       <c r="G131" t="n">
-        <v>-51555.44697702001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4790,18 +4445,15 @@
         <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>-51558.44697702001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4823,18 +4475,15 @@
         <v>200</v>
       </c>
       <c r="G133" t="n">
-        <v>-51758.44697702001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4856,18 +4505,15 @@
         <v>599.63</v>
       </c>
       <c r="G134" t="n">
-        <v>-51158.81697702001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4889,18 +4535,15 @@
         <v>5000</v>
       </c>
       <c r="G135" t="n">
-        <v>-56158.81697702001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4922,18 +4565,15 @@
         <v>408.16</v>
       </c>
       <c r="G136" t="n">
-        <v>-56566.97697702001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4955,18 +4595,15 @@
         <v>81.8121</v>
       </c>
       <c r="G137" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4988,18 +4625,15 @@
         <v>19878.555</v>
       </c>
       <c r="G138" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5021,18 +4655,15 @@
         <v>332.5507</v>
       </c>
       <c r="G139" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5054,18 +4685,15 @@
         <v>2740</v>
       </c>
       <c r="G140" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5087,18 +4715,15 @@
         <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5120,18 +4745,15 @@
         <v>2518.31</v>
       </c>
       <c r="G142" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5153,18 +4775,15 @@
         <v>400</v>
       </c>
       <c r="G143" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5186,18 +4805,15 @@
         <v>18.97</v>
       </c>
       <c r="G144" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5219,18 +4835,15 @@
         <v>1453.7886</v>
       </c>
       <c r="G145" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5252,18 +4865,15 @@
         <v>1060</v>
       </c>
       <c r="G146" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5285,18 +4895,15 @@
         <v>2510</v>
       </c>
       <c r="G147" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5318,18 +4925,15 @@
         <v>8230</v>
       </c>
       <c r="G148" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5351,18 +4955,15 @@
         <v>560</v>
       </c>
       <c r="G149" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5384,18 +4985,15 @@
         <v>4296.0869</v>
       </c>
       <c r="G150" t="n">
-        <v>-56485.16487702001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5417,22 +5015,15 @@
         <v>14.0913</v>
       </c>
       <c r="G151" t="n">
-        <v>-56499.25617702001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="J151" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5454,26 +5045,15 @@
         <v>4.4</v>
       </c>
       <c r="G152" t="n">
-        <v>-56494.85617702001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>401</v>
-      </c>
-      <c r="J152" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5495,24 +5075,15 @@
         <v>246.8499</v>
       </c>
       <c r="G153" t="n">
-        <v>-56741.70607702001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5534,26 +5105,15 @@
         <v>1.24</v>
       </c>
       <c r="G154" t="n">
-        <v>-56740.46607702001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>401</v>
-      </c>
-      <c r="J154" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5575,24 +5135,15 @@
         <v>4267.5889</v>
       </c>
       <c r="G155" t="n">
-        <v>-61008.05497702002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5614,26 +5165,15 @@
         <v>3.3</v>
       </c>
       <c r="G156" t="n">
-        <v>-61004.75497702001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5655,26 +5195,15 @@
         <v>252.4561</v>
       </c>
       <c r="G157" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="J157" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5696,26 +5225,15 @@
         <v>75.7368</v>
       </c>
       <c r="G158" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5737,26 +5255,15 @@
         <v>374.8973</v>
       </c>
       <c r="G159" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5778,26 +5285,15 @@
         <v>901.5371</v>
       </c>
       <c r="G160" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5819,26 +5315,15 @@
         <v>1200</v>
       </c>
       <c r="G161" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5860,26 +5345,15 @@
         <v>800</v>
       </c>
       <c r="G162" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5901,26 +5375,15 @@
         <v>740</v>
       </c>
       <c r="G163" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5942,26 +5405,15 @@
         <v>2660</v>
       </c>
       <c r="G164" t="n">
-        <v>-61257.21107702002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5983,26 +5435,15 @@
         <v>1590</v>
       </c>
       <c r="G165" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6024,26 +5465,15 @@
         <v>150.4146</v>
       </c>
       <c r="G166" t="n">
-        <v>-59667.21107702002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6065,26 +5495,15 @@
         <v>970</v>
       </c>
       <c r="G167" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6106,26 +5525,15 @@
         <v>20.322</v>
       </c>
       <c r="G168" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6147,26 +5555,15 @@
         <v>929.1826</v>
       </c>
       <c r="G169" t="n">
-        <v>-60637.21107702002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6188,26 +5585,15 @@
         <v>1760</v>
       </c>
       <c r="G170" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6229,26 +5615,15 @@
         <v>689.5494</v>
       </c>
       <c r="G171" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6270,26 +5645,15 @@
         <v>610.667</v>
       </c>
       <c r="G172" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="J172" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6311,26 +5675,15 @@
         <v>182.0577</v>
       </c>
       <c r="G173" t="n">
-        <v>-62397.21107702002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="J173" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6352,26 +5705,15 @@
         <v>1539.201</v>
       </c>
       <c r="G174" t="n">
-        <v>-63936.41207702002</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>399.2</v>
-      </c>
-      <c r="J174" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6393,26 +5735,15 @@
         <v>478.3417</v>
       </c>
       <c r="G175" t="n">
-        <v>-64414.75377702001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>399</v>
-      </c>
-      <c r="J175" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6434,26 +5765,15 @@
         <v>3.3</v>
       </c>
       <c r="G176" t="n">
-        <v>-64411.45377702001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>398</v>
-      </c>
-      <c r="J176" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6475,26 +5795,15 @@
         <v>21</v>
       </c>
       <c r="G177" t="n">
-        <v>-64411.45377702001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6516,26 +5825,15 @@
         <v>249.25295739</v>
       </c>
       <c r="G178" t="n">
-        <v>-64162.20081963001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6557,26 +5855,15 @@
         <v>1937.5812</v>
       </c>
       <c r="G179" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>400.2</v>
-      </c>
-      <c r="J179" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6598,26 +5885,15 @@
         <v>248.3321</v>
       </c>
       <c r="G180" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J180" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6639,26 +5915,15 @@
         <v>4194</v>
       </c>
       <c r="G181" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6680,26 +5945,15 @@
         <v>3928.8818</v>
       </c>
       <c r="G182" t="n">
-        <v>-62224.61961963001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6721,26 +5975,15 @@
         <v>221.63630098</v>
       </c>
       <c r="G183" t="n">
-        <v>-62002.98331865001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>401.2</v>
-      </c>
-      <c r="J183" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6762,26 +6005,15 @@
         <v>86.90000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>-62089.88331865001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="J184" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6803,26 +6035,15 @@
         <v>2621.3</v>
       </c>
       <c r="G185" t="n">
-        <v>-59468.58331865001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="J185" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6844,26 +6065,15 @@
         <v>93.14490000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>-59561.72821865001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>405.4</v>
-      </c>
-      <c r="J186" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6885,26 +6095,15 @@
         <v>749.5585</v>
       </c>
       <c r="G187" t="n">
-        <v>-60311.28671865001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>403.9</v>
-      </c>
-      <c r="J187" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6926,26 +6125,15 @@
         <v>988.3</v>
       </c>
       <c r="G188" t="n">
-        <v>-60311.28671865001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="J188" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6967,26 +6155,15 @@
         <v>689.0041</v>
       </c>
       <c r="G189" t="n">
-        <v>-61000.29081865001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="J189" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7008,26 +6185,15 @@
         <v>6.43257594</v>
       </c>
       <c r="G190" t="n">
-        <v>-60993.85824271</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="J190" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7049,26 +6215,15 @@
         <v>133.9996</v>
       </c>
       <c r="G191" t="n">
-        <v>-61127.85784271001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>404.9</v>
-      </c>
-      <c r="J191" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7090,26 +6245,15 @@
         <v>451</v>
       </c>
       <c r="G192" t="n">
-        <v>-60676.85784271001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>401</v>
-      </c>
-      <c r="J192" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7131,26 +6275,15 @@
         <v>108.0324</v>
       </c>
       <c r="G193" t="n">
-        <v>-60568.82544271001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>406</v>
-      </c>
-      <c r="J193" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7172,24 +6305,15 @@
         <v>90.027</v>
       </c>
       <c r="G194" t="n">
-        <v>-60568.82544271001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>403.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1.001934125804854</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7211,18 +6335,15 @@
         <v>730.3723</v>
       </c>
       <c r="G195" t="n">
-        <v>-59838.45314271001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7244,22 +6365,15 @@
         <v>1147.5709</v>
       </c>
       <c r="G196" t="n">
-        <v>-58690.88224271001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>407</v>
-      </c>
-      <c r="J196" t="n">
-        <v>407</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7281,24 +6395,15 @@
         <v>40</v>
       </c>
       <c r="G197" t="n">
-        <v>-58730.88224271001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>407</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
